--- a/app/Licenciatura_em_Servico_Social.xlsx
+++ b/app/Licenciatura_em_Servico_Social.xlsx
@@ -11,45 +11,41 @@
     <sheet name="Sheet1" sheetId="1" r:id="rId4"/>
     <sheet name="20154177" sheetId="2" r:id="rId5"/>
     <sheet name="20154172" sheetId="3" r:id="rId6"/>
-    <sheet name="20154494" sheetId="4" r:id="rId7"/>
-    <sheet name="20154159" sheetId="5" r:id="rId8"/>
-    <sheet name="20154181" sheetId="6" r:id="rId9"/>
-    <sheet name="20154178" sheetId="7" r:id="rId10"/>
-    <sheet name="20154174" sheetId="8" r:id="rId11"/>
-    <sheet name="20154167" sheetId="9" r:id="rId12"/>
-    <sheet name="20154191" sheetId="10" r:id="rId13"/>
-    <sheet name="20154161" sheetId="11" r:id="rId14"/>
-    <sheet name="20154189" sheetId="12" r:id="rId15"/>
-    <sheet name="20154187" sheetId="13" r:id="rId16"/>
-    <sheet name="20154526" sheetId="14" r:id="rId17"/>
-    <sheet name="20154186" sheetId="15" r:id="rId18"/>
-    <sheet name="20154182" sheetId="16" r:id="rId19"/>
-    <sheet name="20154184" sheetId="17" r:id="rId20"/>
-    <sheet name="20154165" sheetId="18" r:id="rId21"/>
-    <sheet name="20154171" sheetId="19" r:id="rId22"/>
-    <sheet name="20154190" sheetId="20" r:id="rId23"/>
-    <sheet name="20154493" sheetId="21" r:id="rId24"/>
-    <sheet name="20154158" sheetId="22" r:id="rId25"/>
-    <sheet name="20154179" sheetId="23" r:id="rId26"/>
-    <sheet name="20154173" sheetId="24" r:id="rId27"/>
-    <sheet name="20154175" sheetId="25" r:id="rId28"/>
-    <sheet name="20154180" sheetId="26" r:id="rId29"/>
-    <sheet name="20154162" sheetId="27" r:id="rId30"/>
-    <sheet name="20154183" sheetId="28" r:id="rId31"/>
-    <sheet name="20154166" sheetId="29" r:id="rId32"/>
-    <sheet name="20154157" sheetId="30" r:id="rId33"/>
-    <sheet name="20154160" sheetId="31" r:id="rId34"/>
-    <sheet name="20154164" sheetId="32" r:id="rId35"/>
-    <sheet name="20154188" sheetId="33" r:id="rId36"/>
-    <sheet name="20154170" sheetId="34" r:id="rId37"/>
-    <sheet name="20154169" sheetId="35" r:id="rId38"/>
-    <sheet name="20154185" sheetId="36" r:id="rId39"/>
-    <sheet name="20154163" sheetId="37" r:id="rId40"/>
-    <sheet name="20154168" sheetId="38" r:id="rId41"/>
-    <sheet name="20154176" sheetId="39" r:id="rId42"/>
-    <sheet name="20154799" sheetId="40" r:id="rId43"/>
-    <sheet name="Sheet2" sheetId="41" r:id="rId44"/>
-    <sheet name="Sheet3" sheetId="42" r:id="rId45"/>
+    <sheet name="20154159" sheetId="4" r:id="rId7"/>
+    <sheet name="20154181" sheetId="5" r:id="rId8"/>
+    <sheet name="20154178" sheetId="6" r:id="rId9"/>
+    <sheet name="20154174" sheetId="7" r:id="rId10"/>
+    <sheet name="20154167" sheetId="8" r:id="rId11"/>
+    <sheet name="20154191" sheetId="9" r:id="rId12"/>
+    <sheet name="20154161" sheetId="10" r:id="rId13"/>
+    <sheet name="20154189" sheetId="11" r:id="rId14"/>
+    <sheet name="20154187" sheetId="12" r:id="rId15"/>
+    <sheet name="20154186" sheetId="13" r:id="rId16"/>
+    <sheet name="20154182" sheetId="14" r:id="rId17"/>
+    <sheet name="20154184" sheetId="15" r:id="rId18"/>
+    <sheet name="20154165" sheetId="16" r:id="rId19"/>
+    <sheet name="20154171" sheetId="17" r:id="rId20"/>
+    <sheet name="20154190" sheetId="18" r:id="rId21"/>
+    <sheet name="20154158" sheetId="19" r:id="rId22"/>
+    <sheet name="20154179" sheetId="20" r:id="rId23"/>
+    <sheet name="20154173" sheetId="21" r:id="rId24"/>
+    <sheet name="20154175" sheetId="22" r:id="rId25"/>
+    <sheet name="20154180" sheetId="23" r:id="rId26"/>
+    <sheet name="20154162" sheetId="24" r:id="rId27"/>
+    <sheet name="20154183" sheetId="25" r:id="rId28"/>
+    <sheet name="20154166" sheetId="26" r:id="rId29"/>
+    <sheet name="20154157" sheetId="27" r:id="rId30"/>
+    <sheet name="20154160" sheetId="28" r:id="rId31"/>
+    <sheet name="20154164" sheetId="29" r:id="rId32"/>
+    <sheet name="20154188" sheetId="30" r:id="rId33"/>
+    <sheet name="20154170" sheetId="31" r:id="rId34"/>
+    <sheet name="20154169" sheetId="32" r:id="rId35"/>
+    <sheet name="20154185" sheetId="33" r:id="rId36"/>
+    <sheet name="20154163" sheetId="34" r:id="rId37"/>
+    <sheet name="20154168" sheetId="35" r:id="rId38"/>
+    <sheet name="20154176" sheetId="36" r:id="rId39"/>
+    <sheet name="Sheet2" sheetId="37" r:id="rId40"/>
+    <sheet name="Sheet3" sheetId="38" r:id="rId41"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" calcMode="auto" fullCalcOnLoad="0"/>
@@ -57,7 +53,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="320">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="302">
   <si>
     <t>UNIVERSIDADE EDUARDO MONDLANE</t>
   </si>
@@ -206,9 +202,6 @@
     <t>Maria Alexandre Chemane</t>
   </si>
   <si>
-    <t>Distrito de Mavalane</t>
-  </si>
-  <si>
     <t>Masculino</t>
   </si>
   <si>
@@ -257,615 +250,573 @@
     <t>Escola Secundaria da Matola</t>
   </si>
   <si>
-    <t>Prometido</t>
-  </si>
-  <si>
-    <t>Alsandro Agostinho</t>
+    <t>Nhatsota</t>
+  </si>
+  <si>
+    <t>Lina Rogerio</t>
+  </si>
+  <si>
+    <t>1997-02-15</t>
+  </si>
+  <si>
+    <t>Rogerio Nhatsota</t>
+  </si>
+  <si>
+    <t>Laila Cassimo</t>
+  </si>
+  <si>
+    <t>110101363768S</t>
+  </si>
+  <si>
+    <t>+258824723060</t>
+  </si>
+  <si>
+    <t>Outra - Cid.Maputo</t>
+  </si>
+  <si>
+    <t>Nhantumbo</t>
+  </si>
+  <si>
+    <t>Clementina Arlindo</t>
+  </si>
+  <si>
+    <t>1994-09-10</t>
+  </si>
+  <si>
+    <t>Arlindo Marcos Nhantumbo</t>
+  </si>
+  <si>
+    <t>Laura AntÓnio Munguambe</t>
+  </si>
+  <si>
+    <t>090102672659B</t>
+  </si>
+  <si>
+    <t>+258827779054</t>
+  </si>
+  <si>
+    <t>Escola Secundaria do Xai-Xai</t>
+  </si>
+  <si>
+    <t>Ngulele</t>
+  </si>
+  <si>
+    <t>Alberaldo Mosse</t>
+  </si>
+  <si>
+    <t>1994-06-19</t>
+  </si>
+  <si>
+    <t>Mosse Filipe Ngulele</t>
+  </si>
+  <si>
+    <t>AnastÁcia Zacarias Cuinica</t>
+  </si>
+  <si>
+    <t>110400192501B</t>
+  </si>
+  <si>
+    <t>+258843430034</t>
+  </si>
+  <si>
+    <t>Murrure</t>
+  </si>
+  <si>
+    <t>Atalia Paulo</t>
+  </si>
+  <si>
+    <t>1994-08-07</t>
+  </si>
+  <si>
+    <t>Paulo Murrure</t>
+  </si>
+  <si>
+    <t>Catarina Laice</t>
+  </si>
+  <si>
+    <t>110500632918F</t>
+  </si>
+  <si>
+    <t>+25884</t>
+  </si>
+  <si>
+    <t>Munguambe</t>
+  </si>
+  <si>
+    <t>Madina Arlindo</t>
+  </si>
+  <si>
+    <t>1996-01-05</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Arlindo Salomao Munguambe </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Farida Mussa Amade </t>
+  </si>
+  <si>
+    <t>110502812987F</t>
+  </si>
+  <si>
+    <t>+258823459017</t>
+  </si>
+  <si>
+    <t>Mulungo</t>
+  </si>
+  <si>
+    <t>Elia De Sousa</t>
+  </si>
+  <si>
+    <t>1992-09-14</t>
+  </si>
+  <si>
+    <t>Sousa Mulungo</t>
+  </si>
+  <si>
+    <t>Rute Manhica</t>
+  </si>
+  <si>
+    <t>100502683670F</t>
+  </si>
+  <si>
+    <t>+258845873854</t>
+  </si>
+  <si>
+    <t>Muchanga</t>
+  </si>
+  <si>
+    <t>Jesuíta Da Atanásia Grisson</t>
+  </si>
+  <si>
+    <t>1996-11-09</t>
+  </si>
+  <si>
+    <t>Grisson Muchanga</t>
+  </si>
+  <si>
+    <t>AtanÁsia Nhantumbo</t>
+  </si>
+  <si>
+    <t>110101562766M</t>
+  </si>
+  <si>
+    <t>+258824693928</t>
+  </si>
+  <si>
+    <t>Escola Secundaria Joaquim Chissano</t>
+  </si>
+  <si>
+    <t>Matsinhe</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Jacob Moises </t>
+  </si>
+  <si>
+    <t>1996-09-05</t>
+  </si>
+  <si>
+    <t>Moises Fabiao Matsinhe</t>
+  </si>
+  <si>
+    <t>Olga Alfredo Chacate</t>
+  </si>
+  <si>
+    <t>110204047876N</t>
+  </si>
+  <si>
+    <t>+258828710572</t>
+  </si>
+  <si>
+    <t>Matsimbe</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Preselina Rafael </t>
+  </si>
+  <si>
+    <t>1992-08-09</t>
+  </si>
+  <si>
+    <t>Rafael Matsimbe</t>
+  </si>
+  <si>
+    <t>Ester Da GlÓria  Jacob</t>
+  </si>
+  <si>
+    <t>110102006950I</t>
+  </si>
+  <si>
+    <t>+258828710795</t>
+  </si>
+  <si>
+    <t>Escola Secundaria da Lhanguene</t>
+  </si>
+  <si>
+    <t>Massude</t>
+  </si>
+  <si>
+    <t>Irene Laston</t>
+  </si>
+  <si>
+    <t>1996-09-26</t>
+  </si>
+  <si>
+    <t>Laston Bernardo Massude</t>
+  </si>
+  <si>
+    <t>Judite Oliveira Mutepa</t>
+  </si>
+  <si>
+    <t>070701607528I</t>
+  </si>
+  <si>
+    <t>+258845151562</t>
+  </si>
+  <si>
+    <t>Escola Secundaria do Dondo</t>
+  </si>
+  <si>
+    <t>Maringula</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Laurinda </t>
+  </si>
+  <si>
+    <t>1985-08-24</t>
+  </si>
+  <si>
+    <t>Rafael Augusto Guitofo</t>
+  </si>
+  <si>
+    <t>Ermelinda Rafael Cumbe</t>
+  </si>
+  <si>
+    <t>110301929175B</t>
+  </si>
+  <si>
+    <t>+258827353556</t>
+  </si>
+  <si>
+    <t>Escola Secundaria Noroeste 1</t>
+  </si>
+  <si>
+    <t>Manjate</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Inacio Rufino </t>
+  </si>
+  <si>
+    <t>1983-04-09</t>
+  </si>
+  <si>
+    <t>Rufino S. Manjate</t>
+  </si>
+  <si>
+    <t>Felismina A. Macuacua</t>
+  </si>
+  <si>
+    <t>110101160731P</t>
+  </si>
+  <si>
+    <t>+258827338018</t>
+  </si>
+  <si>
+    <t>Manhica</t>
+  </si>
+  <si>
+    <t>Ilda Armando</t>
+  </si>
+  <si>
+    <t>1994-04-04</t>
+  </si>
+  <si>
+    <t>Armando Martins Carlos Manhica</t>
+  </si>
+  <si>
+    <t>Clara Vasco Tivane</t>
+  </si>
+  <si>
+    <t>110100733318N</t>
+  </si>
+  <si>
+    <t>+258821981750</t>
+  </si>
+  <si>
+    <t>Escola Francisco Manyanga</t>
+  </si>
+  <si>
+    <t>Macuacua</t>
+  </si>
+  <si>
+    <t>Gisila Da Flor Osias</t>
+  </si>
+  <si>
+    <t>1995-06-12</t>
+  </si>
+  <si>
+    <t>Osias Jorge Macuacua</t>
+  </si>
+  <si>
+    <t>Boaventura Alberto Xerind</t>
+  </si>
+  <si>
+    <t>110101562100M</t>
+  </si>
+  <si>
+    <t>+258824143948</t>
+  </si>
+  <si>
+    <t>Escola Secundaria Eduardo Mondlane</t>
+  </si>
+  <si>
+    <t>Machava</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Atalia Vasco </t>
+  </si>
+  <si>
+    <t>1994-11-14</t>
+  </si>
+  <si>
+    <t>Vasco Pedro Machava</t>
+  </si>
+  <si>
+    <t>Izaida Luis Manhique</t>
+  </si>
+  <si>
+    <t>110504530543C</t>
+  </si>
+  <si>
+    <t>+258843969687</t>
+  </si>
+  <si>
+    <t>Macaime</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Manuel Yazalde Cipriano </t>
+  </si>
+  <si>
+    <t>1995-10-29</t>
+  </si>
+  <si>
+    <t>Cipriano Arnaldo Macaime</t>
+  </si>
+  <si>
+    <t>Catarina Maria Dos Santos</t>
+  </si>
+  <si>
+    <t>110400078740C</t>
+  </si>
+  <si>
+    <t>+258828419991</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Langa </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Lucia Firmino </t>
+  </si>
+  <si>
+    <t>1995-02-01</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Firmino TimÓteo Langa </t>
+  </si>
+  <si>
+    <t xml:space="preserve">AmÉlia Rafael Mulhovo </t>
+  </si>
+  <si>
+    <t>110100905331A</t>
+  </si>
+  <si>
+    <t>+258845960013</t>
+  </si>
+  <si>
+    <t>Escola Secundaria de Malhazine</t>
+  </si>
+  <si>
+    <t>Langa</t>
+  </si>
+  <si>
+    <t>Alzira Raimundo</t>
+  </si>
+  <si>
+    <t>1995-01-22</t>
+  </si>
+  <si>
+    <t>Raimundo Bernardo Langa</t>
+  </si>
+  <si>
+    <t>Rufina Francisco Conjo</t>
+  </si>
+  <si>
+    <t>100100777524A</t>
+  </si>
+  <si>
+    <t>+258842838110</t>
+  </si>
+  <si>
+    <t>Alexandrina Alexandre</t>
+  </si>
+  <si>
+    <t>1996-06-25</t>
+  </si>
+  <si>
+    <t>Alexandre Samuel Langa</t>
+  </si>
+  <si>
+    <t>Roda Gilberto Mangana</t>
+  </si>
+  <si>
+    <t>110102847605M</t>
+  </si>
+  <si>
+    <t>+258825125140</t>
+  </si>
+  <si>
+    <t>Escola Josina Machel</t>
+  </si>
+  <si>
+    <t>Jose</t>
+  </si>
+  <si>
+    <t>Lidia Armando</t>
+  </si>
+  <si>
+    <t>1996-02-21</t>
+  </si>
+  <si>
+    <t>Armando Jose</t>
+  </si>
+  <si>
+    <t>Hortencia Muchanga</t>
+  </si>
+  <si>
+    <t>110101567794A</t>
+  </si>
+  <si>
+    <t>+258842556527</t>
+  </si>
+  <si>
+    <t>Escola Secundaria da Zona-Verde</t>
+  </si>
+  <si>
+    <t>Jalane</t>
+  </si>
+  <si>
+    <t>Imelda Thambissa Elias</t>
+  </si>
+  <si>
+    <t>1995-06-05</t>
+  </si>
+  <si>
+    <t>Elias Jaime AbraÃo Jalane</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Amelia Raquel Salmada </t>
+  </si>
+  <si>
+    <t>110101529774N</t>
+  </si>
+  <si>
+    <t>+258845506035</t>
+  </si>
+  <si>
+    <t>Gune</t>
+  </si>
+  <si>
+    <t>Jessica Patricia</t>
+  </si>
+  <si>
+    <t>1996-05-14</t>
+  </si>
+  <si>
+    <t>Atanasio Fiosse Gune</t>
+  </si>
+  <si>
+    <t>Laura Penicela Muhai</t>
+  </si>
+  <si>
+    <t>110500174539M</t>
+  </si>
+  <si>
+    <t>+258824002179</t>
+  </si>
+  <si>
+    <t>Escola Secundaria Quisse Mavota</t>
+  </si>
+  <si>
+    <t>Ferreira</t>
+  </si>
+  <si>
+    <t>Cleder Alecio Nhate</t>
+  </si>
+  <si>
+    <t>1994-03-26</t>
+  </si>
+  <si>
+    <t>Jose Ferreira Do Antonio</t>
+  </si>
+  <si>
+    <t>Isabel Custodia Da Graca Nhate</t>
+  </si>
+  <si>
+    <t>070202252042B</t>
+  </si>
+  <si>
+    <t>+258844567689</t>
+  </si>
+  <si>
+    <t>Dos Santos</t>
+  </si>
+  <si>
+    <t>Elton Adriano</t>
+  </si>
+  <si>
+    <t>1993-05-21</t>
+  </si>
+  <si>
+    <t>Adelino Dos Santos Adriano Maguie</t>
+  </si>
+  <si>
+    <t>Lina Antonio Tivane</t>
+  </si>
+  <si>
+    <t>110101980730N</t>
+  </si>
+  <si>
+    <t>+258824895999</t>
+  </si>
+  <si>
+    <t>Da Silva</t>
+  </si>
+  <si>
+    <t>João Osvaldo</t>
+  </si>
+  <si>
+    <t>1996-10-04</t>
+  </si>
+  <si>
+    <t>Osvaldo Agostinho Da Silva</t>
+  </si>
+  <si>
+    <t>FÁtima NathÚ Golane</t>
+  </si>
+  <si>
+    <t>110504289393N</t>
+  </si>
+  <si>
+    <t>+258842496604</t>
+  </si>
+  <si>
+    <t>Cuamba</t>
+  </si>
+  <si>
+    <t>Dioclencio Joao</t>
   </si>
   <si>
     <t>+</t>
   </si>
   <si>
-    <t>Nhatsota</t>
-  </si>
-  <si>
-    <t>Lina Rogerio</t>
-  </si>
-  <si>
-    <t>1997-02-15</t>
-  </si>
-  <si>
-    <t>Rogerio Nhatsota</t>
-  </si>
-  <si>
-    <t>Laila Cassimo</t>
-  </si>
-  <si>
-    <t>Distrito Municipal de Kampfumo</t>
-  </si>
-  <si>
-    <t>110101363768S</t>
-  </si>
-  <si>
-    <t>+258824723060</t>
-  </si>
-  <si>
-    <t>Outra - Cid.Maputo</t>
-  </si>
-  <si>
-    <t>Nhantumbo</t>
-  </si>
-  <si>
-    <t>Clementina Arlindo</t>
-  </si>
-  <si>
-    <t>1994-09-10</t>
-  </si>
-  <si>
-    <t>Arlindo Marcos Nhantumbo</t>
-  </si>
-  <si>
-    <t>Laura AntÓnio Munguambe</t>
-  </si>
-  <si>
-    <t>Cidade de Xai-Xai</t>
-  </si>
-  <si>
-    <t>090102672659B</t>
-  </si>
-  <si>
-    <t>+258827779054</t>
-  </si>
-  <si>
-    <t>Escola Secundaria do Xai-Xai</t>
-  </si>
-  <si>
-    <t>Ngulele</t>
-  </si>
-  <si>
-    <t>Alberaldo Mosse</t>
-  </si>
-  <si>
-    <t>1994-06-19</t>
-  </si>
-  <si>
-    <t>Mosse Filipe Ngulele</t>
-  </si>
-  <si>
-    <t>AnastÁcia Zacarias Cuinica</t>
-  </si>
-  <si>
-    <t>Distrito Municipal Kamavota</t>
-  </si>
-  <si>
-    <t>110400192501B</t>
-  </si>
-  <si>
-    <t>+258843430034</t>
-  </si>
-  <si>
-    <t>Murrure</t>
-  </si>
-  <si>
-    <t>Atalia Paulo</t>
-  </si>
-  <si>
-    <t>1994-08-07</t>
-  </si>
-  <si>
-    <t>Paulo Murrure</t>
-  </si>
-  <si>
-    <t>Catarina Laice</t>
-  </si>
-  <si>
-    <t>110500632918F</t>
-  </si>
-  <si>
-    <t>+25884</t>
-  </si>
-  <si>
-    <t>Munguambe</t>
-  </si>
-  <si>
-    <t>Madina Arlindo</t>
-  </si>
-  <si>
-    <t>1996-01-05</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Arlindo Salomao Munguambe </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Farida Mussa Amade </t>
-  </si>
-  <si>
-    <t>Distrito Municipal Kamaxaquene</t>
-  </si>
-  <si>
-    <t>110502812987F</t>
-  </si>
-  <si>
-    <t>+258823459017</t>
-  </si>
-  <si>
-    <t>Mulungo</t>
-  </si>
-  <si>
-    <t>Elia De Sousa</t>
-  </si>
-  <si>
-    <t>1992-09-14</t>
-  </si>
-  <si>
-    <t>Sousa Mulungo</t>
-  </si>
-  <si>
-    <t>Rute Manhica</t>
-  </si>
-  <si>
-    <t>Distrito Municipal Kamubukwana</t>
-  </si>
-  <si>
-    <t>100502683670F</t>
-  </si>
-  <si>
-    <t>+258845873854</t>
-  </si>
-  <si>
-    <t>Muchanga</t>
-  </si>
-  <si>
-    <t>Jesuíta Da Atanásia Grisson</t>
-  </si>
-  <si>
-    <t>1996-11-09</t>
-  </si>
-  <si>
-    <t>Grisson Muchanga</t>
-  </si>
-  <si>
-    <t>AtanÁsia Nhantumbo</t>
-  </si>
-  <si>
-    <t>110101562766M</t>
-  </si>
-  <si>
-    <t>+258824693928</t>
-  </si>
-  <si>
-    <t>Escola Secundaria Joaquim Chissano</t>
-  </si>
-  <si>
-    <t>Matsinhe</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Jacob Moises </t>
-  </si>
-  <si>
-    <t>1996-09-05</t>
-  </si>
-  <si>
-    <t>Moises Fabiao Matsinhe</t>
-  </si>
-  <si>
-    <t>Olga Alfredo Chacate</t>
-  </si>
-  <si>
-    <t>110204047876N</t>
-  </si>
-  <si>
-    <t>+258828710572</t>
-  </si>
-  <si>
-    <t>Matsimbe</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Preselina Rafael </t>
-  </si>
-  <si>
-    <t>1992-08-09</t>
-  </si>
-  <si>
-    <t>Rafael Matsimbe</t>
-  </si>
-  <si>
-    <t>Ester Da GlÓria  Jacob</t>
-  </si>
-  <si>
-    <t>110102006950I</t>
-  </si>
-  <si>
-    <t>+258828710795</t>
-  </si>
-  <si>
-    <t>Escola Secundaria da Lhanguene</t>
-  </si>
-  <si>
-    <t>Matavele</t>
-  </si>
-  <si>
-    <t>Cremildo Joel</t>
-  </si>
-  <si>
-    <t>Massude</t>
-  </si>
-  <si>
-    <t>Irene Laston</t>
-  </si>
-  <si>
-    <t>1996-09-26</t>
-  </si>
-  <si>
-    <t>Laston Bernardo Massude</t>
-  </si>
-  <si>
-    <t>Judite Oliveira Mutepa</t>
-  </si>
-  <si>
-    <t>Cidade de Beira</t>
-  </si>
-  <si>
-    <t>070701607528I</t>
-  </si>
-  <si>
-    <t>+258845151562</t>
-  </si>
-  <si>
-    <t>Escola Secundaria do Dondo</t>
-  </si>
-  <si>
-    <t>Maringula</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Laurinda </t>
-  </si>
-  <si>
-    <t>1985-08-24</t>
-  </si>
-  <si>
-    <t>Rafael Augusto Guitofo</t>
-  </si>
-  <si>
-    <t>Ermelinda Rafael Cumbe</t>
-  </si>
-  <si>
-    <t>110301929175B</t>
-  </si>
-  <si>
-    <t>+258827353556</t>
-  </si>
-  <si>
-    <t>Escola Secundaria Noroeste 1</t>
-  </si>
-  <si>
-    <t>Manjate</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Inacio Rufino </t>
-  </si>
-  <si>
-    <t>1983-04-09</t>
-  </si>
-  <si>
-    <t>Rufino S. Manjate</t>
-  </si>
-  <si>
-    <t>Felismina A. Macuacua</t>
-  </si>
-  <si>
-    <t>110101160731P</t>
-  </si>
-  <si>
-    <t>+258827338018</t>
-  </si>
-  <si>
-    <t>Manhica</t>
-  </si>
-  <si>
-    <t>Ilda Armando</t>
-  </si>
-  <si>
-    <t>1994-04-04</t>
-  </si>
-  <si>
-    <t>Armando Martins Carlos Manhica</t>
-  </si>
-  <si>
-    <t>Clara Vasco Tivane</t>
-  </si>
-  <si>
-    <t>110100733318N</t>
-  </si>
-  <si>
-    <t>+258821981750</t>
-  </si>
-  <si>
-    <t>Escola Francisco Manyanga</t>
-  </si>
-  <si>
-    <t>Macuacua</t>
-  </si>
-  <si>
-    <t>Gisila Da Flor Osias</t>
-  </si>
-  <si>
-    <t>1995-06-12</t>
-  </si>
-  <si>
-    <t>Osias Jorge Macuacua</t>
-  </si>
-  <si>
-    <t>Boaventura Alberto Xerind</t>
-  </si>
-  <si>
-    <t>110101562100M</t>
-  </si>
-  <si>
-    <t>+258824143948</t>
-  </si>
-  <si>
-    <t>Escola Secundaria Eduardo Mondlane</t>
-  </si>
-  <si>
-    <t>Machava</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Atalia Vasco </t>
-  </si>
-  <si>
-    <t>1994-11-14</t>
-  </si>
-  <si>
-    <t>Vasco Pedro Machava</t>
-  </si>
-  <si>
-    <t>Izaida Luis Manhique</t>
-  </si>
-  <si>
-    <t>110504530543C</t>
-  </si>
-  <si>
-    <t>+258843969687</t>
-  </si>
-  <si>
-    <t>Macamo</t>
-  </si>
-  <si>
-    <t>Manuel Silvestre</t>
-  </si>
-  <si>
-    <t>Macaime</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Manuel Yazalde Cipriano </t>
-  </si>
-  <si>
-    <t>1995-10-29</t>
-  </si>
-  <si>
-    <t>Cipriano Arnaldo Macaime</t>
-  </si>
-  <si>
-    <t>Catarina Maria Dos Santos</t>
-  </si>
-  <si>
-    <t>110400078740C</t>
-  </si>
-  <si>
-    <t>+258828419991</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Langa </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Lucia Firmino </t>
-  </si>
-  <si>
-    <t>1995-02-01</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Firmino TimÓteo Langa </t>
-  </si>
-  <si>
-    <t xml:space="preserve">AmÉlia Rafael Mulhovo </t>
-  </si>
-  <si>
-    <t>110100905331A</t>
-  </si>
-  <si>
-    <t>+258845960013</t>
-  </si>
-  <si>
-    <t>Escola Secundaria de Malhazine</t>
-  </si>
-  <si>
-    <t>Langa</t>
-  </si>
-  <si>
-    <t>Alzira Raimundo</t>
-  </si>
-  <si>
-    <t>1995-01-22</t>
-  </si>
-  <si>
-    <t>Raimundo Bernardo Langa</t>
-  </si>
-  <si>
-    <t>Rufina Francisco Conjo</t>
-  </si>
-  <si>
-    <t>100100777524A</t>
-  </si>
-  <si>
-    <t>+258842838110</t>
-  </si>
-  <si>
-    <t>Alexandrina Alexandre</t>
-  </si>
-  <si>
-    <t>1996-06-25</t>
-  </si>
-  <si>
-    <t>Alexandre Samuel Langa</t>
-  </si>
-  <si>
-    <t>Roda Gilberto Mangana</t>
-  </si>
-  <si>
-    <t>Distrito Municipal de Nlhamankulu</t>
-  </si>
-  <si>
-    <t>110102847605M</t>
-  </si>
-  <si>
-    <t>+258825125140</t>
-  </si>
-  <si>
-    <t>Escola Josina Machel</t>
-  </si>
-  <si>
-    <t>Jose</t>
-  </si>
-  <si>
-    <t>Lidia Armando</t>
-  </si>
-  <si>
-    <t>1996-02-21</t>
-  </si>
-  <si>
-    <t>Armando Jose</t>
-  </si>
-  <si>
-    <t>Hortencia Muchanga</t>
-  </si>
-  <si>
-    <t>110101567794A</t>
-  </si>
-  <si>
-    <t>+258842556527</t>
-  </si>
-  <si>
-    <t>Escola Secundaria da Zona-Verde</t>
-  </si>
-  <si>
-    <t>Jalane</t>
-  </si>
-  <si>
-    <t>Imelda Thambissa Elias</t>
-  </si>
-  <si>
-    <t>1995-06-05</t>
-  </si>
-  <si>
-    <t>Elias Jaime AbraÃo Jalane</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Amelia Raquel Salmada </t>
-  </si>
-  <si>
-    <t>110101529774N</t>
-  </si>
-  <si>
-    <t>+258845506035</t>
-  </si>
-  <si>
-    <t>Gune</t>
-  </si>
-  <si>
-    <t>Jessica Patricia</t>
-  </si>
-  <si>
-    <t>1996-05-14</t>
-  </si>
-  <si>
-    <t>Atanasio Fiosse Gune</t>
-  </si>
-  <si>
-    <t>Laura Penicela Muhai</t>
-  </si>
-  <si>
-    <t>110500174539M</t>
-  </si>
-  <si>
-    <t>+258824002179</t>
-  </si>
-  <si>
-    <t>Escola Secundaria Quisse Mavota</t>
-  </si>
-  <si>
-    <t>Ferreira</t>
-  </si>
-  <si>
-    <t>Cleder Alecio Nhate</t>
-  </si>
-  <si>
-    <t>1994-03-26</t>
-  </si>
-  <si>
-    <t>Jose Ferreira Do Antonio</t>
-  </si>
-  <si>
-    <t>Isabel Custodia Da Graca Nhate</t>
-  </si>
-  <si>
-    <t>070202252042B</t>
-  </si>
-  <si>
-    <t>+258844567689</t>
-  </si>
-  <si>
-    <t>Dos Santos</t>
-  </si>
-  <si>
-    <t>Elton Adriano</t>
-  </si>
-  <si>
-    <t>1993-05-21</t>
-  </si>
-  <si>
-    <t>Adelino Dos Santos Adriano Maguie</t>
-  </si>
-  <si>
-    <t>Lina Antonio Tivane</t>
-  </si>
-  <si>
-    <t>110101980730N</t>
-  </si>
-  <si>
-    <t>+258824895999</t>
-  </si>
-  <si>
-    <t>Da Silva</t>
-  </si>
-  <si>
-    <t>João Osvaldo</t>
-  </si>
-  <si>
-    <t>1996-10-04</t>
-  </si>
-  <si>
-    <t>Osvaldo Agostinho Da Silva</t>
-  </si>
-  <si>
-    <t>FÁtima NathÚ Golane</t>
-  </si>
-  <si>
-    <t>Distrito de Marracuene</t>
-  </si>
-  <si>
-    <t>110504289393N</t>
-  </si>
-  <si>
-    <t>+258842496604</t>
-  </si>
-  <si>
-    <t>Cuamba</t>
-  </si>
-  <si>
-    <t>Dioclencio Joao</t>
-  </si>
-  <si>
     <t>Chemane</t>
   </si>
   <si>
@@ -923,9 +874,6 @@
     <t>Domingas  RomÃo  Pinto</t>
   </si>
   <si>
-    <t>Distrito de Nhamatanda</t>
-  </si>
-  <si>
     <t>070100517435P</t>
   </si>
   <si>
@@ -1011,12 +959,6 @@
   </si>
   <si>
     <t>+258844786319</t>
-  </si>
-  <si>
-    <t>Albuquerque</t>
-  </si>
-  <si>
-    <t>Adelaide Moisés de</t>
   </si>
 </sst>
 </file>
@@ -2252,7 +2194,7 @@
       </c>
       <c r="E7" s="18"/>
       <c r="F7" s="19">
-        <v>20154191</v>
+        <v>20154161</v>
       </c>
       <c r="G7" s="19"/>
     </row>
@@ -2276,7 +2218,7 @@
       </c>
       <c r="B10" s="23"/>
       <c r="C10" s="26" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="D10" s="26"/>
       <c r="E10" s="26"/>
@@ -2292,7 +2234,7 @@
       </c>
       <c r="B11" s="25"/>
       <c r="C11" s="20" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="D11" s="20"/>
       <c r="E11" s="20"/>
@@ -2308,7 +2250,7 @@
       </c>
       <c r="B12" s="25"/>
       <c r="C12" s="20" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="D12" s="20"/>
       <c r="E12" s="20"/>
@@ -2324,7 +2266,7 @@
       </c>
       <c r="B13" s="25"/>
       <c r="C13" s="20" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="D13" s="20"/>
       <c r="E13" s="20"/>
@@ -2340,7 +2282,7 @@
       </c>
       <c r="B14" s="25"/>
       <c r="C14" s="20" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="D14" s="20"/>
       <c r="E14" s="20"/>
@@ -2355,9 +2297,7 @@
         <v>14</v>
       </c>
       <c r="B15" s="25"/>
-      <c r="C15" s="20" t="s">
-        <v>115</v>
-      </c>
+      <c r="C15" s="20"/>
       <c r="D15" s="20"/>
       <c r="E15" s="20"/>
       <c r="F15" s="25" t="s">
@@ -2365,7 +2305,7 @@
       </c>
       <c r="G15" s="25"/>
       <c r="H15" s="20" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="I15" s="20"/>
       <c r="J15" s="38"/>
@@ -2376,7 +2316,7 @@
       </c>
       <c r="B16" s="25"/>
       <c r="C16" s="20" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D16" s="20"/>
       <c r="E16" s="20"/>
@@ -2385,7 +2325,7 @@
       </c>
       <c r="G16" s="25"/>
       <c r="H16" s="20" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="I16" s="20"/>
       <c r="J16" s="38"/>
@@ -2397,7 +2337,7 @@
       <c r="B17" s="25"/>
       <c r="C17" s="25"/>
       <c r="D17" s="20" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="E17" s="20"/>
       <c r="F17" s="25" t="s">
@@ -2405,7 +2345,7 @@
       </c>
       <c r="G17" s="25"/>
       <c r="H17" s="20" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="I17" s="20"/>
       <c r="J17" s="38"/>
@@ -2501,7 +2441,7 @@
       </c>
       <c r="G24" s="37"/>
       <c r="H24" s="42" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="I24" s="21"/>
       <c r="J24" s="39"/>
@@ -2528,7 +2468,7 @@
       <c r="C27" s="23"/>
       <c r="D27" s="23"/>
       <c r="E27" s="26">
-        <v>2012</v>
+        <v>2014</v>
       </c>
       <c r="F27" s="26"/>
       <c r="G27" s="23" t="s">
@@ -2544,7 +2484,7 @@
       </c>
       <c r="B28" s="25"/>
       <c r="C28" s="20" t="s">
-        <v>56</v>
+        <v>116</v>
       </c>
       <c r="D28" s="20"/>
       <c r="E28" s="20"/>
@@ -2847,7 +2787,7 @@
       </c>
       <c r="E7" s="18"/>
       <c r="F7" s="19">
-        <v>20154161</v>
+        <v>20154189</v>
       </c>
       <c r="G7" s="19"/>
     </row>
@@ -2871,7 +2811,7 @@
       </c>
       <c r="B10" s="23"/>
       <c r="C10" s="26" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="D10" s="26"/>
       <c r="E10" s="26"/>
@@ -2887,7 +2827,7 @@
       </c>
       <c r="B11" s="25"/>
       <c r="C11" s="20" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="D11" s="20"/>
       <c r="E11" s="20"/>
@@ -2903,7 +2843,7 @@
       </c>
       <c r="B12" s="25"/>
       <c r="C12" s="20" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="D12" s="20"/>
       <c r="E12" s="20"/>
@@ -2919,7 +2859,7 @@
       </c>
       <c r="B13" s="25"/>
       <c r="C13" s="20" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="D13" s="20"/>
       <c r="E13" s="20"/>
@@ -2935,7 +2875,7 @@
       </c>
       <c r="B14" s="25"/>
       <c r="C14" s="20" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="D14" s="20"/>
       <c r="E14" s="20"/>
@@ -2950,9 +2890,7 @@
         <v>14</v>
       </c>
       <c r="B15" s="25"/>
-      <c r="C15" s="20" t="s">
-        <v>49</v>
-      </c>
+      <c r="C15" s="20"/>
       <c r="D15" s="20"/>
       <c r="E15" s="20"/>
       <c r="F15" s="25" t="s">
@@ -2960,7 +2898,7 @@
       </c>
       <c r="G15" s="25"/>
       <c r="H15" s="20" t="s">
-        <v>62</v>
+        <v>49</v>
       </c>
       <c r="I15" s="20"/>
       <c r="J15" s="38"/>
@@ -2971,7 +2909,7 @@
       </c>
       <c r="B16" s="25"/>
       <c r="C16" s="20" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D16" s="20"/>
       <c r="E16" s="20"/>
@@ -2980,7 +2918,7 @@
       </c>
       <c r="G16" s="25"/>
       <c r="H16" s="20" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="I16" s="20"/>
       <c r="J16" s="38"/>
@@ -2992,7 +2930,7 @@
       <c r="B17" s="25"/>
       <c r="C17" s="25"/>
       <c r="D17" s="20" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="E17" s="20"/>
       <c r="F17" s="25" t="s">
@@ -3000,7 +2938,7 @@
       </c>
       <c r="G17" s="25"/>
       <c r="H17" s="20" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="I17" s="20"/>
       <c r="J17" s="38"/>
@@ -3096,7 +3034,7 @@
       </c>
       <c r="G24" s="37"/>
       <c r="H24" s="42" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="I24" s="21"/>
       <c r="J24" s="39"/>
@@ -3123,7 +3061,7 @@
       <c r="C27" s="23"/>
       <c r="D27" s="23"/>
       <c r="E27" s="26">
-        <v>2014</v>
+        <v>2013</v>
       </c>
       <c r="F27" s="26"/>
       <c r="G27" s="23" t="s">
@@ -3139,7 +3077,7 @@
       </c>
       <c r="B28" s="25"/>
       <c r="C28" s="20" t="s">
-        <v>125</v>
+        <v>72</v>
       </c>
       <c r="D28" s="20"/>
       <c r="E28" s="20"/>
@@ -3442,7 +3380,7 @@
       </c>
       <c r="E7" s="18"/>
       <c r="F7" s="19">
-        <v>20154189</v>
+        <v>20154187</v>
       </c>
       <c r="G7" s="19"/>
     </row>
@@ -3466,7 +3404,7 @@
       </c>
       <c r="B10" s="23"/>
       <c r="C10" s="26" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="D10" s="26"/>
       <c r="E10" s="26"/>
@@ -3482,7 +3420,7 @@
       </c>
       <c r="B11" s="25"/>
       <c r="C11" s="20" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="D11" s="20"/>
       <c r="E11" s="20"/>
@@ -3498,7 +3436,7 @@
       </c>
       <c r="B12" s="25"/>
       <c r="C12" s="20" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="D12" s="20"/>
       <c r="E12" s="20"/>
@@ -3514,7 +3452,7 @@
       </c>
       <c r="B13" s="25"/>
       <c r="C13" s="20" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="D13" s="20"/>
       <c r="E13" s="20"/>
@@ -3530,7 +3468,7 @@
       </c>
       <c r="B14" s="25"/>
       <c r="C14" s="20" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="D14" s="20"/>
       <c r="E14" s="20"/>
@@ -3545,9 +3483,7 @@
         <v>14</v>
       </c>
       <c r="B15" s="25"/>
-      <c r="C15" s="20" t="s">
-        <v>115</v>
-      </c>
+      <c r="C15" s="20"/>
       <c r="D15" s="20"/>
       <c r="E15" s="20"/>
       <c r="F15" s="25" t="s">
@@ -3555,7 +3491,7 @@
       </c>
       <c r="G15" s="25"/>
       <c r="H15" s="20" t="s">
-        <v>50</v>
+        <v>61</v>
       </c>
       <c r="I15" s="20"/>
       <c r="J15" s="38"/>
@@ -3566,7 +3502,7 @@
       </c>
       <c r="B16" s="25"/>
       <c r="C16" s="20" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D16" s="20"/>
       <c r="E16" s="20"/>
@@ -3575,7 +3511,7 @@
       </c>
       <c r="G16" s="25"/>
       <c r="H16" s="20" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="I16" s="20"/>
       <c r="J16" s="38"/>
@@ -3587,7 +3523,7 @@
       <c r="B17" s="25"/>
       <c r="C17" s="25"/>
       <c r="D17" s="20" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="E17" s="20"/>
       <c r="F17" s="25" t="s">
@@ -3595,7 +3531,7 @@
       </c>
       <c r="G17" s="25"/>
       <c r="H17" s="20" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="I17" s="20"/>
       <c r="J17" s="38"/>
@@ -3691,7 +3627,7 @@
       </c>
       <c r="G24" s="37"/>
       <c r="H24" s="42" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="I24" s="21"/>
       <c r="J24" s="39"/>
@@ -3718,7 +3654,7 @@
       <c r="C27" s="23"/>
       <c r="D27" s="23"/>
       <c r="E27" s="26">
-        <v>2013</v>
+        <v>2010</v>
       </c>
       <c r="F27" s="26"/>
       <c r="G27" s="23" t="s">
@@ -3734,7 +3670,7 @@
       </c>
       <c r="B28" s="25"/>
       <c r="C28" s="20" t="s">
-        <v>77</v>
+        <v>131</v>
       </c>
       <c r="D28" s="20"/>
       <c r="E28" s="20"/>
@@ -4037,7 +3973,7 @@
       </c>
       <c r="E7" s="18"/>
       <c r="F7" s="19">
-        <v>20154187</v>
+        <v>20154186</v>
       </c>
       <c r="G7" s="19"/>
     </row>
@@ -4061,7 +3997,7 @@
       </c>
       <c r="B10" s="23"/>
       <c r="C10" s="26" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="D10" s="26"/>
       <c r="E10" s="26"/>
@@ -4077,7 +4013,7 @@
       </c>
       <c r="B11" s="25"/>
       <c r="C11" s="20" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="D11" s="20"/>
       <c r="E11" s="20"/>
@@ -4093,7 +4029,7 @@
       </c>
       <c r="B12" s="25"/>
       <c r="C12" s="20" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="D12" s="20"/>
       <c r="E12" s="20"/>
@@ -4109,7 +4045,7 @@
       </c>
       <c r="B13" s="25"/>
       <c r="C13" s="20" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="D13" s="20"/>
       <c r="E13" s="20"/>
@@ -4125,7 +4061,7 @@
       </c>
       <c r="B14" s="25"/>
       <c r="C14" s="20" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="D14" s="20"/>
       <c r="E14" s="20"/>
@@ -4140,9 +4076,7 @@
         <v>14</v>
       </c>
       <c r="B15" s="25"/>
-      <c r="C15" s="20" t="s">
-        <v>115</v>
-      </c>
+      <c r="C15" s="20"/>
       <c r="D15" s="20"/>
       <c r="E15" s="20"/>
       <c r="F15" s="25" t="s">
@@ -4150,7 +4084,7 @@
       </c>
       <c r="G15" s="25"/>
       <c r="H15" s="20" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="I15" s="20"/>
       <c r="J15" s="38"/>
@@ -4161,7 +4095,7 @@
       </c>
       <c r="B16" s="25"/>
       <c r="C16" s="20" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D16" s="20"/>
       <c r="E16" s="20"/>
@@ -4170,7 +4104,7 @@
       </c>
       <c r="G16" s="25"/>
       <c r="H16" s="20" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="I16" s="20"/>
       <c r="J16" s="38"/>
@@ -4182,7 +4116,7 @@
       <c r="B17" s="25"/>
       <c r="C17" s="25"/>
       <c r="D17" s="20" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="E17" s="20"/>
       <c r="F17" s="25" t="s">
@@ -4190,7 +4124,7 @@
       </c>
       <c r="G17" s="25"/>
       <c r="H17" s="20" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="I17" s="20"/>
       <c r="J17" s="38"/>
@@ -4286,7 +4220,7 @@
       </c>
       <c r="G24" s="37"/>
       <c r="H24" s="42" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="I24" s="21"/>
       <c r="J24" s="39"/>
@@ -4313,7 +4247,7 @@
       <c r="C27" s="23"/>
       <c r="D27" s="23"/>
       <c r="E27" s="26">
-        <v>2010</v>
+        <v>2013</v>
       </c>
       <c r="F27" s="26"/>
       <c r="G27" s="23" t="s">
@@ -4329,7 +4263,7 @@
       </c>
       <c r="B28" s="25"/>
       <c r="C28" s="20" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="D28" s="20"/>
       <c r="E28" s="20"/>
@@ -4580,7 +4514,9 @@
       <c r="J2" s="15"/>
     </row>
     <row r="3" spans="1:10" customHeight="1" ht="18">
-      <c r="A3" s="16"/>
+      <c r="A3" s="16" t="s">
+        <v>42</v>
+      </c>
       <c r="B3" s="16"/>
       <c r="C3" s="16"/>
       <c r="D3" s="16"/>
@@ -4630,7 +4566,7 @@
       </c>
       <c r="E7" s="18"/>
       <c r="F7" s="19">
-        <v>20154526</v>
+        <v>20154182</v>
       </c>
       <c r="G7" s="19"/>
     </row>
@@ -4654,7 +4590,7 @@
       </c>
       <c r="B10" s="23"/>
       <c r="C10" s="26" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="D10" s="26"/>
       <c r="E10" s="26"/>
@@ -4670,7 +4606,7 @@
       </c>
       <c r="B11" s="25"/>
       <c r="C11" s="20" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="D11" s="20"/>
       <c r="E11" s="20"/>
@@ -4685,7 +4621,9 @@
         <v>11</v>
       </c>
       <c r="B12" s="25"/>
-      <c r="C12" s="20"/>
+      <c r="C12" s="20" t="s">
+        <v>142</v>
+      </c>
       <c r="D12" s="20"/>
       <c r="E12" s="20"/>
       <c r="F12" s="10"/>
@@ -4699,7 +4637,9 @@
         <v>12</v>
       </c>
       <c r="B13" s="25"/>
-      <c r="C13" s="20"/>
+      <c r="C13" s="20" t="s">
+        <v>143</v>
+      </c>
       <c r="D13" s="20"/>
       <c r="E13" s="20"/>
       <c r="F13" s="20"/>
@@ -4713,7 +4653,9 @@
         <v>13</v>
       </c>
       <c r="B14" s="25"/>
-      <c r="C14" s="20"/>
+      <c r="C14" s="20" t="s">
+        <v>144</v>
+      </c>
       <c r="D14" s="20"/>
       <c r="E14" s="20"/>
       <c r="F14" s="20"/>
@@ -4734,7 +4676,9 @@
         <v>15</v>
       </c>
       <c r="G15" s="25"/>
-      <c r="H15" s="20"/>
+      <c r="H15" s="20" t="s">
+        <v>61</v>
+      </c>
       <c r="I15" s="20"/>
       <c r="J15" s="38"/>
     </row>
@@ -4743,14 +4687,18 @@
         <v>16</v>
       </c>
       <c r="B16" s="25"/>
-      <c r="C16" s="20"/>
+      <c r="C16" s="20" t="s">
+        <v>50</v>
+      </c>
       <c r="D16" s="20"/>
       <c r="E16" s="20"/>
       <c r="F16" s="25" t="s">
         <v>17</v>
       </c>
       <c r="G16" s="25"/>
-      <c r="H16" s="20"/>
+      <c r="H16" s="20" t="s">
+        <v>51</v>
+      </c>
       <c r="I16" s="20"/>
       <c r="J16" s="38"/>
     </row>
@@ -4760,13 +4708,17 @@
       </c>
       <c r="B17" s="25"/>
       <c r="C17" s="25"/>
-      <c r="D17" s="20"/>
+      <c r="D17" s="20" t="s">
+        <v>52</v>
+      </c>
       <c r="E17" s="20"/>
       <c r="F17" s="25" t="s">
         <v>19</v>
       </c>
       <c r="G17" s="25"/>
-      <c r="H17" s="20"/>
+      <c r="H17" s="20" t="s">
+        <v>145</v>
+      </c>
       <c r="I17" s="20"/>
       <c r="J17" s="38"/>
     </row>
@@ -4861,7 +4813,7 @@
       </c>
       <c r="G24" s="37"/>
       <c r="H24" s="42" t="s">
-        <v>68</v>
+        <v>146</v>
       </c>
       <c r="I24" s="21"/>
       <c r="J24" s="39"/>
@@ -4887,7 +4839,9 @@
       <c r="B27" s="23"/>
       <c r="C27" s="23"/>
       <c r="D27" s="23"/>
-      <c r="E27" s="26"/>
+      <c r="E27" s="26">
+        <v>2011</v>
+      </c>
       <c r="F27" s="26"/>
       <c r="G27" s="23" t="s">
         <v>33</v>
@@ -4901,7 +4855,9 @@
         <v>34</v>
       </c>
       <c r="B28" s="25"/>
-      <c r="C28" s="20"/>
+      <c r="C28" s="20" t="s">
+        <v>147</v>
+      </c>
       <c r="D28" s="20"/>
       <c r="E28" s="20"/>
       <c r="F28" s="20"/>
@@ -5203,7 +5159,7 @@
       </c>
       <c r="E7" s="18"/>
       <c r="F7" s="19">
-        <v>20154186</v>
+        <v>20154184</v>
       </c>
       <c r="G7" s="19"/>
     </row>
@@ -5227,7 +5183,7 @@
       </c>
       <c r="B10" s="23"/>
       <c r="C10" s="26" t="s">
-        <v>143</v>
+        <v>148</v>
       </c>
       <c r="D10" s="26"/>
       <c r="E10" s="26"/>
@@ -5243,7 +5199,7 @@
       </c>
       <c r="B11" s="25"/>
       <c r="C11" s="20" t="s">
-        <v>144</v>
+        <v>149</v>
       </c>
       <c r="D11" s="20"/>
       <c r="E11" s="20"/>
@@ -5259,7 +5215,7 @@
       </c>
       <c r="B12" s="25"/>
       <c r="C12" s="20" t="s">
-        <v>145</v>
+        <v>150</v>
       </c>
       <c r="D12" s="20"/>
       <c r="E12" s="20"/>
@@ -5275,7 +5231,7 @@
       </c>
       <c r="B13" s="25"/>
       <c r="C13" s="20" t="s">
-        <v>146</v>
+        <v>151</v>
       </c>
       <c r="D13" s="20"/>
       <c r="E13" s="20"/>
@@ -5291,7 +5247,7 @@
       </c>
       <c r="B14" s="25"/>
       <c r="C14" s="20" t="s">
-        <v>147</v>
+        <v>152</v>
       </c>
       <c r="D14" s="20"/>
       <c r="E14" s="20"/>
@@ -5306,9 +5262,7 @@
         <v>14</v>
       </c>
       <c r="B15" s="25"/>
-      <c r="C15" s="20" t="s">
-        <v>148</v>
-      </c>
+      <c r="C15" s="20"/>
       <c r="D15" s="20"/>
       <c r="E15" s="20"/>
       <c r="F15" s="25" t="s">
@@ -5316,7 +5270,7 @@
       </c>
       <c r="G15" s="25"/>
       <c r="H15" s="20" t="s">
-        <v>62</v>
+        <v>49</v>
       </c>
       <c r="I15" s="20"/>
       <c r="J15" s="38"/>
@@ -5327,7 +5281,7 @@
       </c>
       <c r="B16" s="25"/>
       <c r="C16" s="20" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D16" s="20"/>
       <c r="E16" s="20"/>
@@ -5336,7 +5290,7 @@
       </c>
       <c r="G16" s="25"/>
       <c r="H16" s="20" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="I16" s="20"/>
       <c r="J16" s="38"/>
@@ -5348,7 +5302,7 @@
       <c r="B17" s="25"/>
       <c r="C17" s="25"/>
       <c r="D17" s="20" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="E17" s="20"/>
       <c r="F17" s="25" t="s">
@@ -5356,7 +5310,7 @@
       </c>
       <c r="G17" s="25"/>
       <c r="H17" s="20" t="s">
-        <v>149</v>
+        <v>153</v>
       </c>
       <c r="I17" s="20"/>
       <c r="J17" s="38"/>
@@ -5452,7 +5406,7 @@
       </c>
       <c r="G24" s="37"/>
       <c r="H24" s="42" t="s">
-        <v>150</v>
+        <v>154</v>
       </c>
       <c r="I24" s="21"/>
       <c r="J24" s="39"/>
@@ -5479,7 +5433,7 @@
       <c r="C27" s="23"/>
       <c r="D27" s="23"/>
       <c r="E27" s="26">
-        <v>2013</v>
+        <v>2008</v>
       </c>
       <c r="F27" s="26"/>
       <c r="G27" s="23" t="s">
@@ -5495,7 +5449,7 @@
       </c>
       <c r="B28" s="25"/>
       <c r="C28" s="20" t="s">
-        <v>151</v>
+        <v>131</v>
       </c>
       <c r="D28" s="20"/>
       <c r="E28" s="20"/>
@@ -5798,7 +5752,7 @@
       </c>
       <c r="E7" s="18"/>
       <c r="F7" s="19">
-        <v>20154182</v>
+        <v>20154165</v>
       </c>
       <c r="G7" s="19"/>
     </row>
@@ -5822,7 +5776,7 @@
       </c>
       <c r="B10" s="23"/>
       <c r="C10" s="26" t="s">
-        <v>152</v>
+        <v>155</v>
       </c>
       <c r="D10" s="26"/>
       <c r="E10" s="26"/>
@@ -5838,7 +5792,7 @@
       </c>
       <c r="B11" s="25"/>
       <c r="C11" s="20" t="s">
-        <v>153</v>
+        <v>156</v>
       </c>
       <c r="D11" s="20"/>
       <c r="E11" s="20"/>
@@ -5854,7 +5808,7 @@
       </c>
       <c r="B12" s="25"/>
       <c r="C12" s="20" t="s">
-        <v>154</v>
+        <v>157</v>
       </c>
       <c r="D12" s="20"/>
       <c r="E12" s="20"/>
@@ -5870,7 +5824,7 @@
       </c>
       <c r="B13" s="25"/>
       <c r="C13" s="20" t="s">
-        <v>155</v>
+        <v>158</v>
       </c>
       <c r="D13" s="20"/>
       <c r="E13" s="20"/>
@@ -5886,7 +5840,7 @@
       </c>
       <c r="B14" s="25"/>
       <c r="C14" s="20" t="s">
-        <v>156</v>
+        <v>159</v>
       </c>
       <c r="D14" s="20"/>
       <c r="E14" s="20"/>
@@ -5901,9 +5855,7 @@
         <v>14</v>
       </c>
       <c r="B15" s="25"/>
-      <c r="C15" s="20" t="s">
-        <v>107</v>
-      </c>
+      <c r="C15" s="20"/>
       <c r="D15" s="20"/>
       <c r="E15" s="20"/>
       <c r="F15" s="25" t="s">
@@ -5911,7 +5863,7 @@
       </c>
       <c r="G15" s="25"/>
       <c r="H15" s="20" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="I15" s="20"/>
       <c r="J15" s="38"/>
@@ -5922,7 +5874,7 @@
       </c>
       <c r="B16" s="25"/>
       <c r="C16" s="20" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D16" s="20"/>
       <c r="E16" s="20"/>
@@ -5931,7 +5883,7 @@
       </c>
       <c r="G16" s="25"/>
       <c r="H16" s="20" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="I16" s="20"/>
       <c r="J16" s="38"/>
@@ -5943,7 +5895,7 @@
       <c r="B17" s="25"/>
       <c r="C17" s="25"/>
       <c r="D17" s="20" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="E17" s="20"/>
       <c r="F17" s="25" t="s">
@@ -5951,7 +5903,7 @@
       </c>
       <c r="G17" s="25"/>
       <c r="H17" s="20" t="s">
-        <v>157</v>
+        <v>160</v>
       </c>
       <c r="I17" s="20"/>
       <c r="J17" s="38"/>
@@ -6047,7 +5999,7 @@
       </c>
       <c r="G24" s="37"/>
       <c r="H24" s="42" t="s">
-        <v>158</v>
+        <v>161</v>
       </c>
       <c r="I24" s="21"/>
       <c r="J24" s="39"/>
@@ -6074,7 +6026,7 @@
       <c r="C27" s="23"/>
       <c r="D27" s="23"/>
       <c r="E27" s="26">
-        <v>2011</v>
+        <v>2012</v>
       </c>
       <c r="F27" s="26"/>
       <c r="G27" s="23" t="s">
@@ -6090,7 +6042,7 @@
       </c>
       <c r="B28" s="25"/>
       <c r="C28" s="20" t="s">
-        <v>159</v>
+        <v>162</v>
       </c>
       <c r="D28" s="20"/>
       <c r="E28" s="20"/>
@@ -6393,7 +6345,7 @@
       </c>
       <c r="E7" s="18"/>
       <c r="F7" s="19">
-        <v>20154184</v>
+        <v>20154171</v>
       </c>
       <c r="G7" s="19"/>
     </row>
@@ -6417,7 +6369,7 @@
       </c>
       <c r="B10" s="23"/>
       <c r="C10" s="26" t="s">
-        <v>160</v>
+        <v>163</v>
       </c>
       <c r="D10" s="26"/>
       <c r="E10" s="26"/>
@@ -6433,7 +6385,7 @@
       </c>
       <c r="B11" s="25"/>
       <c r="C11" s="20" t="s">
-        <v>161</v>
+        <v>164</v>
       </c>
       <c r="D11" s="20"/>
       <c r="E11" s="20"/>
@@ -6449,7 +6401,7 @@
       </c>
       <c r="B12" s="25"/>
       <c r="C12" s="20" t="s">
-        <v>162</v>
+        <v>165</v>
       </c>
       <c r="D12" s="20"/>
       <c r="E12" s="20"/>
@@ -6465,7 +6417,7 @@
       </c>
       <c r="B13" s="25"/>
       <c r="C13" s="20" t="s">
-        <v>163</v>
+        <v>166</v>
       </c>
       <c r="D13" s="20"/>
       <c r="E13" s="20"/>
@@ -6481,7 +6433,7 @@
       </c>
       <c r="B14" s="25"/>
       <c r="C14" s="20" t="s">
-        <v>164</v>
+        <v>167</v>
       </c>
       <c r="D14" s="20"/>
       <c r="E14" s="20"/>
@@ -6496,9 +6448,7 @@
         <v>14</v>
       </c>
       <c r="B15" s="25"/>
-      <c r="C15" s="20" t="s">
-        <v>115</v>
-      </c>
+      <c r="C15" s="20"/>
       <c r="D15" s="20"/>
       <c r="E15" s="20"/>
       <c r="F15" s="25" t="s">
@@ -6506,7 +6456,7 @@
       </c>
       <c r="G15" s="25"/>
       <c r="H15" s="20" t="s">
-        <v>50</v>
+        <v>61</v>
       </c>
       <c r="I15" s="20"/>
       <c r="J15" s="38"/>
@@ -6517,7 +6467,7 @@
       </c>
       <c r="B16" s="25"/>
       <c r="C16" s="20" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D16" s="20"/>
       <c r="E16" s="20"/>
@@ -6526,7 +6476,7 @@
       </c>
       <c r="G16" s="25"/>
       <c r="H16" s="20" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="I16" s="20"/>
       <c r="J16" s="38"/>
@@ -6538,7 +6488,7 @@
       <c r="B17" s="25"/>
       <c r="C17" s="25"/>
       <c r="D17" s="20" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="E17" s="20"/>
       <c r="F17" s="25" t="s">
@@ -6546,7 +6496,7 @@
       </c>
       <c r="G17" s="25"/>
       <c r="H17" s="20" t="s">
-        <v>165</v>
+        <v>168</v>
       </c>
       <c r="I17" s="20"/>
       <c r="J17" s="38"/>
@@ -6642,7 +6592,7 @@
       </c>
       <c r="G24" s="37"/>
       <c r="H24" s="42" t="s">
-        <v>166</v>
+        <v>169</v>
       </c>
       <c r="I24" s="21"/>
       <c r="J24" s="39"/>
@@ -6669,7 +6619,7 @@
       <c r="C27" s="23"/>
       <c r="D27" s="23"/>
       <c r="E27" s="26">
-        <v>2008</v>
+        <v>2013</v>
       </c>
       <c r="F27" s="26"/>
       <c r="G27" s="23" t="s">
@@ -6685,7 +6635,7 @@
       </c>
       <c r="B28" s="25"/>
       <c r="C28" s="20" t="s">
-        <v>140</v>
+        <v>170</v>
       </c>
       <c r="D28" s="20"/>
       <c r="E28" s="20"/>
@@ -6988,7 +6938,7 @@
       </c>
       <c r="E7" s="18"/>
       <c r="F7" s="19">
-        <v>20154165</v>
+        <v>20154190</v>
       </c>
       <c r="G7" s="19"/>
     </row>
@@ -7012,7 +6962,7 @@
       </c>
       <c r="B10" s="23"/>
       <c r="C10" s="26" t="s">
-        <v>167</v>
+        <v>171</v>
       </c>
       <c r="D10" s="26"/>
       <c r="E10" s="26"/>
@@ -7028,7 +6978,7 @@
       </c>
       <c r="B11" s="25"/>
       <c r="C11" s="20" t="s">
-        <v>168</v>
+        <v>172</v>
       </c>
       <c r="D11" s="20"/>
       <c r="E11" s="20"/>
@@ -7044,7 +6994,7 @@
       </c>
       <c r="B12" s="25"/>
       <c r="C12" s="20" t="s">
-        <v>169</v>
+        <v>173</v>
       </c>
       <c r="D12" s="20"/>
       <c r="E12" s="20"/>
@@ -7060,7 +7010,7 @@
       </c>
       <c r="B13" s="25"/>
       <c r="C13" s="20" t="s">
-        <v>170</v>
+        <v>174</v>
       </c>
       <c r="D13" s="20"/>
       <c r="E13" s="20"/>
@@ -7076,7 +7026,7 @@
       </c>
       <c r="B14" s="25"/>
       <c r="C14" s="20" t="s">
-        <v>171</v>
+        <v>175</v>
       </c>
       <c r="D14" s="20"/>
       <c r="E14" s="20"/>
@@ -7091,9 +7041,7 @@
         <v>14</v>
       </c>
       <c r="B15" s="25"/>
-      <c r="C15" s="20" t="s">
-        <v>74</v>
-      </c>
+      <c r="C15" s="20"/>
       <c r="D15" s="20"/>
       <c r="E15" s="20"/>
       <c r="F15" s="25" t="s">
@@ -7101,7 +7049,7 @@
       </c>
       <c r="G15" s="25"/>
       <c r="H15" s="20" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="I15" s="20"/>
       <c r="J15" s="38"/>
@@ -7112,7 +7060,7 @@
       </c>
       <c r="B16" s="25"/>
       <c r="C16" s="20" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D16" s="20"/>
       <c r="E16" s="20"/>
@@ -7121,7 +7069,7 @@
       </c>
       <c r="G16" s="25"/>
       <c r="H16" s="20" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="I16" s="20"/>
       <c r="J16" s="38"/>
@@ -7133,7 +7081,7 @@
       <c r="B17" s="25"/>
       <c r="C17" s="25"/>
       <c r="D17" s="20" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="E17" s="20"/>
       <c r="F17" s="25" t="s">
@@ -7141,7 +7089,7 @@
       </c>
       <c r="G17" s="25"/>
       <c r="H17" s="20" t="s">
-        <v>172</v>
+        <v>176</v>
       </c>
       <c r="I17" s="20"/>
       <c r="J17" s="38"/>
@@ -7237,7 +7185,7 @@
       </c>
       <c r="G24" s="37"/>
       <c r="H24" s="42" t="s">
-        <v>173</v>
+        <v>177</v>
       </c>
       <c r="I24" s="21"/>
       <c r="J24" s="39"/>
@@ -7264,7 +7212,7 @@
       <c r="C27" s="23"/>
       <c r="D27" s="23"/>
       <c r="E27" s="26">
-        <v>2012</v>
+        <v>2014</v>
       </c>
       <c r="F27" s="26"/>
       <c r="G27" s="23" t="s">
@@ -7280,7 +7228,7 @@
       </c>
       <c r="B28" s="25"/>
       <c r="C28" s="20" t="s">
-        <v>174</v>
+        <v>55</v>
       </c>
       <c r="D28" s="20"/>
       <c r="E28" s="20"/>
@@ -7583,7 +7531,7 @@
       </c>
       <c r="E7" s="18"/>
       <c r="F7" s="19">
-        <v>20154171</v>
+        <v>20154158</v>
       </c>
       <c r="G7" s="19"/>
     </row>
@@ -7607,7 +7555,7 @@
       </c>
       <c r="B10" s="23"/>
       <c r="C10" s="26" t="s">
-        <v>175</v>
+        <v>178</v>
       </c>
       <c r="D10" s="26"/>
       <c r="E10" s="26"/>
@@ -7623,7 +7571,7 @@
       </c>
       <c r="B11" s="25"/>
       <c r="C11" s="20" t="s">
-        <v>176</v>
+        <v>179</v>
       </c>
       <c r="D11" s="20"/>
       <c r="E11" s="20"/>
@@ -7639,7 +7587,7 @@
       </c>
       <c r="B12" s="25"/>
       <c r="C12" s="20" t="s">
-        <v>177</v>
+        <v>180</v>
       </c>
       <c r="D12" s="20"/>
       <c r="E12" s="20"/>
@@ -7655,7 +7603,7 @@
       </c>
       <c r="B13" s="25"/>
       <c r="C13" s="20" t="s">
-        <v>178</v>
+        <v>181</v>
       </c>
       <c r="D13" s="20"/>
       <c r="E13" s="20"/>
@@ -7671,7 +7619,7 @@
       </c>
       <c r="B14" s="25"/>
       <c r="C14" s="20" t="s">
-        <v>179</v>
+        <v>182</v>
       </c>
       <c r="D14" s="20"/>
       <c r="E14" s="20"/>
@@ -7686,9 +7634,7 @@
         <v>14</v>
       </c>
       <c r="B15" s="25"/>
-      <c r="C15" s="20" t="s">
-        <v>92</v>
-      </c>
+      <c r="C15" s="20"/>
       <c r="D15" s="20"/>
       <c r="E15" s="20"/>
       <c r="F15" s="25" t="s">
@@ -7696,7 +7642,7 @@
       </c>
       <c r="G15" s="25"/>
       <c r="H15" s="20" t="s">
-        <v>62</v>
+        <v>49</v>
       </c>
       <c r="I15" s="20"/>
       <c r="J15" s="38"/>
@@ -7707,7 +7653,7 @@
       </c>
       <c r="B16" s="25"/>
       <c r="C16" s="20" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D16" s="20"/>
       <c r="E16" s="20"/>
@@ -7716,7 +7662,7 @@
       </c>
       <c r="G16" s="25"/>
       <c r="H16" s="20" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="I16" s="20"/>
       <c r="J16" s="38"/>
@@ -7728,7 +7674,7 @@
       <c r="B17" s="25"/>
       <c r="C17" s="25"/>
       <c r="D17" s="20" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="E17" s="20"/>
       <c r="F17" s="25" t="s">
@@ -7736,7 +7682,7 @@
       </c>
       <c r="G17" s="25"/>
       <c r="H17" s="20" t="s">
-        <v>180</v>
+        <v>183</v>
       </c>
       <c r="I17" s="20"/>
       <c r="J17" s="38"/>
@@ -7832,7 +7778,7 @@
       </c>
       <c r="G24" s="37"/>
       <c r="H24" s="42" t="s">
-        <v>181</v>
+        <v>184</v>
       </c>
       <c r="I24" s="21"/>
       <c r="J24" s="39"/>
@@ -7875,7 +7821,7 @@
       </c>
       <c r="B28" s="25"/>
       <c r="C28" s="20" t="s">
-        <v>182</v>
+        <v>170</v>
       </c>
       <c r="D28" s="20"/>
       <c r="E28" s="20"/>
@@ -8281,9 +8227,7 @@
         <v>14</v>
       </c>
       <c r="B15" s="25"/>
-      <c r="C15" s="20" t="s">
-        <v>49</v>
-      </c>
+      <c r="C15" s="20"/>
       <c r="D15" s="20"/>
       <c r="E15" s="20"/>
       <c r="F15" s="25" t="s">
@@ -8291,7 +8235,7 @@
       </c>
       <c r="G15" s="25"/>
       <c r="H15" s="20" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="I15" s="20"/>
       <c r="J15" s="38"/>
@@ -8302,7 +8246,7 @@
       </c>
       <c r="B16" s="25"/>
       <c r="C16" s="20" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D16" s="20"/>
       <c r="E16" s="20"/>
@@ -8311,7 +8255,7 @@
       </c>
       <c r="G16" s="25"/>
       <c r="H16" s="20" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="I16" s="20"/>
       <c r="J16" s="38"/>
@@ -8323,7 +8267,7 @@
       <c r="B17" s="25"/>
       <c r="C17" s="25"/>
       <c r="D17" s="20" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="E17" s="20"/>
       <c r="F17" s="25" t="s">
@@ -8331,7 +8275,7 @@
       </c>
       <c r="G17" s="25"/>
       <c r="H17" s="20" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="I17" s="20"/>
       <c r="J17" s="38"/>
@@ -8427,7 +8371,7 @@
       </c>
       <c r="G24" s="37"/>
       <c r="H24" s="42" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="I24" s="21"/>
       <c r="J24" s="39"/>
@@ -8470,7 +8414,7 @@
       </c>
       <c r="B28" s="25"/>
       <c r="C28" s="20" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="D28" s="20"/>
       <c r="E28" s="20"/>
@@ -8773,7 +8717,7 @@
       </c>
       <c r="E7" s="18"/>
       <c r="F7" s="19">
-        <v>20154190</v>
+        <v>20154179</v>
       </c>
       <c r="G7" s="19"/>
     </row>
@@ -8797,7 +8741,7 @@
       </c>
       <c r="B10" s="23"/>
       <c r="C10" s="26" t="s">
-        <v>183</v>
+        <v>185</v>
       </c>
       <c r="D10" s="26"/>
       <c r="E10" s="26"/>
@@ -8813,7 +8757,7 @@
       </c>
       <c r="B11" s="25"/>
       <c r="C11" s="20" t="s">
-        <v>184</v>
+        <v>186</v>
       </c>
       <c r="D11" s="20"/>
       <c r="E11" s="20"/>
@@ -8829,7 +8773,7 @@
       </c>
       <c r="B12" s="25"/>
       <c r="C12" s="20" t="s">
-        <v>185</v>
+        <v>187</v>
       </c>
       <c r="D12" s="20"/>
       <c r="E12" s="20"/>
@@ -8845,7 +8789,7 @@
       </c>
       <c r="B13" s="25"/>
       <c r="C13" s="20" t="s">
-        <v>186</v>
+        <v>188</v>
       </c>
       <c r="D13" s="20"/>
       <c r="E13" s="20"/>
@@ -8861,7 +8805,7 @@
       </c>
       <c r="B14" s="25"/>
       <c r="C14" s="20" t="s">
-        <v>187</v>
+        <v>189</v>
       </c>
       <c r="D14" s="20"/>
       <c r="E14" s="20"/>
@@ -8876,9 +8820,7 @@
         <v>14</v>
       </c>
       <c r="B15" s="25"/>
-      <c r="C15" s="20" t="s">
-        <v>115</v>
-      </c>
+      <c r="C15" s="20"/>
       <c r="D15" s="20"/>
       <c r="E15" s="20"/>
       <c r="F15" s="25" t="s">
@@ -8886,7 +8828,7 @@
       </c>
       <c r="G15" s="25"/>
       <c r="H15" s="20" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="I15" s="20"/>
       <c r="J15" s="38"/>
@@ -8897,7 +8839,7 @@
       </c>
       <c r="B16" s="25"/>
       <c r="C16" s="20" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D16" s="20"/>
       <c r="E16" s="20"/>
@@ -8906,7 +8848,7 @@
       </c>
       <c r="G16" s="25"/>
       <c r="H16" s="20" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="I16" s="20"/>
       <c r="J16" s="38"/>
@@ -8918,7 +8860,7 @@
       <c r="B17" s="25"/>
       <c r="C17" s="25"/>
       <c r="D17" s="20" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="E17" s="20"/>
       <c r="F17" s="25" t="s">
@@ -8926,7 +8868,7 @@
       </c>
       <c r="G17" s="25"/>
       <c r="H17" s="20" t="s">
-        <v>188</v>
+        <v>190</v>
       </c>
       <c r="I17" s="20"/>
       <c r="J17" s="38"/>
@@ -9022,7 +8964,7 @@
       </c>
       <c r="G24" s="37"/>
       <c r="H24" s="42" t="s">
-        <v>189</v>
+        <v>191</v>
       </c>
       <c r="I24" s="21"/>
       <c r="J24" s="39"/>
@@ -9049,7 +8991,7 @@
       <c r="C27" s="23"/>
       <c r="D27" s="23"/>
       <c r="E27" s="26">
-        <v>2014</v>
+        <v>2013</v>
       </c>
       <c r="F27" s="26"/>
       <c r="G27" s="23" t="s">
@@ -9065,7 +9007,7 @@
       </c>
       <c r="B28" s="25"/>
       <c r="C28" s="20" t="s">
-        <v>56</v>
+        <v>192</v>
       </c>
       <c r="D28" s="20"/>
       <c r="E28" s="20"/>
@@ -9316,7 +9258,9 @@
       <c r="J2" s="15"/>
     </row>
     <row r="3" spans="1:10" customHeight="1" ht="18">
-      <c r="A3" s="16"/>
+      <c r="A3" s="16" t="s">
+        <v>42</v>
+      </c>
       <c r="B3" s="16"/>
       <c r="C3" s="16"/>
       <c r="D3" s="16"/>
@@ -9366,7 +9310,7 @@
       </c>
       <c r="E7" s="18"/>
       <c r="F7" s="19">
-        <v>20154493</v>
+        <v>20154173</v>
       </c>
       <c r="G7" s="19"/>
     </row>
@@ -9390,7 +9334,7 @@
       </c>
       <c r="B10" s="23"/>
       <c r="C10" s="26" t="s">
-        <v>190</v>
+        <v>193</v>
       </c>
       <c r="D10" s="26"/>
       <c r="E10" s="26"/>
@@ -9406,7 +9350,7 @@
       </c>
       <c r="B11" s="25"/>
       <c r="C11" s="20" t="s">
-        <v>191</v>
+        <v>194</v>
       </c>
       <c r="D11" s="20"/>
       <c r="E11" s="20"/>
@@ -9421,7 +9365,9 @@
         <v>11</v>
       </c>
       <c r="B12" s="25"/>
-      <c r="C12" s="20"/>
+      <c r="C12" s="20" t="s">
+        <v>195</v>
+      </c>
       <c r="D12" s="20"/>
       <c r="E12" s="20"/>
       <c r="F12" s="10"/>
@@ -9435,7 +9381,9 @@
         <v>12</v>
       </c>
       <c r="B13" s="25"/>
-      <c r="C13" s="20"/>
+      <c r="C13" s="20" t="s">
+        <v>196</v>
+      </c>
       <c r="D13" s="20"/>
       <c r="E13" s="20"/>
       <c r="F13" s="20"/>
@@ -9449,7 +9397,9 @@
         <v>13</v>
       </c>
       <c r="B14" s="25"/>
-      <c r="C14" s="20"/>
+      <c r="C14" s="20" t="s">
+        <v>197</v>
+      </c>
       <c r="D14" s="20"/>
       <c r="E14" s="20"/>
       <c r="F14" s="20"/>
@@ -9470,7 +9420,9 @@
         <v>15</v>
       </c>
       <c r="G15" s="25"/>
-      <c r="H15" s="20"/>
+      <c r="H15" s="20" t="s">
+        <v>61</v>
+      </c>
       <c r="I15" s="20"/>
       <c r="J15" s="38"/>
     </row>
@@ -9479,14 +9431,18 @@
         <v>16</v>
       </c>
       <c r="B16" s="25"/>
-      <c r="C16" s="20"/>
+      <c r="C16" s="20" t="s">
+        <v>50</v>
+      </c>
       <c r="D16" s="20"/>
       <c r="E16" s="20"/>
       <c r="F16" s="25" t="s">
         <v>17</v>
       </c>
       <c r="G16" s="25"/>
-      <c r="H16" s="20"/>
+      <c r="H16" s="20" t="s">
+        <v>51</v>
+      </c>
       <c r="I16" s="20"/>
       <c r="J16" s="38"/>
     </row>
@@ -9496,13 +9452,17 @@
       </c>
       <c r="B17" s="25"/>
       <c r="C17" s="25"/>
-      <c r="D17" s="20"/>
+      <c r="D17" s="20" t="s">
+        <v>52</v>
+      </c>
       <c r="E17" s="20"/>
       <c r="F17" s="25" t="s">
         <v>19</v>
       </c>
       <c r="G17" s="25"/>
-      <c r="H17" s="20"/>
+      <c r="H17" s="20" t="s">
+        <v>198</v>
+      </c>
       <c r="I17" s="20"/>
       <c r="J17" s="38"/>
     </row>
@@ -9597,7 +9557,7 @@
       </c>
       <c r="G24" s="37"/>
       <c r="H24" s="42" t="s">
-        <v>68</v>
+        <v>199</v>
       </c>
       <c r="I24" s="21"/>
       <c r="J24" s="39"/>
@@ -9623,7 +9583,9 @@
       <c r="B27" s="23"/>
       <c r="C27" s="23"/>
       <c r="D27" s="23"/>
-      <c r="E27" s="26"/>
+      <c r="E27" s="26">
+        <v>2013</v>
+      </c>
       <c r="F27" s="26"/>
       <c r="G27" s="23" t="s">
         <v>33</v>
@@ -9637,7 +9599,9 @@
         <v>34</v>
       </c>
       <c r="B28" s="25"/>
-      <c r="C28" s="20"/>
+      <c r="C28" s="20" t="s">
+        <v>64</v>
+      </c>
       <c r="D28" s="20"/>
       <c r="E28" s="20"/>
       <c r="F28" s="20"/>
@@ -9939,7 +9903,7 @@
       </c>
       <c r="E7" s="18"/>
       <c r="F7" s="19">
-        <v>20154158</v>
+        <v>20154175</v>
       </c>
       <c r="G7" s="19"/>
     </row>
@@ -9963,7 +9927,7 @@
       </c>
       <c r="B10" s="23"/>
       <c r="C10" s="26" t="s">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="D10" s="26"/>
       <c r="E10" s="26"/>
@@ -9979,7 +9943,7 @@
       </c>
       <c r="B11" s="25"/>
       <c r="C11" s="20" t="s">
-        <v>193</v>
+        <v>200</v>
       </c>
       <c r="D11" s="20"/>
       <c r="E11" s="20"/>
@@ -9995,7 +9959,7 @@
       </c>
       <c r="B12" s="25"/>
       <c r="C12" s="20" t="s">
-        <v>194</v>
+        <v>201</v>
       </c>
       <c r="D12" s="20"/>
       <c r="E12" s="20"/>
@@ -10011,7 +9975,7 @@
       </c>
       <c r="B13" s="25"/>
       <c r="C13" s="20" t="s">
-        <v>195</v>
+        <v>202</v>
       </c>
       <c r="D13" s="20"/>
       <c r="E13" s="20"/>
@@ -10027,7 +9991,7 @@
       </c>
       <c r="B14" s="25"/>
       <c r="C14" s="20" t="s">
-        <v>196</v>
+        <v>203</v>
       </c>
       <c r="D14" s="20"/>
       <c r="E14" s="20"/>
@@ -10042,9 +10006,7 @@
         <v>14</v>
       </c>
       <c r="B15" s="25"/>
-      <c r="C15" s="20" t="s">
-        <v>92</v>
-      </c>
+      <c r="C15" s="20"/>
       <c r="D15" s="20"/>
       <c r="E15" s="20"/>
       <c r="F15" s="25" t="s">
@@ -10052,7 +10014,7 @@
       </c>
       <c r="G15" s="25"/>
       <c r="H15" s="20" t="s">
-        <v>50</v>
+        <v>61</v>
       </c>
       <c r="I15" s="20"/>
       <c r="J15" s="38"/>
@@ -10063,7 +10025,7 @@
       </c>
       <c r="B16" s="25"/>
       <c r="C16" s="20" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D16" s="20"/>
       <c r="E16" s="20"/>
@@ -10072,7 +10034,7 @@
       </c>
       <c r="G16" s="25"/>
       <c r="H16" s="20" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="I16" s="20"/>
       <c r="J16" s="38"/>
@@ -10084,7 +10046,7 @@
       <c r="B17" s="25"/>
       <c r="C17" s="25"/>
       <c r="D17" s="20" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="E17" s="20"/>
       <c r="F17" s="25" t="s">
@@ -10092,7 +10054,7 @@
       </c>
       <c r="G17" s="25"/>
       <c r="H17" s="20" t="s">
-        <v>197</v>
+        <v>204</v>
       </c>
       <c r="I17" s="20"/>
       <c r="J17" s="38"/>
@@ -10188,7 +10150,7 @@
       </c>
       <c r="G24" s="37"/>
       <c r="H24" s="42" t="s">
-        <v>198</v>
+        <v>205</v>
       </c>
       <c r="I24" s="21"/>
       <c r="J24" s="39"/>
@@ -10231,7 +10193,7 @@
       </c>
       <c r="B28" s="25"/>
       <c r="C28" s="20" t="s">
-        <v>182</v>
+        <v>206</v>
       </c>
       <c r="D28" s="20"/>
       <c r="E28" s="20"/>
@@ -10534,7 +10496,7 @@
       </c>
       <c r="E7" s="18"/>
       <c r="F7" s="19">
-        <v>20154179</v>
+        <v>20154180</v>
       </c>
       <c r="G7" s="19"/>
     </row>
@@ -10558,7 +10520,7 @@
       </c>
       <c r="B10" s="23"/>
       <c r="C10" s="26" t="s">
-        <v>199</v>
+        <v>207</v>
       </c>
       <c r="D10" s="26"/>
       <c r="E10" s="26"/>
@@ -10574,7 +10536,7 @@
       </c>
       <c r="B11" s="25"/>
       <c r="C11" s="20" t="s">
-        <v>200</v>
+        <v>208</v>
       </c>
       <c r="D11" s="20"/>
       <c r="E11" s="20"/>
@@ -10590,7 +10552,7 @@
       </c>
       <c r="B12" s="25"/>
       <c r="C12" s="20" t="s">
-        <v>201</v>
+        <v>209</v>
       </c>
       <c r="D12" s="20"/>
       <c r="E12" s="20"/>
@@ -10606,7 +10568,7 @@
       </c>
       <c r="B13" s="25"/>
       <c r="C13" s="20" t="s">
-        <v>202</v>
+        <v>210</v>
       </c>
       <c r="D13" s="20"/>
       <c r="E13" s="20"/>
@@ -10622,7 +10584,7 @@
       </c>
       <c r="B14" s="25"/>
       <c r="C14" s="20" t="s">
-        <v>203</v>
+        <v>211</v>
       </c>
       <c r="D14" s="20"/>
       <c r="E14" s="20"/>
@@ -10637,9 +10599,7 @@
         <v>14</v>
       </c>
       <c r="B15" s="25"/>
-      <c r="C15" s="20" t="s">
-        <v>49</v>
-      </c>
+      <c r="C15" s="20"/>
       <c r="D15" s="20"/>
       <c r="E15" s="20"/>
       <c r="F15" s="25" t="s">
@@ -10647,7 +10607,7 @@
       </c>
       <c r="G15" s="25"/>
       <c r="H15" s="20" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="I15" s="20"/>
       <c r="J15" s="38"/>
@@ -10658,7 +10618,7 @@
       </c>
       <c r="B16" s="25"/>
       <c r="C16" s="20" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D16" s="20"/>
       <c r="E16" s="20"/>
@@ -10667,7 +10627,7 @@
       </c>
       <c r="G16" s="25"/>
       <c r="H16" s="20" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="I16" s="20"/>
       <c r="J16" s="38"/>
@@ -10679,7 +10639,7 @@
       <c r="B17" s="25"/>
       <c r="C17" s="25"/>
       <c r="D17" s="20" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="E17" s="20"/>
       <c r="F17" s="25" t="s">
@@ -10687,7 +10647,7 @@
       </c>
       <c r="G17" s="25"/>
       <c r="H17" s="20" t="s">
-        <v>204</v>
+        <v>212</v>
       </c>
       <c r="I17" s="20"/>
       <c r="J17" s="38"/>
@@ -10783,7 +10743,7 @@
       </c>
       <c r="G24" s="37"/>
       <c r="H24" s="42" t="s">
-        <v>205</v>
+        <v>213</v>
       </c>
       <c r="I24" s="21"/>
       <c r="J24" s="39"/>
@@ -10826,7 +10786,7 @@
       </c>
       <c r="B28" s="25"/>
       <c r="C28" s="20" t="s">
-        <v>206</v>
+        <v>214</v>
       </c>
       <c r="D28" s="20"/>
       <c r="E28" s="20"/>
@@ -11129,7 +11089,7 @@
       </c>
       <c r="E7" s="18"/>
       <c r="F7" s="19">
-        <v>20154173</v>
+        <v>20154162</v>
       </c>
       <c r="G7" s="19"/>
     </row>
@@ -11153,7 +11113,7 @@
       </c>
       <c r="B10" s="23"/>
       <c r="C10" s="26" t="s">
-        <v>207</v>
+        <v>215</v>
       </c>
       <c r="D10" s="26"/>
       <c r="E10" s="26"/>
@@ -11169,7 +11129,7 @@
       </c>
       <c r="B11" s="25"/>
       <c r="C11" s="20" t="s">
-        <v>208</v>
+        <v>216</v>
       </c>
       <c r="D11" s="20"/>
       <c r="E11" s="20"/>
@@ -11185,7 +11145,7 @@
       </c>
       <c r="B12" s="25"/>
       <c r="C12" s="20" t="s">
-        <v>209</v>
+        <v>217</v>
       </c>
       <c r="D12" s="20"/>
       <c r="E12" s="20"/>
@@ -11201,7 +11161,7 @@
       </c>
       <c r="B13" s="25"/>
       <c r="C13" s="20" t="s">
-        <v>210</v>
+        <v>218</v>
       </c>
       <c r="D13" s="20"/>
       <c r="E13" s="20"/>
@@ -11217,7 +11177,7 @@
       </c>
       <c r="B14" s="25"/>
       <c r="C14" s="20" t="s">
-        <v>211</v>
+        <v>219</v>
       </c>
       <c r="D14" s="20"/>
       <c r="E14" s="20"/>
@@ -11232,9 +11192,7 @@
         <v>14</v>
       </c>
       <c r="B15" s="25"/>
-      <c r="C15" s="20" t="s">
-        <v>49</v>
-      </c>
+      <c r="C15" s="20"/>
       <c r="D15" s="20"/>
       <c r="E15" s="20"/>
       <c r="F15" s="25" t="s">
@@ -11242,7 +11200,7 @@
       </c>
       <c r="G15" s="25"/>
       <c r="H15" s="20" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="I15" s="20"/>
       <c r="J15" s="38"/>
@@ -11253,7 +11211,7 @@
       </c>
       <c r="B16" s="25"/>
       <c r="C16" s="20" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D16" s="20"/>
       <c r="E16" s="20"/>
@@ -11262,7 +11220,7 @@
       </c>
       <c r="G16" s="25"/>
       <c r="H16" s="20" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="I16" s="20"/>
       <c r="J16" s="38"/>
@@ -11274,7 +11232,7 @@
       <c r="B17" s="25"/>
       <c r="C17" s="25"/>
       <c r="D17" s="20" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="E17" s="20"/>
       <c r="F17" s="25" t="s">
@@ -11282,7 +11240,7 @@
       </c>
       <c r="G17" s="25"/>
       <c r="H17" s="20" t="s">
-        <v>212</v>
+        <v>220</v>
       </c>
       <c r="I17" s="20"/>
       <c r="J17" s="38"/>
@@ -11378,7 +11336,7 @@
       </c>
       <c r="G24" s="37"/>
       <c r="H24" s="42" t="s">
-        <v>213</v>
+        <v>221</v>
       </c>
       <c r="I24" s="21"/>
       <c r="J24" s="39"/>
@@ -11421,7 +11379,7 @@
       </c>
       <c r="B28" s="25"/>
       <c r="C28" s="20" t="s">
-        <v>65</v>
+        <v>170</v>
       </c>
       <c r="D28" s="20"/>
       <c r="E28" s="20"/>
@@ -11724,7 +11682,7 @@
       </c>
       <c r="E7" s="18"/>
       <c r="F7" s="19">
-        <v>20154175</v>
+        <v>20154183</v>
       </c>
       <c r="G7" s="19"/>
     </row>
@@ -11748,7 +11706,7 @@
       </c>
       <c r="B10" s="23"/>
       <c r="C10" s="26" t="s">
-        <v>207</v>
+        <v>222</v>
       </c>
       <c r="D10" s="26"/>
       <c r="E10" s="26"/>
@@ -11764,7 +11722,7 @@
       </c>
       <c r="B11" s="25"/>
       <c r="C11" s="20" t="s">
-        <v>214</v>
+        <v>223</v>
       </c>
       <c r="D11" s="20"/>
       <c r="E11" s="20"/>
@@ -11780,7 +11738,7 @@
       </c>
       <c r="B12" s="25"/>
       <c r="C12" s="20" t="s">
-        <v>215</v>
+        <v>224</v>
       </c>
       <c r="D12" s="20"/>
       <c r="E12" s="20"/>
@@ -11796,7 +11754,7 @@
       </c>
       <c r="B13" s="25"/>
       <c r="C13" s="20" t="s">
-        <v>216</v>
+        <v>225</v>
       </c>
       <c r="D13" s="20"/>
       <c r="E13" s="20"/>
@@ -11812,7 +11770,7 @@
       </c>
       <c r="B14" s="25"/>
       <c r="C14" s="20" t="s">
-        <v>217</v>
+        <v>226</v>
       </c>
       <c r="D14" s="20"/>
       <c r="E14" s="20"/>
@@ -11827,9 +11785,7 @@
         <v>14</v>
       </c>
       <c r="B15" s="25"/>
-      <c r="C15" s="20" t="s">
-        <v>218</v>
-      </c>
+      <c r="C15" s="20"/>
       <c r="D15" s="20"/>
       <c r="E15" s="20"/>
       <c r="F15" s="25" t="s">
@@ -11837,7 +11793,7 @@
       </c>
       <c r="G15" s="25"/>
       <c r="H15" s="20" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="I15" s="20"/>
       <c r="J15" s="38"/>
@@ -11848,7 +11804,7 @@
       </c>
       <c r="B16" s="25"/>
       <c r="C16" s="20" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D16" s="20"/>
       <c r="E16" s="20"/>
@@ -11857,7 +11813,7 @@
       </c>
       <c r="G16" s="25"/>
       <c r="H16" s="20" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="I16" s="20"/>
       <c r="J16" s="38"/>
@@ -11869,7 +11825,7 @@
       <c r="B17" s="25"/>
       <c r="C17" s="25"/>
       <c r="D17" s="20" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="E17" s="20"/>
       <c r="F17" s="25" t="s">
@@ -11877,7 +11833,7 @@
       </c>
       <c r="G17" s="25"/>
       <c r="H17" s="20" t="s">
-        <v>219</v>
+        <v>227</v>
       </c>
       <c r="I17" s="20"/>
       <c r="J17" s="38"/>
@@ -11973,7 +11929,7 @@
       </c>
       <c r="G24" s="37"/>
       <c r="H24" s="42" t="s">
-        <v>220</v>
+        <v>228</v>
       </c>
       <c r="I24" s="21"/>
       <c r="J24" s="39"/>
@@ -12016,7 +11972,7 @@
       </c>
       <c r="B28" s="25"/>
       <c r="C28" s="20" t="s">
-        <v>221</v>
+        <v>229</v>
       </c>
       <c r="D28" s="20"/>
       <c r="E28" s="20"/>
@@ -12319,7 +12275,7 @@
       </c>
       <c r="E7" s="18"/>
       <c r="F7" s="19">
-        <v>20154180</v>
+        <v>20154166</v>
       </c>
       <c r="G7" s="19"/>
     </row>
@@ -12343,7 +12299,7 @@
       </c>
       <c r="B10" s="23"/>
       <c r="C10" s="26" t="s">
-        <v>222</v>
+        <v>230</v>
       </c>
       <c r="D10" s="26"/>
       <c r="E10" s="26"/>
@@ -12359,7 +12315,7 @@
       </c>
       <c r="B11" s="25"/>
       <c r="C11" s="20" t="s">
-        <v>223</v>
+        <v>231</v>
       </c>
       <c r="D11" s="20"/>
       <c r="E11" s="20"/>
@@ -12375,7 +12331,7 @@
       </c>
       <c r="B12" s="25"/>
       <c r="C12" s="20" t="s">
-        <v>224</v>
+        <v>232</v>
       </c>
       <c r="D12" s="20"/>
       <c r="E12" s="20"/>
@@ -12391,7 +12347,7 @@
       </c>
       <c r="B13" s="25"/>
       <c r="C13" s="20" t="s">
-        <v>225</v>
+        <v>233</v>
       </c>
       <c r="D13" s="20"/>
       <c r="E13" s="20"/>
@@ -12407,7 +12363,7 @@
       </c>
       <c r="B14" s="25"/>
       <c r="C14" s="20" t="s">
-        <v>226</v>
+        <v>234</v>
       </c>
       <c r="D14" s="20"/>
       <c r="E14" s="20"/>
@@ -12422,9 +12378,7 @@
         <v>14</v>
       </c>
       <c r="B15" s="25"/>
-      <c r="C15" s="20" t="s">
-        <v>49</v>
-      </c>
+      <c r="C15" s="20"/>
       <c r="D15" s="20"/>
       <c r="E15" s="20"/>
       <c r="F15" s="25" t="s">
@@ -12432,7 +12386,7 @@
       </c>
       <c r="G15" s="25"/>
       <c r="H15" s="20" t="s">
-        <v>62</v>
+        <v>49</v>
       </c>
       <c r="I15" s="20"/>
       <c r="J15" s="38"/>
@@ -12443,7 +12397,7 @@
       </c>
       <c r="B16" s="25"/>
       <c r="C16" s="20" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D16" s="20"/>
       <c r="E16" s="20"/>
@@ -12452,7 +12406,7 @@
       </c>
       <c r="G16" s="25"/>
       <c r="H16" s="20" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="I16" s="20"/>
       <c r="J16" s="38"/>
@@ -12464,7 +12418,7 @@
       <c r="B17" s="25"/>
       <c r="C17" s="25"/>
       <c r="D17" s="20" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="E17" s="20"/>
       <c r="F17" s="25" t="s">
@@ -12472,7 +12426,7 @@
       </c>
       <c r="G17" s="25"/>
       <c r="H17" s="20" t="s">
-        <v>227</v>
+        <v>235</v>
       </c>
       <c r="I17" s="20"/>
       <c r="J17" s="38"/>
@@ -12568,7 +12522,7 @@
       </c>
       <c r="G24" s="37"/>
       <c r="H24" s="42" t="s">
-        <v>228</v>
+        <v>236</v>
       </c>
       <c r="I24" s="21"/>
       <c r="J24" s="39"/>
@@ -12611,7 +12565,7 @@
       </c>
       <c r="B28" s="25"/>
       <c r="C28" s="20" t="s">
-        <v>229</v>
+        <v>139</v>
       </c>
       <c r="D28" s="20"/>
       <c r="E28" s="20"/>
@@ -12914,7 +12868,7 @@
       </c>
       <c r="E7" s="18"/>
       <c r="F7" s="19">
-        <v>20154162</v>
+        <v>20154157</v>
       </c>
       <c r="G7" s="19"/>
     </row>
@@ -12938,7 +12892,7 @@
       </c>
       <c r="B10" s="23"/>
       <c r="C10" s="26" t="s">
-        <v>230</v>
+        <v>237</v>
       </c>
       <c r="D10" s="26"/>
       <c r="E10" s="26"/>
@@ -12954,7 +12908,7 @@
       </c>
       <c r="B11" s="25"/>
       <c r="C11" s="20" t="s">
-        <v>231</v>
+        <v>238</v>
       </c>
       <c r="D11" s="20"/>
       <c r="E11" s="20"/>
@@ -12970,7 +12924,7 @@
       </c>
       <c r="B12" s="25"/>
       <c r="C12" s="20" t="s">
-        <v>232</v>
+        <v>239</v>
       </c>
       <c r="D12" s="20"/>
       <c r="E12" s="20"/>
@@ -12986,7 +12940,7 @@
       </c>
       <c r="B13" s="25"/>
       <c r="C13" s="20" t="s">
-        <v>233</v>
+        <v>240</v>
       </c>
       <c r="D13" s="20"/>
       <c r="E13" s="20"/>
@@ -13002,7 +12956,7 @@
       </c>
       <c r="B14" s="25"/>
       <c r="C14" s="20" t="s">
-        <v>234</v>
+        <v>241</v>
       </c>
       <c r="D14" s="20"/>
       <c r="E14" s="20"/>
@@ -13017,9 +12971,7 @@
         <v>14</v>
       </c>
       <c r="B15" s="25"/>
-      <c r="C15" s="20" t="s">
-        <v>92</v>
-      </c>
+      <c r="C15" s="20"/>
       <c r="D15" s="20"/>
       <c r="E15" s="20"/>
       <c r="F15" s="25" t="s">
@@ -13027,7 +12979,7 @@
       </c>
       <c r="G15" s="25"/>
       <c r="H15" s="20" t="s">
-        <v>62</v>
+        <v>49</v>
       </c>
       <c r="I15" s="20"/>
       <c r="J15" s="38"/>
@@ -13038,7 +12990,7 @@
       </c>
       <c r="B16" s="25"/>
       <c r="C16" s="20" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D16" s="20"/>
       <c r="E16" s="20"/>
@@ -13047,7 +12999,7 @@
       </c>
       <c r="G16" s="25"/>
       <c r="H16" s="20" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="I16" s="20"/>
       <c r="J16" s="38"/>
@@ -13059,7 +13011,7 @@
       <c r="B17" s="25"/>
       <c r="C17" s="25"/>
       <c r="D17" s="20" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="E17" s="20"/>
       <c r="F17" s="25" t="s">
@@ -13067,7 +13019,7 @@
       </c>
       <c r="G17" s="25"/>
       <c r="H17" s="20" t="s">
-        <v>235</v>
+        <v>242</v>
       </c>
       <c r="I17" s="20"/>
       <c r="J17" s="38"/>
@@ -13163,7 +13115,7 @@
       </c>
       <c r="G24" s="37"/>
       <c r="H24" s="42" t="s">
-        <v>236</v>
+        <v>243</v>
       </c>
       <c r="I24" s="21"/>
       <c r="J24" s="39"/>
@@ -13190,7 +13142,7 @@
       <c r="C27" s="23"/>
       <c r="D27" s="23"/>
       <c r="E27" s="26">
-        <v>2013</v>
+        <v>2012</v>
       </c>
       <c r="F27" s="26"/>
       <c r="G27" s="23" t="s">
@@ -13206,7 +13158,7 @@
       </c>
       <c r="B28" s="25"/>
       <c r="C28" s="20" t="s">
-        <v>182</v>
+        <v>55</v>
       </c>
       <c r="D28" s="20"/>
       <c r="E28" s="20"/>
@@ -13509,7 +13461,7 @@
       </c>
       <c r="E7" s="18"/>
       <c r="F7" s="19">
-        <v>20154183</v>
+        <v>20154160</v>
       </c>
       <c r="G7" s="19"/>
     </row>
@@ -13533,7 +13485,7 @@
       </c>
       <c r="B10" s="23"/>
       <c r="C10" s="26" t="s">
-        <v>237</v>
+        <v>244</v>
       </c>
       <c r="D10" s="26"/>
       <c r="E10" s="26"/>
@@ -13549,7 +13501,7 @@
       </c>
       <c r="B11" s="25"/>
       <c r="C11" s="20" t="s">
-        <v>238</v>
+        <v>245</v>
       </c>
       <c r="D11" s="20"/>
       <c r="E11" s="20"/>
@@ -13565,7 +13517,7 @@
       </c>
       <c r="B12" s="25"/>
       <c r="C12" s="20" t="s">
-        <v>239</v>
+        <v>246</v>
       </c>
       <c r="D12" s="20"/>
       <c r="E12" s="20"/>
@@ -13581,7 +13533,7 @@
       </c>
       <c r="B13" s="25"/>
       <c r="C13" s="20" t="s">
-        <v>240</v>
+        <v>247</v>
       </c>
       <c r="D13" s="20"/>
       <c r="E13" s="20"/>
@@ -13597,7 +13549,7 @@
       </c>
       <c r="B14" s="25"/>
       <c r="C14" s="20" t="s">
-        <v>241</v>
+        <v>248</v>
       </c>
       <c r="D14" s="20"/>
       <c r="E14" s="20"/>
@@ -13612,9 +13564,7 @@
         <v>14</v>
       </c>
       <c r="B15" s="25"/>
-      <c r="C15" s="20" t="s">
-        <v>74</v>
-      </c>
+      <c r="C15" s="20"/>
       <c r="D15" s="20"/>
       <c r="E15" s="20"/>
       <c r="F15" s="25" t="s">
@@ -13622,7 +13572,7 @@
       </c>
       <c r="G15" s="25"/>
       <c r="H15" s="20" t="s">
-        <v>62</v>
+        <v>49</v>
       </c>
       <c r="I15" s="20"/>
       <c r="J15" s="38"/>
@@ -13633,7 +13583,7 @@
       </c>
       <c r="B16" s="25"/>
       <c r="C16" s="20" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D16" s="20"/>
       <c r="E16" s="20"/>
@@ -13642,7 +13592,7 @@
       </c>
       <c r="G16" s="25"/>
       <c r="H16" s="20" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="I16" s="20"/>
       <c r="J16" s="38"/>
@@ -13654,7 +13604,7 @@
       <c r="B17" s="25"/>
       <c r="C17" s="25"/>
       <c r="D17" s="20" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="E17" s="20"/>
       <c r="F17" s="25" t="s">
@@ -13662,7 +13612,7 @@
       </c>
       <c r="G17" s="25"/>
       <c r="H17" s="20" t="s">
-        <v>242</v>
+        <v>249</v>
       </c>
       <c r="I17" s="20"/>
       <c r="J17" s="38"/>
@@ -13758,7 +13708,7 @@
       </c>
       <c r="G24" s="37"/>
       <c r="H24" s="42" t="s">
-        <v>243</v>
+        <v>250</v>
       </c>
       <c r="I24" s="21"/>
       <c r="J24" s="39"/>
@@ -13801,7 +13751,7 @@
       </c>
       <c r="B28" s="25"/>
       <c r="C28" s="20" t="s">
-        <v>244</v>
+        <v>55</v>
       </c>
       <c r="D28" s="20"/>
       <c r="E28" s="20"/>
@@ -14104,7 +14054,7 @@
       </c>
       <c r="E7" s="18"/>
       <c r="F7" s="19">
-        <v>20154166</v>
+        <v>20154164</v>
       </c>
       <c r="G7" s="19"/>
     </row>
@@ -14128,7 +14078,7 @@
       </c>
       <c r="B10" s="23"/>
       <c r="C10" s="26" t="s">
-        <v>245</v>
+        <v>251</v>
       </c>
       <c r="D10" s="26"/>
       <c r="E10" s="26"/>
@@ -14144,7 +14094,7 @@
       </c>
       <c r="B11" s="25"/>
       <c r="C11" s="20" t="s">
-        <v>246</v>
+        <v>252</v>
       </c>
       <c r="D11" s="20"/>
       <c r="E11" s="20"/>
@@ -14159,9 +14109,7 @@
         <v>11</v>
       </c>
       <c r="B12" s="25"/>
-      <c r="C12" s="20" t="s">
-        <v>247</v>
-      </c>
+      <c r="C12" s="20"/>
       <c r="D12" s="20"/>
       <c r="E12" s="20"/>
       <c r="F12" s="10"/>
@@ -14175,9 +14123,7 @@
         <v>12</v>
       </c>
       <c r="B13" s="25"/>
-      <c r="C13" s="20" t="s">
-        <v>248</v>
-      </c>
+      <c r="C13" s="20"/>
       <c r="D13" s="20"/>
       <c r="E13" s="20"/>
       <c r="F13" s="20"/>
@@ -14191,9 +14137,7 @@
         <v>13</v>
       </c>
       <c r="B14" s="25"/>
-      <c r="C14" s="20" t="s">
-        <v>249</v>
-      </c>
+      <c r="C14" s="20"/>
       <c r="D14" s="20"/>
       <c r="E14" s="20"/>
       <c r="F14" s="20"/>
@@ -14207,18 +14151,14 @@
         <v>14</v>
       </c>
       <c r="B15" s="25"/>
-      <c r="C15" s="20" t="s">
-        <v>74</v>
-      </c>
+      <c r="C15" s="20"/>
       <c r="D15" s="20"/>
       <c r="E15" s="20"/>
       <c r="F15" s="25" t="s">
         <v>15</v>
       </c>
       <c r="G15" s="25"/>
-      <c r="H15" s="20" t="s">
-        <v>50</v>
-      </c>
+      <c r="H15" s="20"/>
       <c r="I15" s="20"/>
       <c r="J15" s="38"/>
     </row>
@@ -14227,18 +14167,14 @@
         <v>16</v>
       </c>
       <c r="B16" s="25"/>
-      <c r="C16" s="20" t="s">
-        <v>51</v>
-      </c>
+      <c r="C16" s="20"/>
       <c r="D16" s="20"/>
       <c r="E16" s="20"/>
       <c r="F16" s="25" t="s">
         <v>17</v>
       </c>
       <c r="G16" s="25"/>
-      <c r="H16" s="20" t="s">
-        <v>52</v>
-      </c>
+      <c r="H16" s="20"/>
       <c r="I16" s="20"/>
       <c r="J16" s="38"/>
     </row>
@@ -14248,17 +14184,13 @@
       </c>
       <c r="B17" s="25"/>
       <c r="C17" s="25"/>
-      <c r="D17" s="20" t="s">
-        <v>53</v>
-      </c>
+      <c r="D17" s="20"/>
       <c r="E17" s="20"/>
       <c r="F17" s="25" t="s">
         <v>19</v>
       </c>
       <c r="G17" s="25"/>
-      <c r="H17" s="20" t="s">
-        <v>250</v>
-      </c>
+      <c r="H17" s="20"/>
       <c r="I17" s="20"/>
       <c r="J17" s="38"/>
     </row>
@@ -14353,7 +14285,7 @@
       </c>
       <c r="G24" s="37"/>
       <c r="H24" s="42" t="s">
-        <v>251</v>
+        <v>253</v>
       </c>
       <c r="I24" s="21"/>
       <c r="J24" s="39"/>
@@ -14379,9 +14311,7 @@
       <c r="B27" s="23"/>
       <c r="C27" s="23"/>
       <c r="D27" s="23"/>
-      <c r="E27" s="26">
-        <v>2013</v>
-      </c>
+      <c r="E27" s="26"/>
       <c r="F27" s="26"/>
       <c r="G27" s="23" t="s">
         <v>33</v>
@@ -14395,9 +14325,7 @@
         <v>34</v>
       </c>
       <c r="B28" s="25"/>
-      <c r="C28" s="20" t="s">
-        <v>151</v>
-      </c>
+      <c r="C28" s="20"/>
       <c r="D28" s="20"/>
       <c r="E28" s="20"/>
       <c r="F28" s="20"/>
@@ -14723,7 +14651,7 @@
       </c>
       <c r="B10" s="23"/>
       <c r="C10" s="26" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="D10" s="26"/>
       <c r="E10" s="26"/>
@@ -14739,7 +14667,7 @@
       </c>
       <c r="B11" s="25"/>
       <c r="C11" s="20" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="D11" s="20"/>
       <c r="E11" s="20"/>
@@ -14755,7 +14683,7 @@
       </c>
       <c r="B12" s="25"/>
       <c r="C12" s="20" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="D12" s="20"/>
       <c r="E12" s="20"/>
@@ -14771,7 +14699,7 @@
       </c>
       <c r="B13" s="25"/>
       <c r="C13" s="20" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="D13" s="20"/>
       <c r="E13" s="20"/>
@@ -14787,7 +14715,7 @@
       </c>
       <c r="B14" s="25"/>
       <c r="C14" s="20" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="D14" s="20"/>
       <c r="E14" s="20"/>
@@ -14802,9 +14730,7 @@
         <v>14</v>
       </c>
       <c r="B15" s="25"/>
-      <c r="C15" s="20" t="s">
-        <v>49</v>
-      </c>
+      <c r="C15" s="20"/>
       <c r="D15" s="20"/>
       <c r="E15" s="20"/>
       <c r="F15" s="25" t="s">
@@ -14812,7 +14738,7 @@
       </c>
       <c r="G15" s="25"/>
       <c r="H15" s="20" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="I15" s="20"/>
       <c r="J15" s="38"/>
@@ -14823,7 +14749,7 @@
       </c>
       <c r="B16" s="25"/>
       <c r="C16" s="20" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D16" s="20"/>
       <c r="E16" s="20"/>
@@ -14832,7 +14758,7 @@
       </c>
       <c r="G16" s="25"/>
       <c r="H16" s="20" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="I16" s="20"/>
       <c r="J16" s="38"/>
@@ -14844,7 +14770,7 @@
       <c r="B17" s="25"/>
       <c r="C17" s="25"/>
       <c r="D17" s="20" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="E17" s="20"/>
       <c r="F17" s="25" t="s">
@@ -14852,7 +14778,7 @@
       </c>
       <c r="G17" s="25"/>
       <c r="H17" s="20" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="I17" s="20"/>
       <c r="J17" s="38"/>
@@ -14948,7 +14874,7 @@
       </c>
       <c r="G24" s="37"/>
       <c r="H24" s="42" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="I24" s="21"/>
       <c r="J24" s="39"/>
@@ -14991,7 +14917,7 @@
       </c>
       <c r="B28" s="25"/>
       <c r="C28" s="20" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="D28" s="20"/>
       <c r="E28" s="20"/>
@@ -15294,7 +15220,7 @@
       </c>
       <c r="E7" s="18"/>
       <c r="F7" s="19">
-        <v>20154157</v>
+        <v>20154188</v>
       </c>
       <c r="G7" s="19"/>
     </row>
@@ -15318,7 +15244,7 @@
       </c>
       <c r="B10" s="23"/>
       <c r="C10" s="26" t="s">
-        <v>252</v>
+        <v>254</v>
       </c>
       <c r="D10" s="26"/>
       <c r="E10" s="26"/>
@@ -15334,7 +15260,7 @@
       </c>
       <c r="B11" s="25"/>
       <c r="C11" s="20" t="s">
-        <v>253</v>
+        <v>255</v>
       </c>
       <c r="D11" s="20"/>
       <c r="E11" s="20"/>
@@ -15350,7 +15276,7 @@
       </c>
       <c r="B12" s="25"/>
       <c r="C12" s="20" t="s">
-        <v>254</v>
+        <v>256</v>
       </c>
       <c r="D12" s="20"/>
       <c r="E12" s="20"/>
@@ -15366,7 +15292,7 @@
       </c>
       <c r="B13" s="25"/>
       <c r="C13" s="20" t="s">
-        <v>255</v>
+        <v>257</v>
       </c>
       <c r="D13" s="20"/>
       <c r="E13" s="20"/>
@@ -15382,7 +15308,7 @@
       </c>
       <c r="B14" s="25"/>
       <c r="C14" s="20" t="s">
-        <v>256</v>
+        <v>258</v>
       </c>
       <c r="D14" s="20"/>
       <c r="E14" s="20"/>
@@ -15397,9 +15323,7 @@
         <v>14</v>
       </c>
       <c r="B15" s="25"/>
-      <c r="C15" s="20" t="s">
-        <v>49</v>
-      </c>
+      <c r="C15" s="20"/>
       <c r="D15" s="20"/>
       <c r="E15" s="20"/>
       <c r="F15" s="25" t="s">
@@ -15407,7 +15331,7 @@
       </c>
       <c r="G15" s="25"/>
       <c r="H15" s="20" t="s">
-        <v>50</v>
+        <v>61</v>
       </c>
       <c r="I15" s="20"/>
       <c r="J15" s="38"/>
@@ -15418,7 +15342,7 @@
       </c>
       <c r="B16" s="25"/>
       <c r="C16" s="20" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D16" s="20"/>
       <c r="E16" s="20"/>
@@ -15427,7 +15351,7 @@
       </c>
       <c r="G16" s="25"/>
       <c r="H16" s="20" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="I16" s="20"/>
       <c r="J16" s="38"/>
@@ -15439,7 +15363,7 @@
       <c r="B17" s="25"/>
       <c r="C17" s="25"/>
       <c r="D17" s="20" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="E17" s="20"/>
       <c r="F17" s="25" t="s">
@@ -15447,7 +15371,7 @@
       </c>
       <c r="G17" s="25"/>
       <c r="H17" s="20" t="s">
-        <v>257</v>
+        <v>259</v>
       </c>
       <c r="I17" s="20"/>
       <c r="J17" s="38"/>
@@ -15543,7 +15467,7 @@
       </c>
       <c r="G24" s="37"/>
       <c r="H24" s="42" t="s">
-        <v>258</v>
+        <v>260</v>
       </c>
       <c r="I24" s="21"/>
       <c r="J24" s="39"/>
@@ -15570,7 +15494,7 @@
       <c r="C27" s="23"/>
       <c r="D27" s="23"/>
       <c r="E27" s="26">
-        <v>2012</v>
+        <v>2013</v>
       </c>
       <c r="F27" s="26"/>
       <c r="G27" s="23" t="s">
@@ -15586,7 +15510,7 @@
       </c>
       <c r="B28" s="25"/>
       <c r="C28" s="20" t="s">
-        <v>56</v>
+        <v>214</v>
       </c>
       <c r="D28" s="20"/>
       <c r="E28" s="20"/>
@@ -15889,7 +15813,7 @@
       </c>
       <c r="E7" s="18"/>
       <c r="F7" s="19">
-        <v>20154160</v>
+        <v>20154170</v>
       </c>
       <c r="G7" s="19"/>
     </row>
@@ -15913,7 +15837,7 @@
       </c>
       <c r="B10" s="23"/>
       <c r="C10" s="26" t="s">
-        <v>259</v>
+        <v>261</v>
       </c>
       <c r="D10" s="26"/>
       <c r="E10" s="26"/>
@@ -15929,7 +15853,7 @@
       </c>
       <c r="B11" s="25"/>
       <c r="C11" s="20" t="s">
-        <v>260</v>
+        <v>262</v>
       </c>
       <c r="D11" s="20"/>
       <c r="E11" s="20"/>
@@ -15945,7 +15869,7 @@
       </c>
       <c r="B12" s="25"/>
       <c r="C12" s="20" t="s">
-        <v>261</v>
+        <v>263</v>
       </c>
       <c r="D12" s="20"/>
       <c r="E12" s="20"/>
@@ -15961,7 +15885,7 @@
       </c>
       <c r="B13" s="25"/>
       <c r="C13" s="20" t="s">
-        <v>262</v>
+        <v>264</v>
       </c>
       <c r="D13" s="20"/>
       <c r="E13" s="20"/>
@@ -15977,7 +15901,7 @@
       </c>
       <c r="B14" s="25"/>
       <c r="C14" s="20" t="s">
-        <v>263</v>
+        <v>265</v>
       </c>
       <c r="D14" s="20"/>
       <c r="E14" s="20"/>
@@ -15992,9 +15916,7 @@
         <v>14</v>
       </c>
       <c r="B15" s="25"/>
-      <c r="C15" s="20" t="s">
-        <v>264</v>
-      </c>
+      <c r="C15" s="20"/>
       <c r="D15" s="20"/>
       <c r="E15" s="20"/>
       <c r="F15" s="25" t="s">
@@ -16002,7 +15924,7 @@
       </c>
       <c r="G15" s="25"/>
       <c r="H15" s="20" t="s">
-        <v>50</v>
+        <v>61</v>
       </c>
       <c r="I15" s="20"/>
       <c r="J15" s="38"/>
@@ -16013,7 +15935,7 @@
       </c>
       <c r="B16" s="25"/>
       <c r="C16" s="20" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D16" s="20"/>
       <c r="E16" s="20"/>
@@ -16022,7 +15944,7 @@
       </c>
       <c r="G16" s="25"/>
       <c r="H16" s="20" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="I16" s="20"/>
       <c r="J16" s="38"/>
@@ -16034,7 +15956,7 @@
       <c r="B17" s="25"/>
       <c r="C17" s="25"/>
       <c r="D17" s="20" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="E17" s="20"/>
       <c r="F17" s="25" t="s">
@@ -16042,7 +15964,7 @@
       </c>
       <c r="G17" s="25"/>
       <c r="H17" s="20" t="s">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="I17" s="20"/>
       <c r="J17" s="38"/>
@@ -16138,7 +16060,7 @@
       </c>
       <c r="G24" s="37"/>
       <c r="H24" s="42" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="I24" s="21"/>
       <c r="J24" s="39"/>
@@ -16181,7 +16103,7 @@
       </c>
       <c r="B28" s="25"/>
       <c r="C28" s="20" t="s">
-        <v>56</v>
+        <v>72</v>
       </c>
       <c r="D28" s="20"/>
       <c r="E28" s="20"/>
@@ -16484,7 +16406,7 @@
       </c>
       <c r="E7" s="18"/>
       <c r="F7" s="19">
-        <v>20154164</v>
+        <v>20154169</v>
       </c>
       <c r="G7" s="19"/>
     </row>
@@ -16508,7 +16430,7 @@
       </c>
       <c r="B10" s="23"/>
       <c r="C10" s="26" t="s">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="D10" s="26"/>
       <c r="E10" s="26"/>
@@ -16524,7 +16446,7 @@
       </c>
       <c r="B11" s="25"/>
       <c r="C11" s="20" t="s">
-        <v>268</v>
+        <v>269</v>
       </c>
       <c r="D11" s="20"/>
       <c r="E11" s="20"/>
@@ -16539,7 +16461,9 @@
         <v>11</v>
       </c>
       <c r="B12" s="25"/>
-      <c r="C12" s="20"/>
+      <c r="C12" s="20" t="s">
+        <v>270</v>
+      </c>
       <c r="D12" s="20"/>
       <c r="E12" s="20"/>
       <c r="F12" s="10"/>
@@ -16553,7 +16477,9 @@
         <v>12</v>
       </c>
       <c r="B13" s="25"/>
-      <c r="C13" s="20"/>
+      <c r="C13" s="20" t="s">
+        <v>271</v>
+      </c>
       <c r="D13" s="20"/>
       <c r="E13" s="20"/>
       <c r="F13" s="20"/>
@@ -16567,7 +16493,9 @@
         <v>13</v>
       </c>
       <c r="B14" s="25"/>
-      <c r="C14" s="20"/>
+      <c r="C14" s="20" t="s">
+        <v>272</v>
+      </c>
       <c r="D14" s="20"/>
       <c r="E14" s="20"/>
       <c r="F14" s="20"/>
@@ -16588,7 +16516,9 @@
         <v>15</v>
       </c>
       <c r="G15" s="25"/>
-      <c r="H15" s="20"/>
+      <c r="H15" s="20" t="s">
+        <v>61</v>
+      </c>
       <c r="I15" s="20"/>
       <c r="J15" s="38"/>
     </row>
@@ -16597,14 +16527,18 @@
         <v>16</v>
       </c>
       <c r="B16" s="25"/>
-      <c r="C16" s="20"/>
+      <c r="C16" s="20" t="s">
+        <v>50</v>
+      </c>
       <c r="D16" s="20"/>
       <c r="E16" s="20"/>
       <c r="F16" s="25" t="s">
         <v>17</v>
       </c>
       <c r="G16" s="25"/>
-      <c r="H16" s="20"/>
+      <c r="H16" s="20" t="s">
+        <v>51</v>
+      </c>
       <c r="I16" s="20"/>
       <c r="J16" s="38"/>
     </row>
@@ -16614,13 +16548,17 @@
       </c>
       <c r="B17" s="25"/>
       <c r="C17" s="25"/>
-      <c r="D17" s="20"/>
+      <c r="D17" s="20" t="s">
+        <v>52</v>
+      </c>
       <c r="E17" s="20"/>
       <c r="F17" s="25" t="s">
         <v>19</v>
       </c>
       <c r="G17" s="25"/>
-      <c r="H17" s="20"/>
+      <c r="H17" s="20" t="s">
+        <v>273</v>
+      </c>
       <c r="I17" s="20"/>
       <c r="J17" s="38"/>
     </row>
@@ -16715,7 +16653,7 @@
       </c>
       <c r="G24" s="37"/>
       <c r="H24" s="42" t="s">
-        <v>68</v>
+        <v>274</v>
       </c>
       <c r="I24" s="21"/>
       <c r="J24" s="39"/>
@@ -16741,7 +16679,9 @@
       <c r="B27" s="23"/>
       <c r="C27" s="23"/>
       <c r="D27" s="23"/>
-      <c r="E27" s="26"/>
+      <c r="E27" s="26">
+        <v>2013</v>
+      </c>
       <c r="F27" s="26"/>
       <c r="G27" s="23" t="s">
         <v>33</v>
@@ -16755,7 +16695,9 @@
         <v>34</v>
       </c>
       <c r="B28" s="25"/>
-      <c r="C28" s="20"/>
+      <c r="C28" s="20" t="s">
+        <v>275</v>
+      </c>
       <c r="D28" s="20"/>
       <c r="E28" s="20"/>
       <c r="F28" s="20"/>
@@ -17057,7 +16999,7 @@
       </c>
       <c r="E7" s="18"/>
       <c r="F7" s="19">
-        <v>20154188</v>
+        <v>20154185</v>
       </c>
       <c r="G7" s="19"/>
     </row>
@@ -17081,7 +17023,7 @@
       </c>
       <c r="B10" s="23"/>
       <c r="C10" s="26" t="s">
-        <v>269</v>
+        <v>276</v>
       </c>
       <c r="D10" s="26"/>
       <c r="E10" s="26"/>
@@ -17097,7 +17039,7 @@
       </c>
       <c r="B11" s="25"/>
       <c r="C11" s="20" t="s">
-        <v>270</v>
+        <v>277</v>
       </c>
       <c r="D11" s="20"/>
       <c r="E11" s="20"/>
@@ -17113,7 +17055,7 @@
       </c>
       <c r="B12" s="25"/>
       <c r="C12" s="20" t="s">
-        <v>271</v>
+        <v>278</v>
       </c>
       <c r="D12" s="20"/>
       <c r="E12" s="20"/>
@@ -17129,7 +17071,7 @@
       </c>
       <c r="B13" s="25"/>
       <c r="C13" s="20" t="s">
-        <v>272</v>
+        <v>279</v>
       </c>
       <c r="D13" s="20"/>
       <c r="E13" s="20"/>
@@ -17145,7 +17087,7 @@
       </c>
       <c r="B14" s="25"/>
       <c r="C14" s="20" t="s">
-        <v>273</v>
+        <v>280</v>
       </c>
       <c r="D14" s="20"/>
       <c r="E14" s="20"/>
@@ -17160,9 +17102,7 @@
         <v>14</v>
       </c>
       <c r="B15" s="25"/>
-      <c r="C15" s="20" t="s">
-        <v>115</v>
-      </c>
+      <c r="C15" s="20"/>
       <c r="D15" s="20"/>
       <c r="E15" s="20"/>
       <c r="F15" s="25" t="s">
@@ -17170,7 +17110,7 @@
       </c>
       <c r="G15" s="25"/>
       <c r="H15" s="20" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="I15" s="20"/>
       <c r="J15" s="38"/>
@@ -17181,7 +17121,7 @@
       </c>
       <c r="B16" s="25"/>
       <c r="C16" s="20" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D16" s="20"/>
       <c r="E16" s="20"/>
@@ -17190,7 +17130,7 @@
       </c>
       <c r="G16" s="25"/>
       <c r="H16" s="20" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="I16" s="20"/>
       <c r="J16" s="38"/>
@@ -17202,7 +17142,7 @@
       <c r="B17" s="25"/>
       <c r="C17" s="25"/>
       <c r="D17" s="20" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="E17" s="20"/>
       <c r="F17" s="25" t="s">
@@ -17210,7 +17150,7 @@
       </c>
       <c r="G17" s="25"/>
       <c r="H17" s="20" t="s">
-        <v>274</v>
+        <v>281</v>
       </c>
       <c r="I17" s="20"/>
       <c r="J17" s="38"/>
@@ -17306,7 +17246,7 @@
       </c>
       <c r="G24" s="37"/>
       <c r="H24" s="42" t="s">
-        <v>275</v>
+        <v>282</v>
       </c>
       <c r="I24" s="21"/>
       <c r="J24" s="39"/>
@@ -17349,7 +17289,7 @@
       </c>
       <c r="B28" s="25"/>
       <c r="C28" s="20" t="s">
-        <v>229</v>
+        <v>214</v>
       </c>
       <c r="D28" s="20"/>
       <c r="E28" s="20"/>
@@ -17652,7 +17592,7 @@
       </c>
       <c r="E7" s="18"/>
       <c r="F7" s="19">
-        <v>20154170</v>
+        <v>20154163</v>
       </c>
       <c r="G7" s="19"/>
     </row>
@@ -17676,7 +17616,7 @@
       </c>
       <c r="B10" s="23"/>
       <c r="C10" s="26" t="s">
-        <v>276</v>
+        <v>283</v>
       </c>
       <c r="D10" s="26"/>
       <c r="E10" s="26"/>
@@ -17692,7 +17632,7 @@
       </c>
       <c r="B11" s="25"/>
       <c r="C11" s="20" t="s">
-        <v>277</v>
+        <v>284</v>
       </c>
       <c r="D11" s="20"/>
       <c r="E11" s="20"/>
@@ -17708,7 +17648,7 @@
       </c>
       <c r="B12" s="25"/>
       <c r="C12" s="20" t="s">
-        <v>278</v>
+        <v>285</v>
       </c>
       <c r="D12" s="20"/>
       <c r="E12" s="20"/>
@@ -17724,7 +17664,7 @@
       </c>
       <c r="B13" s="25"/>
       <c r="C13" s="20" t="s">
-        <v>279</v>
+        <v>286</v>
       </c>
       <c r="D13" s="20"/>
       <c r="E13" s="20"/>
@@ -17740,7 +17680,7 @@
       </c>
       <c r="B14" s="25"/>
       <c r="C14" s="20" t="s">
-        <v>280</v>
+        <v>287</v>
       </c>
       <c r="D14" s="20"/>
       <c r="E14" s="20"/>
@@ -17755,9 +17695,7 @@
         <v>14</v>
       </c>
       <c r="B15" s="25"/>
-      <c r="C15" s="20" t="s">
-        <v>74</v>
-      </c>
+      <c r="C15" s="20"/>
       <c r="D15" s="20"/>
       <c r="E15" s="20"/>
       <c r="F15" s="25" t="s">
@@ -17765,7 +17703,7 @@
       </c>
       <c r="G15" s="25"/>
       <c r="H15" s="20" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="I15" s="20"/>
       <c r="J15" s="38"/>
@@ -17776,7 +17714,7 @@
       </c>
       <c r="B16" s="25"/>
       <c r="C16" s="20" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D16" s="20"/>
       <c r="E16" s="20"/>
@@ -17785,7 +17723,7 @@
       </c>
       <c r="G16" s="25"/>
       <c r="H16" s="20" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="I16" s="20"/>
       <c r="J16" s="38"/>
@@ -17797,7 +17735,7 @@
       <c r="B17" s="25"/>
       <c r="C17" s="25"/>
       <c r="D17" s="20" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="E17" s="20"/>
       <c r="F17" s="25" t="s">
@@ -17805,7 +17743,7 @@
       </c>
       <c r="G17" s="25"/>
       <c r="H17" s="20" t="s">
-        <v>281</v>
+        <v>288</v>
       </c>
       <c r="I17" s="20"/>
       <c r="J17" s="38"/>
@@ -17901,7 +17839,7 @@
       </c>
       <c r="G24" s="37"/>
       <c r="H24" s="42" t="s">
-        <v>282</v>
+        <v>289</v>
       </c>
       <c r="I24" s="21"/>
       <c r="J24" s="39"/>
@@ -17944,7 +17882,7 @@
       </c>
       <c r="B28" s="25"/>
       <c r="C28" s="20" t="s">
-        <v>77</v>
+        <v>131</v>
       </c>
       <c r="D28" s="20"/>
       <c r="E28" s="20"/>
@@ -18247,7 +18185,7 @@
       </c>
       <c r="E7" s="18"/>
       <c r="F7" s="19">
-        <v>20154169</v>
+        <v>20154168</v>
       </c>
       <c r="G7" s="19"/>
     </row>
@@ -18271,7 +18209,7 @@
       </c>
       <c r="B10" s="23"/>
       <c r="C10" s="26" t="s">
-        <v>283</v>
+        <v>290</v>
       </c>
       <c r="D10" s="26"/>
       <c r="E10" s="26"/>
@@ -18287,7 +18225,7 @@
       </c>
       <c r="B11" s="25"/>
       <c r="C11" s="20" t="s">
-        <v>284</v>
+        <v>291</v>
       </c>
       <c r="D11" s="20"/>
       <c r="E11" s="20"/>
@@ -18303,7 +18241,7 @@
       </c>
       <c r="B12" s="25"/>
       <c r="C12" s="20" t="s">
-        <v>285</v>
+        <v>292</v>
       </c>
       <c r="D12" s="20"/>
       <c r="E12" s="20"/>
@@ -18319,7 +18257,7 @@
       </c>
       <c r="B13" s="25"/>
       <c r="C13" s="20" t="s">
-        <v>286</v>
+        <v>293</v>
       </c>
       <c r="D13" s="20"/>
       <c r="E13" s="20"/>
@@ -18335,7 +18273,7 @@
       </c>
       <c r="B14" s="25"/>
       <c r="C14" s="20" t="s">
-        <v>287</v>
+        <v>294</v>
       </c>
       <c r="D14" s="20"/>
       <c r="E14" s="20"/>
@@ -18350,9 +18288,7 @@
         <v>14</v>
       </c>
       <c r="B15" s="25"/>
-      <c r="C15" s="20" t="s">
-        <v>288</v>
-      </c>
+      <c r="C15" s="20"/>
       <c r="D15" s="20"/>
       <c r="E15" s="20"/>
       <c r="F15" s="25" t="s">
@@ -18360,7 +18296,7 @@
       </c>
       <c r="G15" s="25"/>
       <c r="H15" s="20" t="s">
-        <v>62</v>
+        <v>49</v>
       </c>
       <c r="I15" s="20"/>
       <c r="J15" s="38"/>
@@ -18371,7 +18307,7 @@
       </c>
       <c r="B16" s="25"/>
       <c r="C16" s="20" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D16" s="20"/>
       <c r="E16" s="20"/>
@@ -18380,7 +18316,7 @@
       </c>
       <c r="G16" s="25"/>
       <c r="H16" s="20" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="I16" s="20"/>
       <c r="J16" s="38"/>
@@ -18392,7 +18328,7 @@
       <c r="B17" s="25"/>
       <c r="C17" s="25"/>
       <c r="D17" s="20" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="E17" s="20"/>
       <c r="F17" s="25" t="s">
@@ -18400,7 +18336,7 @@
       </c>
       <c r="G17" s="25"/>
       <c r="H17" s="20" t="s">
-        <v>289</v>
+        <v>295</v>
       </c>
       <c r="I17" s="20"/>
       <c r="J17" s="38"/>
@@ -18496,7 +18432,7 @@
       </c>
       <c r="G24" s="37"/>
       <c r="H24" s="42" t="s">
-        <v>290</v>
+        <v>94</v>
       </c>
       <c r="I24" s="21"/>
       <c r="J24" s="39"/>
@@ -18523,7 +18459,7 @@
       <c r="C27" s="23"/>
       <c r="D27" s="23"/>
       <c r="E27" s="26">
-        <v>2013</v>
+        <v>2008</v>
       </c>
       <c r="F27" s="26"/>
       <c r="G27" s="23" t="s">
@@ -18539,7 +18475,7 @@
       </c>
       <c r="B28" s="25"/>
       <c r="C28" s="20" t="s">
-        <v>291</v>
+        <v>131</v>
       </c>
       <c r="D28" s="20"/>
       <c r="E28" s="20"/>
@@ -18842,7 +18778,7 @@
       </c>
       <c r="E7" s="18"/>
       <c r="F7" s="19">
-        <v>20154185</v>
+        <v>20154176</v>
       </c>
       <c r="G7" s="19"/>
     </row>
@@ -18866,7 +18802,7 @@
       </c>
       <c r="B10" s="23"/>
       <c r="C10" s="26" t="s">
-        <v>292</v>
+        <v>296</v>
       </c>
       <c r="D10" s="26"/>
       <c r="E10" s="26"/>
@@ -18882,7 +18818,7 @@
       </c>
       <c r="B11" s="25"/>
       <c r="C11" s="20" t="s">
-        <v>293</v>
+        <v>297</v>
       </c>
       <c r="D11" s="20"/>
       <c r="E11" s="20"/>
@@ -18898,7 +18834,7 @@
       </c>
       <c r="B12" s="25"/>
       <c r="C12" s="20" t="s">
-        <v>294</v>
+        <v>201</v>
       </c>
       <c r="D12" s="20"/>
       <c r="E12" s="20"/>
@@ -18914,7 +18850,7 @@
       </c>
       <c r="B13" s="25"/>
       <c r="C13" s="20" t="s">
-        <v>295</v>
+        <v>298</v>
       </c>
       <c r="D13" s="20"/>
       <c r="E13" s="20"/>
@@ -18930,7 +18866,7 @@
       </c>
       <c r="B14" s="25"/>
       <c r="C14" s="20" t="s">
-        <v>296</v>
+        <v>299</v>
       </c>
       <c r="D14" s="20"/>
       <c r="E14" s="20"/>
@@ -18945,9 +18881,7 @@
         <v>14</v>
       </c>
       <c r="B15" s="25"/>
-      <c r="C15" s="20" t="s">
-        <v>92</v>
-      </c>
+      <c r="C15" s="20"/>
       <c r="D15" s="20"/>
       <c r="E15" s="20"/>
       <c r="F15" s="25" t="s">
@@ -18955,7 +18889,7 @@
       </c>
       <c r="G15" s="25"/>
       <c r="H15" s="20" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="I15" s="20"/>
       <c r="J15" s="38"/>
@@ -18966,7 +18900,7 @@
       </c>
       <c r="B16" s="25"/>
       <c r="C16" s="20" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D16" s="20"/>
       <c r="E16" s="20"/>
@@ -18975,7 +18909,7 @@
       </c>
       <c r="G16" s="25"/>
       <c r="H16" s="20" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="I16" s="20"/>
       <c r="J16" s="38"/>
@@ -18987,7 +18921,7 @@
       <c r="B17" s="25"/>
       <c r="C17" s="25"/>
       <c r="D17" s="20" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="E17" s="20"/>
       <c r="F17" s="25" t="s">
@@ -18995,7 +18929,7 @@
       </c>
       <c r="G17" s="25"/>
       <c r="H17" s="20" t="s">
-        <v>297</v>
+        <v>300</v>
       </c>
       <c r="I17" s="20"/>
       <c r="J17" s="38"/>
@@ -19091,7 +19025,7 @@
       </c>
       <c r="G24" s="37"/>
       <c r="H24" s="42" t="s">
-        <v>298</v>
+        <v>301</v>
       </c>
       <c r="I24" s="21"/>
       <c r="J24" s="39"/>
@@ -19337,6 +19271,62 @@
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
   </sheetPr>
+  <dimension ref="A1:A1"/>
+  <sheetViews>
+    <sheetView tabSelected="0" workbookViewId="0" showGridLines="true" showRowColHeaders="1">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetData/>
+  <sheetProtection sheet="false" objects="false" scenarios="false" formatCells="false" formatColumns="false" formatRows="false" insertColumns="false" insertRows="false" insertHyperlinks="false" deleteColumns="false" deleteRows="false" selectLockedCells="false" sort="false" autoFilter="false" pivotTables="false" selectUnlockedCells="false"/>
+  <printOptions gridLines="false" gridLinesSet="true"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="1" orientation="default" scale="100" fitToHeight="1" fitToWidth="1"/>
+  <headerFooter differentOddEven="false" differentFirst="false" scaleWithDoc="true" alignWithMargins="true">
+    <oddHeader/>
+    <oddFooter/>
+    <evenHeader/>
+    <evenFooter/>
+    <firstHeader/>
+    <firstFooter/>
+  </headerFooter>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet38.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xml:space="preserve">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+  </sheetPr>
+  <dimension ref="A1:A1"/>
+  <sheetViews>
+    <sheetView tabSelected="0" workbookViewId="0" showGridLines="true" showRowColHeaders="1">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetData/>
+  <sheetProtection sheet="false" objects="false" scenarios="false" formatCells="false" formatColumns="false" formatRows="false" insertColumns="false" insertRows="false" insertHyperlinks="false" deleteColumns="false" deleteRows="false" selectLockedCells="false" sort="false" autoFilter="false" pivotTables="false" selectUnlockedCells="false"/>
+  <printOptions gridLines="false" gridLinesSet="true"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="1" orientation="default" scale="100" fitToHeight="1" fitToWidth="1"/>
+  <headerFooter differentOddEven="false" differentFirst="false" scaleWithDoc="true" alignWithMargins="true">
+    <oddHeader/>
+    <oddFooter/>
+    <evenHeader/>
+    <evenFooter/>
+    <firstHeader/>
+    <firstFooter/>
+  </headerFooter>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xml:space="preserve">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+  </sheetPr>
   <dimension ref="A1:J37"/>
   <sheetViews>
     <sheetView tabSelected="0" workbookViewId="0" zoomScale="96" view="pageBreakPreview" showGridLines="false" showRowColHeaders="1">
@@ -19437,7 +19427,7 @@
       </c>
       <c r="E7" s="18"/>
       <c r="F7" s="19">
-        <v>20154163</v>
+        <v>20154159</v>
       </c>
       <c r="G7" s="19"/>
     </row>
@@ -19461,7 +19451,7 @@
       </c>
       <c r="B10" s="23"/>
       <c r="C10" s="26" t="s">
-        <v>299</v>
+        <v>65</v>
       </c>
       <c r="D10" s="26"/>
       <c r="E10" s="26"/>
@@ -19477,7 +19467,7 @@
       </c>
       <c r="B11" s="25"/>
       <c r="C11" s="20" t="s">
-        <v>300</v>
+        <v>66</v>
       </c>
       <c r="D11" s="20"/>
       <c r="E11" s="20"/>
@@ -19493,7 +19483,7 @@
       </c>
       <c r="B12" s="25"/>
       <c r="C12" s="20" t="s">
-        <v>301</v>
+        <v>67</v>
       </c>
       <c r="D12" s="20"/>
       <c r="E12" s="20"/>
@@ -19509,7 +19499,7 @@
       </c>
       <c r="B13" s="25"/>
       <c r="C13" s="20" t="s">
-        <v>302</v>
+        <v>68</v>
       </c>
       <c r="D13" s="20"/>
       <c r="E13" s="20"/>
@@ -19525,7 +19515,7 @@
       </c>
       <c r="B14" s="25"/>
       <c r="C14" s="20" t="s">
-        <v>303</v>
+        <v>69</v>
       </c>
       <c r="D14" s="20"/>
       <c r="E14" s="20"/>
@@ -19540,9 +19530,7 @@
         <v>14</v>
       </c>
       <c r="B15" s="25"/>
-      <c r="C15" s="20" t="s">
-        <v>264</v>
-      </c>
+      <c r="C15" s="20"/>
       <c r="D15" s="20"/>
       <c r="E15" s="20"/>
       <c r="F15" s="25" t="s">
@@ -19550,7 +19538,7 @@
       </c>
       <c r="G15" s="25"/>
       <c r="H15" s="20" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="I15" s="20"/>
       <c r="J15" s="38"/>
@@ -19561,7 +19549,7 @@
       </c>
       <c r="B16" s="25"/>
       <c r="C16" s="20" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D16" s="20"/>
       <c r="E16" s="20"/>
@@ -19570,7 +19558,7 @@
       </c>
       <c r="G16" s="25"/>
       <c r="H16" s="20" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="I16" s="20"/>
       <c r="J16" s="38"/>
@@ -19582,7 +19570,7 @@
       <c r="B17" s="25"/>
       <c r="C17" s="25"/>
       <c r="D17" s="20" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="E17" s="20"/>
       <c r="F17" s="25" t="s">
@@ -19590,7 +19578,7 @@
       </c>
       <c r="G17" s="25"/>
       <c r="H17" s="20" t="s">
-        <v>304</v>
+        <v>70</v>
       </c>
       <c r="I17" s="20"/>
       <c r="J17" s="38"/>
@@ -19686,7 +19674,7 @@
       </c>
       <c r="G24" s="37"/>
       <c r="H24" s="42" t="s">
-        <v>305</v>
+        <v>71</v>
       </c>
       <c r="I24" s="21"/>
       <c r="J24" s="39"/>
@@ -19729,7 +19717,7 @@
       </c>
       <c r="B28" s="25"/>
       <c r="C28" s="20" t="s">
-        <v>140</v>
+        <v>72</v>
       </c>
       <c r="D28" s="20"/>
       <c r="E28" s="20"/>
@@ -19927,2394 +19915,6 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet38.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xml:space="preserve">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-  </sheetPr>
-  <dimension ref="A1:J37"/>
-  <sheetViews>
-    <sheetView tabSelected="0" workbookViewId="0" zoomScale="96" view="pageBreakPreview" showGridLines="false" showRowColHeaders="1">
-      <selection activeCell="H24" sqref="H24"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" outlineLevelRow="0" outlineLevelCol="0"/>
-  <cols>
-    <col min="1" max="1" width="11.6640625" customWidth="true" style="0"/>
-    <col min="2" max="2" width="7.77734375" customWidth="true" style="0"/>
-    <col min="3" max="3" width="8.33203125" customWidth="true" style="0"/>
-    <col min="4" max="4" width="10.5546875" customWidth="true" style="0"/>
-    <col min="5" max="5" width="10.6640625" customWidth="true" style="0"/>
-    <col min="6" max="6" width="10.109375" customWidth="true" style="0"/>
-    <col min="8" max="8" width="6.77734375" customWidth="true" style="0"/>
-    <col min="9" max="9" width="8" customWidth="true" style="0"/>
-    <col min="10" max="10" width="8.77734375" customWidth="true" style="0"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:10" customHeight="1" ht="23.4">
-      <c r="A1" s="15" t="s">
-        <v>41</v>
-      </c>
-      <c r="B1" s="15"/>
-      <c r="C1" s="15"/>
-      <c r="D1" s="15"/>
-      <c r="E1" s="15"/>
-      <c r="F1" s="15"/>
-      <c r="G1" s="15"/>
-      <c r="H1" s="15"/>
-      <c r="I1" s="15"/>
-      <c r="J1" s="15"/>
-    </row>
-    <row r="2" spans="1:10" customHeight="1" ht="23.4">
-      <c r="A2" s="15" t="s">
-        <v>1</v>
-      </c>
-      <c r="B2" s="15"/>
-      <c r="C2" s="15"/>
-      <c r="D2" s="15"/>
-      <c r="E2" s="15"/>
-      <c r="F2" s="15"/>
-      <c r="G2" s="15"/>
-      <c r="H2" s="15"/>
-      <c r="I2" s="15"/>
-      <c r="J2" s="15"/>
-    </row>
-    <row r="3" spans="1:10" customHeight="1" ht="18">
-      <c r="A3" s="16" t="s">
-        <v>42</v>
-      </c>
-      <c r="B3" s="16"/>
-      <c r="C3" s="16"/>
-      <c r="D3" s="16"/>
-      <c r="E3" s="16"/>
-      <c r="F3" s="16"/>
-      <c r="G3" s="16"/>
-      <c r="H3" s="16"/>
-      <c r="I3" s="16"/>
-      <c r="J3" s="16"/>
-    </row>
-    <row r="4" spans="1:10" customHeight="1" ht="15.6">
-      <c r="A4" s="17" t="s">
-        <v>43</v>
-      </c>
-      <c r="B4" s="17"/>
-      <c r="C4" s="17"/>
-      <c r="D4" s="17"/>
-      <c r="E4" s="17"/>
-      <c r="F4" s="17"/>
-      <c r="G4" s="17"/>
-      <c r="H4" s="17"/>
-      <c r="I4" s="17"/>
-      <c r="J4" s="17"/>
-    </row>
-    <row r="5" spans="1:10" customHeight="1" ht="15.6">
-      <c r="A5" s="1"/>
-      <c r="B5" s="1"/>
-      <c r="C5" s="1"/>
-      <c r="D5" s="1"/>
-      <c r="E5" s="1"/>
-      <c r="F5" s="1"/>
-      <c r="G5" s="1"/>
-      <c r="H5" s="1"/>
-      <c r="I5" s="1"/>
-      <c r="J5" s="1"/>
-    </row>
-    <row r="7" spans="1:10" customHeight="1" ht="15.6">
-      <c r="A7" s="12" t="s">
-        <v>4</v>
-      </c>
-      <c r="B7" s="19">
-        <v>2015</v>
-      </c>
-      <c r="C7" s="19"/>
-      <c r="D7" s="18" t="s">
-        <v>5</v>
-      </c>
-      <c r="E7" s="18"/>
-      <c r="F7" s="19">
-        <v>20154168</v>
-      </c>
-      <c r="G7" s="19"/>
-    </row>
-    <row r="9" spans="1:10" customHeight="1" ht="18.6">
-      <c r="A9" s="14" t="s">
-        <v>6</v>
-      </c>
-      <c r="B9" s="14"/>
-      <c r="C9" s="14"/>
-      <c r="D9" s="14"/>
-      <c r="E9" s="14"/>
-      <c r="F9" s="14"/>
-      <c r="G9" s="14"/>
-      <c r="H9" s="14"/>
-      <c r="I9" s="14"/>
-      <c r="J9" s="14"/>
-    </row>
-    <row r="10" spans="1:10" customHeight="1" ht="15.6">
-      <c r="A10" s="22" t="s">
-        <v>7</v>
-      </c>
-      <c r="B10" s="23"/>
-      <c r="C10" s="26" t="s">
-        <v>306</v>
-      </c>
-      <c r="D10" s="26"/>
-      <c r="E10" s="26"/>
-      <c r="F10" s="8"/>
-      <c r="G10" s="8"/>
-      <c r="H10" s="8"/>
-      <c r="I10" s="8"/>
-      <c r="J10" s="9"/>
-    </row>
-    <row r="11" spans="1:10" customHeight="1" ht="15.6">
-      <c r="A11" s="24" t="s">
-        <v>9</v>
-      </c>
-      <c r="B11" s="25"/>
-      <c r="C11" s="20" t="s">
-        <v>307</v>
-      </c>
-      <c r="D11" s="20"/>
-      <c r="E11" s="20"/>
-      <c r="F11" s="20"/>
-      <c r="G11" s="20"/>
-      <c r="H11" s="10"/>
-      <c r="I11" s="10"/>
-      <c r="J11" s="11"/>
-    </row>
-    <row r="12" spans="1:10" customHeight="1" ht="15.6">
-      <c r="A12" s="24" t="s">
-        <v>11</v>
-      </c>
-      <c r="B12" s="25"/>
-      <c r="C12" s="20" t="s">
-        <v>308</v>
-      </c>
-      <c r="D12" s="20"/>
-      <c r="E12" s="20"/>
-      <c r="F12" s="10"/>
-      <c r="G12" s="10"/>
-      <c r="H12" s="10"/>
-      <c r="I12" s="10"/>
-      <c r="J12" s="11"/>
-    </row>
-    <row r="13" spans="1:10" customHeight="1" ht="15.6">
-      <c r="A13" s="24" t="s">
-        <v>12</v>
-      </c>
-      <c r="B13" s="25"/>
-      <c r="C13" s="20" t="s">
-        <v>309</v>
-      </c>
-      <c r="D13" s="20"/>
-      <c r="E13" s="20"/>
-      <c r="F13" s="20"/>
-      <c r="G13" s="20"/>
-      <c r="H13" s="10"/>
-      <c r="I13" s="10"/>
-      <c r="J13" s="11"/>
-    </row>
-    <row r="14" spans="1:10" customHeight="1" ht="15.6">
-      <c r="A14" s="24" t="s">
-        <v>13</v>
-      </c>
-      <c r="B14" s="25"/>
-      <c r="C14" s="20" t="s">
-        <v>310</v>
-      </c>
-      <c r="D14" s="20"/>
-      <c r="E14" s="20"/>
-      <c r="F14" s="20"/>
-      <c r="G14" s="20"/>
-      <c r="H14" s="10"/>
-      <c r="I14" s="10"/>
-      <c r="J14" s="11"/>
-    </row>
-    <row r="15" spans="1:10" customHeight="1" ht="15.6">
-      <c r="A15" s="24" t="s">
-        <v>14</v>
-      </c>
-      <c r="B15" s="25"/>
-      <c r="C15" s="20" t="s">
-        <v>49</v>
-      </c>
-      <c r="D15" s="20"/>
-      <c r="E15" s="20"/>
-      <c r="F15" s="25" t="s">
-        <v>15</v>
-      </c>
-      <c r="G15" s="25"/>
-      <c r="H15" s="20" t="s">
-        <v>50</v>
-      </c>
-      <c r="I15" s="20"/>
-      <c r="J15" s="38"/>
-    </row>
-    <row r="16" spans="1:10" customHeight="1" ht="15.6">
-      <c r="A16" s="24" t="s">
-        <v>16</v>
-      </c>
-      <c r="B16" s="25"/>
-      <c r="C16" s="20" t="s">
-        <v>51</v>
-      </c>
-      <c r="D16" s="20"/>
-      <c r="E16" s="20"/>
-      <c r="F16" s="25" t="s">
-        <v>17</v>
-      </c>
-      <c r="G16" s="25"/>
-      <c r="H16" s="20" t="s">
-        <v>52</v>
-      </c>
-      <c r="I16" s="20"/>
-      <c r="J16" s="38"/>
-    </row>
-    <row r="17" spans="1:10" customHeight="1" ht="15.6">
-      <c r="A17" s="24" t="s">
-        <v>18</v>
-      </c>
-      <c r="B17" s="25"/>
-      <c r="C17" s="25"/>
-      <c r="D17" s="20" t="s">
-        <v>53</v>
-      </c>
-      <c r="E17" s="20"/>
-      <c r="F17" s="25" t="s">
-        <v>19</v>
-      </c>
-      <c r="G17" s="25"/>
-      <c r="H17" s="20" t="s">
-        <v>311</v>
-      </c>
-      <c r="I17" s="20"/>
-      <c r="J17" s="38"/>
-    </row>
-    <row r="18" spans="1:10" customHeight="1" ht="16.2">
-      <c r="A18" s="40" t="s">
-        <v>20</v>
-      </c>
-      <c r="B18" s="37"/>
-      <c r="C18" s="21"/>
-      <c r="D18" s="21"/>
-      <c r="E18" s="21"/>
-      <c r="F18" s="37" t="s">
-        <v>21</v>
-      </c>
-      <c r="G18" s="37"/>
-      <c r="H18" s="21"/>
-      <c r="I18" s="21"/>
-      <c r="J18" s="39"/>
-    </row>
-    <row r="20" spans="1:10" customHeight="1" ht="18.6">
-      <c r="A20" s="36" t="s">
-        <v>22</v>
-      </c>
-      <c r="B20" s="36"/>
-      <c r="C20" s="36"/>
-      <c r="D20" s="36"/>
-      <c r="E20" s="36"/>
-      <c r="F20" s="36"/>
-      <c r="G20" s="36"/>
-      <c r="H20" s="36"/>
-      <c r="I20" s="36"/>
-      <c r="J20" s="36"/>
-    </row>
-    <row r="21" spans="1:10" customHeight="1" ht="15.6">
-      <c r="A21" s="22" t="s">
-        <v>23</v>
-      </c>
-      <c r="B21" s="23"/>
-      <c r="C21" s="26"/>
-      <c r="D21" s="26"/>
-      <c r="E21" s="26"/>
-      <c r="F21" s="23" t="s">
-        <v>24</v>
-      </c>
-      <c r="G21" s="23"/>
-      <c r="H21" s="26"/>
-      <c r="I21" s="26"/>
-      <c r="J21" s="41"/>
-    </row>
-    <row r="22" spans="1:10" customHeight="1" ht="15.6">
-      <c r="A22" s="24" t="s">
-        <v>25</v>
-      </c>
-      <c r="B22" s="25"/>
-      <c r="C22" s="20"/>
-      <c r="D22" s="20"/>
-      <c r="E22" s="20"/>
-      <c r="F22" s="25" t="s">
-        <v>26</v>
-      </c>
-      <c r="G22" s="25"/>
-      <c r="H22" s="20"/>
-      <c r="I22" s="20"/>
-      <c r="J22" s="38"/>
-    </row>
-    <row r="23" spans="1:10" customHeight="1" ht="15.6">
-      <c r="A23" s="24" t="s">
-        <v>27</v>
-      </c>
-      <c r="B23" s="25"/>
-      <c r="C23" s="20"/>
-      <c r="D23" s="20"/>
-      <c r="E23" s="20"/>
-      <c r="F23" s="25" t="s">
-        <v>28</v>
-      </c>
-      <c r="G23" s="25"/>
-      <c r="H23" s="20"/>
-      <c r="I23" s="20"/>
-      <c r="J23" s="38"/>
-    </row>
-    <row r="24" spans="1:10" customHeight="1" ht="16.2">
-      <c r="A24" s="40" t="s">
-        <v>29</v>
-      </c>
-      <c r="B24" s="37"/>
-      <c r="C24" s="21"/>
-      <c r="D24" s="21"/>
-      <c r="E24" s="21"/>
-      <c r="F24" s="37" t="s">
-        <v>30</v>
-      </c>
-      <c r="G24" s="37"/>
-      <c r="H24" s="42" t="s">
-        <v>101</v>
-      </c>
-      <c r="I24" s="21"/>
-      <c r="J24" s="39"/>
-    </row>
-    <row r="26" spans="1:10" customHeight="1" ht="18.6">
-      <c r="A26" s="36" t="s">
-        <v>31</v>
-      </c>
-      <c r="B26" s="36"/>
-      <c r="C26" s="36"/>
-      <c r="D26" s="36"/>
-      <c r="E26" s="36"/>
-      <c r="F26" s="36"/>
-      <c r="G26" s="36"/>
-      <c r="H26" s="36"/>
-      <c r="I26" s="36"/>
-      <c r="J26" s="36"/>
-    </row>
-    <row r="27" spans="1:10" customHeight="1" ht="15.6">
-      <c r="A27" s="22" t="s">
-        <v>32</v>
-      </c>
-      <c r="B27" s="23"/>
-      <c r="C27" s="23"/>
-      <c r="D27" s="23"/>
-      <c r="E27" s="26">
-        <v>2008</v>
-      </c>
-      <c r="F27" s="26"/>
-      <c r="G27" s="23" t="s">
-        <v>33</v>
-      </c>
-      <c r="H27" s="23"/>
-      <c r="I27" s="26"/>
-      <c r="J27" s="41"/>
-    </row>
-    <row r="28" spans="1:10" customHeight="1" ht="15.6">
-      <c r="A28" s="24" t="s">
-        <v>34</v>
-      </c>
-      <c r="B28" s="25"/>
-      <c r="C28" s="20" t="s">
-        <v>140</v>
-      </c>
-      <c r="D28" s="20"/>
-      <c r="E28" s="20"/>
-      <c r="F28" s="20"/>
-      <c r="G28" s="20"/>
-      <c r="H28" s="20"/>
-      <c r="I28" s="20"/>
-      <c r="J28" s="38"/>
-    </row>
-    <row r="29" spans="1:10" customHeight="1" ht="16.2">
-      <c r="A29" s="13" t="s">
-        <v>35</v>
-      </c>
-      <c r="B29" s="21"/>
-      <c r="C29" s="21"/>
-      <c r="D29" s="21"/>
-      <c r="E29" s="21"/>
-      <c r="F29" s="21"/>
-      <c r="G29" s="21"/>
-      <c r="H29" s="21"/>
-      <c r="I29" s="21"/>
-      <c r="J29" s="39"/>
-    </row>
-    <row r="31" spans="1:10" customHeight="1" ht="18.6">
-      <c r="A31" s="36" t="s">
-        <v>36</v>
-      </c>
-      <c r="B31" s="36"/>
-      <c r="C31" s="36"/>
-      <c r="D31" s="36"/>
-      <c r="E31" s="36"/>
-      <c r="F31" s="36"/>
-      <c r="G31" s="36"/>
-      <c r="H31" s="36"/>
-      <c r="I31" s="36"/>
-      <c r="J31" s="36"/>
-    </row>
-    <row r="32" spans="1:10" customHeight="1" ht="15.6">
-      <c r="A32" s="27" t="s">
-        <v>37</v>
-      </c>
-      <c r="B32" s="28"/>
-      <c r="C32" s="28"/>
-      <c r="D32" s="28"/>
-      <c r="E32" s="28"/>
-      <c r="F32" s="28"/>
-      <c r="G32" s="28"/>
-      <c r="H32" s="28"/>
-      <c r="I32" s="28"/>
-      <c r="J32" s="29"/>
-    </row>
-    <row r="33" spans="1:10">
-      <c r="A33" s="30"/>
-      <c r="B33" s="31"/>
-      <c r="C33" s="31"/>
-      <c r="D33" s="31"/>
-      <c r="E33" s="31"/>
-      <c r="F33" s="31"/>
-      <c r="G33" s="31"/>
-      <c r="H33" s="31"/>
-      <c r="I33" s="31"/>
-      <c r="J33" s="32"/>
-    </row>
-    <row r="34" spans="1:10">
-      <c r="A34" s="33" t="s">
-        <v>39</v>
-      </c>
-      <c r="B34" s="34"/>
-      <c r="C34" s="34"/>
-      <c r="D34" s="34"/>
-      <c r="E34" s="34"/>
-      <c r="F34" s="34"/>
-      <c r="G34" s="34"/>
-      <c r="H34" s="34"/>
-      <c r="I34" s="34"/>
-      <c r="J34" s="35"/>
-    </row>
-    <row r="35" spans="1:10">
-      <c r="A35" s="2"/>
-      <c r="B35" s="3"/>
-      <c r="C35" s="3"/>
-      <c r="D35" s="3"/>
-      <c r="E35" s="3"/>
-      <c r="F35" s="3"/>
-      <c r="G35" s="3"/>
-      <c r="H35" s="3"/>
-      <c r="I35" s="3"/>
-      <c r="J35" s="4"/>
-    </row>
-    <row r="36" spans="1:10">
-      <c r="A36" s="30" t="s">
-        <v>40</v>
-      </c>
-      <c r="B36" s="31"/>
-      <c r="C36" s="31"/>
-      <c r="D36" s="31"/>
-      <c r="E36" s="31"/>
-      <c r="F36" s="31"/>
-      <c r="G36" s="31"/>
-      <c r="H36" s="31"/>
-      <c r="I36" s="31"/>
-      <c r="J36" s="32"/>
-    </row>
-    <row r="37" spans="1:10" customHeight="1" ht="15">
-      <c r="A37" s="5"/>
-      <c r="B37" s="6"/>
-      <c r="C37" s="6"/>
-      <c r="D37" s="6"/>
-      <c r="E37" s="6"/>
-      <c r="F37" s="6"/>
-      <c r="G37" s="6"/>
-      <c r="H37" s="6"/>
-      <c r="I37" s="6"/>
-      <c r="J37" s="7"/>
-    </row>
-  </sheetData>
-  <sheetProtection password="8053" sheet="true" objects="true" scenarios="false" formatCells="true" formatColumns="false" formatRows="false" insertColumns="false" insertRows="true" insertHyperlinks="false" deleteColumns="false" deleteRows="false" selectLockedCells="false" sort="true" autoFilter="false" pivotTables="false" selectUnlockedCells="false"/>
-  <mergeCells>
-    <mergeCell ref="A36:J36"/>
-    <mergeCell ref="A27:D27"/>
-    <mergeCell ref="A21:B21"/>
-    <mergeCell ref="A22:B22"/>
-    <mergeCell ref="A23:B23"/>
-    <mergeCell ref="A24:B24"/>
-    <mergeCell ref="F21:G21"/>
-    <mergeCell ref="F22:G22"/>
-    <mergeCell ref="F23:G23"/>
-    <mergeCell ref="F24:G24"/>
-    <mergeCell ref="C21:E21"/>
-    <mergeCell ref="C22:E22"/>
-    <mergeCell ref="C23:E23"/>
-    <mergeCell ref="C24:E24"/>
-    <mergeCell ref="H21:J21"/>
-    <mergeCell ref="H22:J22"/>
-    <mergeCell ref="A26:J26"/>
-    <mergeCell ref="A31:J31"/>
-    <mergeCell ref="E27:F27"/>
-    <mergeCell ref="A28:B28"/>
-    <mergeCell ref="C28:J28"/>
-    <mergeCell ref="B29:J29"/>
-    <mergeCell ref="G27:H27"/>
-    <mergeCell ref="I27:J27"/>
-    <mergeCell ref="H23:J23"/>
-    <mergeCell ref="H24:J24"/>
-    <mergeCell ref="A32:J32"/>
-    <mergeCell ref="A33:J33"/>
-    <mergeCell ref="A34:J34"/>
-    <mergeCell ref="A20:J20"/>
-    <mergeCell ref="F15:G15"/>
-    <mergeCell ref="F16:G16"/>
-    <mergeCell ref="F17:G17"/>
-    <mergeCell ref="F18:G18"/>
-    <mergeCell ref="H15:J15"/>
-    <mergeCell ref="H16:J16"/>
-    <mergeCell ref="H17:J17"/>
-    <mergeCell ref="H18:J18"/>
-    <mergeCell ref="A15:B15"/>
-    <mergeCell ref="A16:B16"/>
-    <mergeCell ref="A17:C17"/>
-    <mergeCell ref="A18:B18"/>
-    <mergeCell ref="C15:E15"/>
-    <mergeCell ref="C16:E16"/>
-    <mergeCell ref="D17:E17"/>
-    <mergeCell ref="C18:E18"/>
-    <mergeCell ref="A10:B10"/>
-    <mergeCell ref="A11:B11"/>
-    <mergeCell ref="A12:B12"/>
-    <mergeCell ref="A13:B13"/>
-    <mergeCell ref="A14:B14"/>
-    <mergeCell ref="C10:E10"/>
-    <mergeCell ref="C11:G11"/>
-    <mergeCell ref="C12:E12"/>
-    <mergeCell ref="C13:G13"/>
-    <mergeCell ref="C14:G14"/>
-    <mergeCell ref="A9:J9"/>
-    <mergeCell ref="A1:J1"/>
-    <mergeCell ref="A2:J2"/>
-    <mergeCell ref="A3:J3"/>
-    <mergeCell ref="A4:J4"/>
-    <mergeCell ref="D7:E7"/>
-    <mergeCell ref="F7:G7"/>
-    <mergeCell ref="B7:C7"/>
-  </mergeCells>
-  <printOptions gridLines="false" gridLinesSet="true"/>
-  <pageMargins left="0.475" right="0.5583333333333333" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" scale="100" fitToHeight="1" fitToWidth="1"/>
-  <headerFooter differentOddEven="false" differentFirst="false" scaleWithDoc="true" alignWithMargins="true">
-    <oddHeader/>
-    <oddFooter/>
-    <evenHeader/>
-    <evenFooter/>
-    <firstHeader/>
-    <firstFooter/>
-  </headerFooter>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet39.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xml:space="preserve">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-  </sheetPr>
-  <dimension ref="A1:J37"/>
-  <sheetViews>
-    <sheetView tabSelected="0" workbookViewId="0" zoomScale="96" view="pageBreakPreview" showGridLines="false" showRowColHeaders="1">
-      <selection activeCell="H24" sqref="H24"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" outlineLevelRow="0" outlineLevelCol="0"/>
-  <cols>
-    <col min="1" max="1" width="11.6640625" customWidth="true" style="0"/>
-    <col min="2" max="2" width="7.77734375" customWidth="true" style="0"/>
-    <col min="3" max="3" width="8.33203125" customWidth="true" style="0"/>
-    <col min="4" max="4" width="10.5546875" customWidth="true" style="0"/>
-    <col min="5" max="5" width="10.6640625" customWidth="true" style="0"/>
-    <col min="6" max="6" width="10.109375" customWidth="true" style="0"/>
-    <col min="8" max="8" width="6.77734375" customWidth="true" style="0"/>
-    <col min="9" max="9" width="8" customWidth="true" style="0"/>
-    <col min="10" max="10" width="8.77734375" customWidth="true" style="0"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:10" customHeight="1" ht="23.4">
-      <c r="A1" s="15" t="s">
-        <v>41</v>
-      </c>
-      <c r="B1" s="15"/>
-      <c r="C1" s="15"/>
-      <c r="D1" s="15"/>
-      <c r="E1" s="15"/>
-      <c r="F1" s="15"/>
-      <c r="G1" s="15"/>
-      <c r="H1" s="15"/>
-      <c r="I1" s="15"/>
-      <c r="J1" s="15"/>
-    </row>
-    <row r="2" spans="1:10" customHeight="1" ht="23.4">
-      <c r="A2" s="15" t="s">
-        <v>1</v>
-      </c>
-      <c r="B2" s="15"/>
-      <c r="C2" s="15"/>
-      <c r="D2" s="15"/>
-      <c r="E2" s="15"/>
-      <c r="F2" s="15"/>
-      <c r="G2" s="15"/>
-      <c r="H2" s="15"/>
-      <c r="I2" s="15"/>
-      <c r="J2" s="15"/>
-    </row>
-    <row r="3" spans="1:10" customHeight="1" ht="18">
-      <c r="A3" s="16" t="s">
-        <v>42</v>
-      </c>
-      <c r="B3" s="16"/>
-      <c r="C3" s="16"/>
-      <c r="D3" s="16"/>
-      <c r="E3" s="16"/>
-      <c r="F3" s="16"/>
-      <c r="G3" s="16"/>
-      <c r="H3" s="16"/>
-      <c r="I3" s="16"/>
-      <c r="J3" s="16"/>
-    </row>
-    <row r="4" spans="1:10" customHeight="1" ht="15.6">
-      <c r="A4" s="17" t="s">
-        <v>43</v>
-      </c>
-      <c r="B4" s="17"/>
-      <c r="C4" s="17"/>
-      <c r="D4" s="17"/>
-      <c r="E4" s="17"/>
-      <c r="F4" s="17"/>
-      <c r="G4" s="17"/>
-      <c r="H4" s="17"/>
-      <c r="I4" s="17"/>
-      <c r="J4" s="17"/>
-    </row>
-    <row r="5" spans="1:10" customHeight="1" ht="15.6">
-      <c r="A5" s="1"/>
-      <c r="B5" s="1"/>
-      <c r="C5" s="1"/>
-      <c r="D5" s="1"/>
-      <c r="E5" s="1"/>
-      <c r="F5" s="1"/>
-      <c r="G5" s="1"/>
-      <c r="H5" s="1"/>
-      <c r="I5" s="1"/>
-      <c r="J5" s="1"/>
-    </row>
-    <row r="7" spans="1:10" customHeight="1" ht="15.6">
-      <c r="A7" s="12" t="s">
-        <v>4</v>
-      </c>
-      <c r="B7" s="19">
-        <v>2015</v>
-      </c>
-      <c r="C7" s="19"/>
-      <c r="D7" s="18" t="s">
-        <v>5</v>
-      </c>
-      <c r="E7" s="18"/>
-      <c r="F7" s="19">
-        <v>20154176</v>
-      </c>
-      <c r="G7" s="19"/>
-    </row>
-    <row r="9" spans="1:10" customHeight="1" ht="18.6">
-      <c r="A9" s="14" t="s">
-        <v>6</v>
-      </c>
-      <c r="B9" s="14"/>
-      <c r="C9" s="14"/>
-      <c r="D9" s="14"/>
-      <c r="E9" s="14"/>
-      <c r="F9" s="14"/>
-      <c r="G9" s="14"/>
-      <c r="H9" s="14"/>
-      <c r="I9" s="14"/>
-      <c r="J9" s="14"/>
-    </row>
-    <row r="10" spans="1:10" customHeight="1" ht="15.6">
-      <c r="A10" s="22" t="s">
-        <v>7</v>
-      </c>
-      <c r="B10" s="23"/>
-      <c r="C10" s="26" t="s">
-        <v>312</v>
-      </c>
-      <c r="D10" s="26"/>
-      <c r="E10" s="26"/>
-      <c r="F10" s="8"/>
-      <c r="G10" s="8"/>
-      <c r="H10" s="8"/>
-      <c r="I10" s="8"/>
-      <c r="J10" s="9"/>
-    </row>
-    <row r="11" spans="1:10" customHeight="1" ht="15.6">
-      <c r="A11" s="24" t="s">
-        <v>9</v>
-      </c>
-      <c r="B11" s="25"/>
-      <c r="C11" s="20" t="s">
-        <v>313</v>
-      </c>
-      <c r="D11" s="20"/>
-      <c r="E11" s="20"/>
-      <c r="F11" s="20"/>
-      <c r="G11" s="20"/>
-      <c r="H11" s="10"/>
-      <c r="I11" s="10"/>
-      <c r="J11" s="11"/>
-    </row>
-    <row r="12" spans="1:10" customHeight="1" ht="15.6">
-      <c r="A12" s="24" t="s">
-        <v>11</v>
-      </c>
-      <c r="B12" s="25"/>
-      <c r="C12" s="20" t="s">
-        <v>215</v>
-      </c>
-      <c r="D12" s="20"/>
-      <c r="E12" s="20"/>
-      <c r="F12" s="10"/>
-      <c r="G12" s="10"/>
-      <c r="H12" s="10"/>
-      <c r="I12" s="10"/>
-      <c r="J12" s="11"/>
-    </row>
-    <row r="13" spans="1:10" customHeight="1" ht="15.6">
-      <c r="A13" s="24" t="s">
-        <v>12</v>
-      </c>
-      <c r="B13" s="25"/>
-      <c r="C13" s="20" t="s">
-        <v>314</v>
-      </c>
-      <c r="D13" s="20"/>
-      <c r="E13" s="20"/>
-      <c r="F13" s="20"/>
-      <c r="G13" s="20"/>
-      <c r="H13" s="10"/>
-      <c r="I13" s="10"/>
-      <c r="J13" s="11"/>
-    </row>
-    <row r="14" spans="1:10" customHeight="1" ht="15.6">
-      <c r="A14" s="24" t="s">
-        <v>13</v>
-      </c>
-      <c r="B14" s="25"/>
-      <c r="C14" s="20" t="s">
-        <v>315</v>
-      </c>
-      <c r="D14" s="20"/>
-      <c r="E14" s="20"/>
-      <c r="F14" s="20"/>
-      <c r="G14" s="20"/>
-      <c r="H14" s="10"/>
-      <c r="I14" s="10"/>
-      <c r="J14" s="11"/>
-    </row>
-    <row r="15" spans="1:10" customHeight="1" ht="15.6">
-      <c r="A15" s="24" t="s">
-        <v>14</v>
-      </c>
-      <c r="B15" s="25"/>
-      <c r="C15" s="20" t="s">
-        <v>49</v>
-      </c>
-      <c r="D15" s="20"/>
-      <c r="E15" s="20"/>
-      <c r="F15" s="25" t="s">
-        <v>15</v>
-      </c>
-      <c r="G15" s="25"/>
-      <c r="H15" s="20" t="s">
-        <v>62</v>
-      </c>
-      <c r="I15" s="20"/>
-      <c r="J15" s="38"/>
-    </row>
-    <row r="16" spans="1:10" customHeight="1" ht="15.6">
-      <c r="A16" s="24" t="s">
-        <v>16</v>
-      </c>
-      <c r="B16" s="25"/>
-      <c r="C16" s="20" t="s">
-        <v>51</v>
-      </c>
-      <c r="D16" s="20"/>
-      <c r="E16" s="20"/>
-      <c r="F16" s="25" t="s">
-        <v>17</v>
-      </c>
-      <c r="G16" s="25"/>
-      <c r="H16" s="20" t="s">
-        <v>52</v>
-      </c>
-      <c r="I16" s="20"/>
-      <c r="J16" s="38"/>
-    </row>
-    <row r="17" spans="1:10" customHeight="1" ht="15.6">
-      <c r="A17" s="24" t="s">
-        <v>18</v>
-      </c>
-      <c r="B17" s="25"/>
-      <c r="C17" s="25"/>
-      <c r="D17" s="20" t="s">
-        <v>53</v>
-      </c>
-      <c r="E17" s="20"/>
-      <c r="F17" s="25" t="s">
-        <v>19</v>
-      </c>
-      <c r="G17" s="25"/>
-      <c r="H17" s="20" t="s">
-        <v>316</v>
-      </c>
-      <c r="I17" s="20"/>
-      <c r="J17" s="38"/>
-    </row>
-    <row r="18" spans="1:10" customHeight="1" ht="16.2">
-      <c r="A18" s="40" t="s">
-        <v>20</v>
-      </c>
-      <c r="B18" s="37"/>
-      <c r="C18" s="21"/>
-      <c r="D18" s="21"/>
-      <c r="E18" s="21"/>
-      <c r="F18" s="37" t="s">
-        <v>21</v>
-      </c>
-      <c r="G18" s="37"/>
-      <c r="H18" s="21"/>
-      <c r="I18" s="21"/>
-      <c r="J18" s="39"/>
-    </row>
-    <row r="20" spans="1:10" customHeight="1" ht="18.6">
-      <c r="A20" s="36" t="s">
-        <v>22</v>
-      </c>
-      <c r="B20" s="36"/>
-      <c r="C20" s="36"/>
-      <c r="D20" s="36"/>
-      <c r="E20" s="36"/>
-      <c r="F20" s="36"/>
-      <c r="G20" s="36"/>
-      <c r="H20" s="36"/>
-      <c r="I20" s="36"/>
-      <c r="J20" s="36"/>
-    </row>
-    <row r="21" spans="1:10" customHeight="1" ht="15.6">
-      <c r="A21" s="22" t="s">
-        <v>23</v>
-      </c>
-      <c r="B21" s="23"/>
-      <c r="C21" s="26"/>
-      <c r="D21" s="26"/>
-      <c r="E21" s="26"/>
-      <c r="F21" s="23" t="s">
-        <v>24</v>
-      </c>
-      <c r="G21" s="23"/>
-      <c r="H21" s="26"/>
-      <c r="I21" s="26"/>
-      <c r="J21" s="41"/>
-    </row>
-    <row r="22" spans="1:10" customHeight="1" ht="15.6">
-      <c r="A22" s="24" t="s">
-        <v>25</v>
-      </c>
-      <c r="B22" s="25"/>
-      <c r="C22" s="20"/>
-      <c r="D22" s="20"/>
-      <c r="E22" s="20"/>
-      <c r="F22" s="25" t="s">
-        <v>26</v>
-      </c>
-      <c r="G22" s="25"/>
-      <c r="H22" s="20"/>
-      <c r="I22" s="20"/>
-      <c r="J22" s="38"/>
-    </row>
-    <row r="23" spans="1:10" customHeight="1" ht="15.6">
-      <c r="A23" s="24" t="s">
-        <v>27</v>
-      </c>
-      <c r="B23" s="25"/>
-      <c r="C23" s="20"/>
-      <c r="D23" s="20"/>
-      <c r="E23" s="20"/>
-      <c r="F23" s="25" t="s">
-        <v>28</v>
-      </c>
-      <c r="G23" s="25"/>
-      <c r="H23" s="20"/>
-      <c r="I23" s="20"/>
-      <c r="J23" s="38"/>
-    </row>
-    <row r="24" spans="1:10" customHeight="1" ht="16.2">
-      <c r="A24" s="40" t="s">
-        <v>29</v>
-      </c>
-      <c r="B24" s="37"/>
-      <c r="C24" s="21"/>
-      <c r="D24" s="21"/>
-      <c r="E24" s="21"/>
-      <c r="F24" s="37" t="s">
-        <v>30</v>
-      </c>
-      <c r="G24" s="37"/>
-      <c r="H24" s="42" t="s">
-        <v>317</v>
-      </c>
-      <c r="I24" s="21"/>
-      <c r="J24" s="39"/>
-    </row>
-    <row r="26" spans="1:10" customHeight="1" ht="18.6">
-      <c r="A26" s="36" t="s">
-        <v>31</v>
-      </c>
-      <c r="B26" s="36"/>
-      <c r="C26" s="36"/>
-      <c r="D26" s="36"/>
-      <c r="E26" s="36"/>
-      <c r="F26" s="36"/>
-      <c r="G26" s="36"/>
-      <c r="H26" s="36"/>
-      <c r="I26" s="36"/>
-      <c r="J26" s="36"/>
-    </row>
-    <row r="27" spans="1:10" customHeight="1" ht="15.6">
-      <c r="A27" s="22" t="s">
-        <v>32</v>
-      </c>
-      <c r="B27" s="23"/>
-      <c r="C27" s="23"/>
-      <c r="D27" s="23"/>
-      <c r="E27" s="26">
-        <v>2013</v>
-      </c>
-      <c r="F27" s="26"/>
-      <c r="G27" s="23" t="s">
-        <v>33</v>
-      </c>
-      <c r="H27" s="23"/>
-      <c r="I27" s="26"/>
-      <c r="J27" s="41"/>
-    </row>
-    <row r="28" spans="1:10" customHeight="1" ht="15.6">
-      <c r="A28" s="24" t="s">
-        <v>34</v>
-      </c>
-      <c r="B28" s="25"/>
-      <c r="C28" s="20" t="s">
-        <v>244</v>
-      </c>
-      <c r="D28" s="20"/>
-      <c r="E28" s="20"/>
-      <c r="F28" s="20"/>
-      <c r="G28" s="20"/>
-      <c r="H28" s="20"/>
-      <c r="I28" s="20"/>
-      <c r="J28" s="38"/>
-    </row>
-    <row r="29" spans="1:10" customHeight="1" ht="16.2">
-      <c r="A29" s="13" t="s">
-        <v>35</v>
-      </c>
-      <c r="B29" s="21"/>
-      <c r="C29" s="21"/>
-      <c r="D29" s="21"/>
-      <c r="E29" s="21"/>
-      <c r="F29" s="21"/>
-      <c r="G29" s="21"/>
-      <c r="H29" s="21"/>
-      <c r="I29" s="21"/>
-      <c r="J29" s="39"/>
-    </row>
-    <row r="31" spans="1:10" customHeight="1" ht="18.6">
-      <c r="A31" s="36" t="s">
-        <v>36</v>
-      </c>
-      <c r="B31" s="36"/>
-      <c r="C31" s="36"/>
-      <c r="D31" s="36"/>
-      <c r="E31" s="36"/>
-      <c r="F31" s="36"/>
-      <c r="G31" s="36"/>
-      <c r="H31" s="36"/>
-      <c r="I31" s="36"/>
-      <c r="J31" s="36"/>
-    </row>
-    <row r="32" spans="1:10" customHeight="1" ht="15.6">
-      <c r="A32" s="27" t="s">
-        <v>37</v>
-      </c>
-      <c r="B32" s="28"/>
-      <c r="C32" s="28"/>
-      <c r="D32" s="28"/>
-      <c r="E32" s="28"/>
-      <c r="F32" s="28"/>
-      <c r="G32" s="28"/>
-      <c r="H32" s="28"/>
-      <c r="I32" s="28"/>
-      <c r="J32" s="29"/>
-    </row>
-    <row r="33" spans="1:10">
-      <c r="A33" s="30"/>
-      <c r="B33" s="31"/>
-      <c r="C33" s="31"/>
-      <c r="D33" s="31"/>
-      <c r="E33" s="31"/>
-      <c r="F33" s="31"/>
-      <c r="G33" s="31"/>
-      <c r="H33" s="31"/>
-      <c r="I33" s="31"/>
-      <c r="J33" s="32"/>
-    </row>
-    <row r="34" spans="1:10">
-      <c r="A34" s="33" t="s">
-        <v>39</v>
-      </c>
-      <c r="B34" s="34"/>
-      <c r="C34" s="34"/>
-      <c r="D34" s="34"/>
-      <c r="E34" s="34"/>
-      <c r="F34" s="34"/>
-      <c r="G34" s="34"/>
-      <c r="H34" s="34"/>
-      <c r="I34" s="34"/>
-      <c r="J34" s="35"/>
-    </row>
-    <row r="35" spans="1:10">
-      <c r="A35" s="2"/>
-      <c r="B35" s="3"/>
-      <c r="C35" s="3"/>
-      <c r="D35" s="3"/>
-      <c r="E35" s="3"/>
-      <c r="F35" s="3"/>
-      <c r="G35" s="3"/>
-      <c r="H35" s="3"/>
-      <c r="I35" s="3"/>
-      <c r="J35" s="4"/>
-    </row>
-    <row r="36" spans="1:10">
-      <c r="A36" s="30" t="s">
-        <v>40</v>
-      </c>
-      <c r="B36" s="31"/>
-      <c r="C36" s="31"/>
-      <c r="D36" s="31"/>
-      <c r="E36" s="31"/>
-      <c r="F36" s="31"/>
-      <c r="G36" s="31"/>
-      <c r="H36" s="31"/>
-      <c r="I36" s="31"/>
-      <c r="J36" s="32"/>
-    </row>
-    <row r="37" spans="1:10" customHeight="1" ht="15">
-      <c r="A37" s="5"/>
-      <c r="B37" s="6"/>
-      <c r="C37" s="6"/>
-      <c r="D37" s="6"/>
-      <c r="E37" s="6"/>
-      <c r="F37" s="6"/>
-      <c r="G37" s="6"/>
-      <c r="H37" s="6"/>
-      <c r="I37" s="6"/>
-      <c r="J37" s="7"/>
-    </row>
-  </sheetData>
-  <sheetProtection password="8053" sheet="true" objects="true" scenarios="false" formatCells="true" formatColumns="false" formatRows="false" insertColumns="false" insertRows="true" insertHyperlinks="false" deleteColumns="false" deleteRows="false" selectLockedCells="false" sort="true" autoFilter="false" pivotTables="false" selectUnlockedCells="false"/>
-  <mergeCells>
-    <mergeCell ref="A36:J36"/>
-    <mergeCell ref="A27:D27"/>
-    <mergeCell ref="A21:B21"/>
-    <mergeCell ref="A22:B22"/>
-    <mergeCell ref="A23:B23"/>
-    <mergeCell ref="A24:B24"/>
-    <mergeCell ref="F21:G21"/>
-    <mergeCell ref="F22:G22"/>
-    <mergeCell ref="F23:G23"/>
-    <mergeCell ref="F24:G24"/>
-    <mergeCell ref="C21:E21"/>
-    <mergeCell ref="C22:E22"/>
-    <mergeCell ref="C23:E23"/>
-    <mergeCell ref="C24:E24"/>
-    <mergeCell ref="H21:J21"/>
-    <mergeCell ref="H22:J22"/>
-    <mergeCell ref="A26:J26"/>
-    <mergeCell ref="A31:J31"/>
-    <mergeCell ref="E27:F27"/>
-    <mergeCell ref="A28:B28"/>
-    <mergeCell ref="C28:J28"/>
-    <mergeCell ref="B29:J29"/>
-    <mergeCell ref="G27:H27"/>
-    <mergeCell ref="I27:J27"/>
-    <mergeCell ref="H23:J23"/>
-    <mergeCell ref="H24:J24"/>
-    <mergeCell ref="A32:J32"/>
-    <mergeCell ref="A33:J33"/>
-    <mergeCell ref="A34:J34"/>
-    <mergeCell ref="A20:J20"/>
-    <mergeCell ref="F15:G15"/>
-    <mergeCell ref="F16:G16"/>
-    <mergeCell ref="F17:G17"/>
-    <mergeCell ref="F18:G18"/>
-    <mergeCell ref="H15:J15"/>
-    <mergeCell ref="H16:J16"/>
-    <mergeCell ref="H17:J17"/>
-    <mergeCell ref="H18:J18"/>
-    <mergeCell ref="A15:B15"/>
-    <mergeCell ref="A16:B16"/>
-    <mergeCell ref="A17:C17"/>
-    <mergeCell ref="A18:B18"/>
-    <mergeCell ref="C15:E15"/>
-    <mergeCell ref="C16:E16"/>
-    <mergeCell ref="D17:E17"/>
-    <mergeCell ref="C18:E18"/>
-    <mergeCell ref="A10:B10"/>
-    <mergeCell ref="A11:B11"/>
-    <mergeCell ref="A12:B12"/>
-    <mergeCell ref="A13:B13"/>
-    <mergeCell ref="A14:B14"/>
-    <mergeCell ref="C10:E10"/>
-    <mergeCell ref="C11:G11"/>
-    <mergeCell ref="C12:E12"/>
-    <mergeCell ref="C13:G13"/>
-    <mergeCell ref="C14:G14"/>
-    <mergeCell ref="A9:J9"/>
-    <mergeCell ref="A1:J1"/>
-    <mergeCell ref="A2:J2"/>
-    <mergeCell ref="A3:J3"/>
-    <mergeCell ref="A4:J4"/>
-    <mergeCell ref="D7:E7"/>
-    <mergeCell ref="F7:G7"/>
-    <mergeCell ref="B7:C7"/>
-  </mergeCells>
-  <printOptions gridLines="false" gridLinesSet="true"/>
-  <pageMargins left="0.475" right="0.5583333333333333" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" scale="100" fitToHeight="1" fitToWidth="1"/>
-  <headerFooter differentOddEven="false" differentFirst="false" scaleWithDoc="true" alignWithMargins="true">
-    <oddHeader/>
-    <oddFooter/>
-    <evenHeader/>
-    <evenFooter/>
-    <firstHeader/>
-    <firstFooter/>
-  </headerFooter>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xml:space="preserve">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-  </sheetPr>
-  <dimension ref="A1:J37"/>
-  <sheetViews>
-    <sheetView tabSelected="0" workbookViewId="0" zoomScale="96" view="pageBreakPreview" showGridLines="false" showRowColHeaders="1">
-      <selection activeCell="H24" sqref="H24"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" outlineLevelRow="0" outlineLevelCol="0"/>
-  <cols>
-    <col min="1" max="1" width="11.6640625" customWidth="true" style="0"/>
-    <col min="2" max="2" width="7.77734375" customWidth="true" style="0"/>
-    <col min="3" max="3" width="8.33203125" customWidth="true" style="0"/>
-    <col min="4" max="4" width="10.5546875" customWidth="true" style="0"/>
-    <col min="5" max="5" width="10.6640625" customWidth="true" style="0"/>
-    <col min="6" max="6" width="10.109375" customWidth="true" style="0"/>
-    <col min="8" max="8" width="6.77734375" customWidth="true" style="0"/>
-    <col min="9" max="9" width="8" customWidth="true" style="0"/>
-    <col min="10" max="10" width="8.77734375" customWidth="true" style="0"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:10" customHeight="1" ht="23.4">
-      <c r="A1" s="15" t="s">
-        <v>41</v>
-      </c>
-      <c r="B1" s="15"/>
-      <c r="C1" s="15"/>
-      <c r="D1" s="15"/>
-      <c r="E1" s="15"/>
-      <c r="F1" s="15"/>
-      <c r="G1" s="15"/>
-      <c r="H1" s="15"/>
-      <c r="I1" s="15"/>
-      <c r="J1" s="15"/>
-    </row>
-    <row r="2" spans="1:10" customHeight="1" ht="23.4">
-      <c r="A2" s="15" t="s">
-        <v>1</v>
-      </c>
-      <c r="B2" s="15"/>
-      <c r="C2" s="15"/>
-      <c r="D2" s="15"/>
-      <c r="E2" s="15"/>
-      <c r="F2" s="15"/>
-      <c r="G2" s="15"/>
-      <c r="H2" s="15"/>
-      <c r="I2" s="15"/>
-      <c r="J2" s="15"/>
-    </row>
-    <row r="3" spans="1:10" customHeight="1" ht="18">
-      <c r="A3" s="16"/>
-      <c r="B3" s="16"/>
-      <c r="C3" s="16"/>
-      <c r="D3" s="16"/>
-      <c r="E3" s="16"/>
-      <c r="F3" s="16"/>
-      <c r="G3" s="16"/>
-      <c r="H3" s="16"/>
-      <c r="I3" s="16"/>
-      <c r="J3" s="16"/>
-    </row>
-    <row r="4" spans="1:10" customHeight="1" ht="15.6">
-      <c r="A4" s="17" t="s">
-        <v>43</v>
-      </c>
-      <c r="B4" s="17"/>
-      <c r="C4" s="17"/>
-      <c r="D4" s="17"/>
-      <c r="E4" s="17"/>
-      <c r="F4" s="17"/>
-      <c r="G4" s="17"/>
-      <c r="H4" s="17"/>
-      <c r="I4" s="17"/>
-      <c r="J4" s="17"/>
-    </row>
-    <row r="5" spans="1:10" customHeight="1" ht="15.6">
-      <c r="A5" s="1"/>
-      <c r="B5" s="1"/>
-      <c r="C5" s="1"/>
-      <c r="D5" s="1"/>
-      <c r="E5" s="1"/>
-      <c r="F5" s="1"/>
-      <c r="G5" s="1"/>
-      <c r="H5" s="1"/>
-      <c r="I5" s="1"/>
-      <c r="J5" s="1"/>
-    </row>
-    <row r="7" spans="1:10" customHeight="1" ht="15.6">
-      <c r="A7" s="12" t="s">
-        <v>4</v>
-      </c>
-      <c r="B7" s="19">
-        <v>2015</v>
-      </c>
-      <c r="C7" s="19"/>
-      <c r="D7" s="18" t="s">
-        <v>5</v>
-      </c>
-      <c r="E7" s="18"/>
-      <c r="F7" s="19">
-        <v>20154494</v>
-      </c>
-      <c r="G7" s="19"/>
-    </row>
-    <row r="9" spans="1:10" customHeight="1" ht="18.6">
-      <c r="A9" s="14" t="s">
-        <v>6</v>
-      </c>
-      <c r="B9" s="14"/>
-      <c r="C9" s="14"/>
-      <c r="D9" s="14"/>
-      <c r="E9" s="14"/>
-      <c r="F9" s="14"/>
-      <c r="G9" s="14"/>
-      <c r="H9" s="14"/>
-      <c r="I9" s="14"/>
-      <c r="J9" s="14"/>
-    </row>
-    <row r="10" spans="1:10" customHeight="1" ht="15.6">
-      <c r="A10" s="22" t="s">
-        <v>7</v>
-      </c>
-      <c r="B10" s="23"/>
-      <c r="C10" s="26" t="s">
-        <v>66</v>
-      </c>
-      <c r="D10" s="26"/>
-      <c r="E10" s="26"/>
-      <c r="F10" s="8"/>
-      <c r="G10" s="8"/>
-      <c r="H10" s="8"/>
-      <c r="I10" s="8"/>
-      <c r="J10" s="9"/>
-    </row>
-    <row r="11" spans="1:10" customHeight="1" ht="15.6">
-      <c r="A11" s="24" t="s">
-        <v>9</v>
-      </c>
-      <c r="B11" s="25"/>
-      <c r="C11" s="20" t="s">
-        <v>67</v>
-      </c>
-      <c r="D11" s="20"/>
-      <c r="E11" s="20"/>
-      <c r="F11" s="20"/>
-      <c r="G11" s="20"/>
-      <c r="H11" s="10"/>
-      <c r="I11" s="10"/>
-      <c r="J11" s="11"/>
-    </row>
-    <row r="12" spans="1:10" customHeight="1" ht="15.6">
-      <c r="A12" s="24" t="s">
-        <v>11</v>
-      </c>
-      <c r="B12" s="25"/>
-      <c r="C12" s="20"/>
-      <c r="D12" s="20"/>
-      <c r="E12" s="20"/>
-      <c r="F12" s="10"/>
-      <c r="G12" s="10"/>
-      <c r="H12" s="10"/>
-      <c r="I12" s="10"/>
-      <c r="J12" s="11"/>
-    </row>
-    <row r="13" spans="1:10" customHeight="1" ht="15.6">
-      <c r="A13" s="24" t="s">
-        <v>12</v>
-      </c>
-      <c r="B13" s="25"/>
-      <c r="C13" s="20"/>
-      <c r="D13" s="20"/>
-      <c r="E13" s="20"/>
-      <c r="F13" s="20"/>
-      <c r="G13" s="20"/>
-      <c r="H13" s="10"/>
-      <c r="I13" s="10"/>
-      <c r="J13" s="11"/>
-    </row>
-    <row r="14" spans="1:10" customHeight="1" ht="15.6">
-      <c r="A14" s="24" t="s">
-        <v>13</v>
-      </c>
-      <c r="B14" s="25"/>
-      <c r="C14" s="20"/>
-      <c r="D14" s="20"/>
-      <c r="E14" s="20"/>
-      <c r="F14" s="20"/>
-      <c r="G14" s="20"/>
-      <c r="H14" s="10"/>
-      <c r="I14" s="10"/>
-      <c r="J14" s="11"/>
-    </row>
-    <row r="15" spans="1:10" customHeight="1" ht="15.6">
-      <c r="A15" s="24" t="s">
-        <v>14</v>
-      </c>
-      <c r="B15" s="25"/>
-      <c r="C15" s="20"/>
-      <c r="D15" s="20"/>
-      <c r="E15" s="20"/>
-      <c r="F15" s="25" t="s">
-        <v>15</v>
-      </c>
-      <c r="G15" s="25"/>
-      <c r="H15" s="20"/>
-      <c r="I15" s="20"/>
-      <c r="J15" s="38"/>
-    </row>
-    <row r="16" spans="1:10" customHeight="1" ht="15.6">
-      <c r="A16" s="24" t="s">
-        <v>16</v>
-      </c>
-      <c r="B16" s="25"/>
-      <c r="C16" s="20"/>
-      <c r="D16" s="20"/>
-      <c r="E16" s="20"/>
-      <c r="F16" s="25" t="s">
-        <v>17</v>
-      </c>
-      <c r="G16" s="25"/>
-      <c r="H16" s="20"/>
-      <c r="I16" s="20"/>
-      <c r="J16" s="38"/>
-    </row>
-    <row r="17" spans="1:10" customHeight="1" ht="15.6">
-      <c r="A17" s="24" t="s">
-        <v>18</v>
-      </c>
-      <c r="B17" s="25"/>
-      <c r="C17" s="25"/>
-      <c r="D17" s="20"/>
-      <c r="E17" s="20"/>
-      <c r="F17" s="25" t="s">
-        <v>19</v>
-      </c>
-      <c r="G17" s="25"/>
-      <c r="H17" s="20"/>
-      <c r="I17" s="20"/>
-      <c r="J17" s="38"/>
-    </row>
-    <row r="18" spans="1:10" customHeight="1" ht="16.2">
-      <c r="A18" s="40" t="s">
-        <v>20</v>
-      </c>
-      <c r="B18" s="37"/>
-      <c r="C18" s="21"/>
-      <c r="D18" s="21"/>
-      <c r="E18" s="21"/>
-      <c r="F18" s="37" t="s">
-        <v>21</v>
-      </c>
-      <c r="G18" s="37"/>
-      <c r="H18" s="21"/>
-      <c r="I18" s="21"/>
-      <c r="J18" s="39"/>
-    </row>
-    <row r="20" spans="1:10" customHeight="1" ht="18.6">
-      <c r="A20" s="36" t="s">
-        <v>22</v>
-      </c>
-      <c r="B20" s="36"/>
-      <c r="C20" s="36"/>
-      <c r="D20" s="36"/>
-      <c r="E20" s="36"/>
-      <c r="F20" s="36"/>
-      <c r="G20" s="36"/>
-      <c r="H20" s="36"/>
-      <c r="I20" s="36"/>
-      <c r="J20" s="36"/>
-    </row>
-    <row r="21" spans="1:10" customHeight="1" ht="15.6">
-      <c r="A21" s="22" t="s">
-        <v>23</v>
-      </c>
-      <c r="B21" s="23"/>
-      <c r="C21" s="26"/>
-      <c r="D21" s="26"/>
-      <c r="E21" s="26"/>
-      <c r="F21" s="23" t="s">
-        <v>24</v>
-      </c>
-      <c r="G21" s="23"/>
-      <c r="H21" s="26"/>
-      <c r="I21" s="26"/>
-      <c r="J21" s="41"/>
-    </row>
-    <row r="22" spans="1:10" customHeight="1" ht="15.6">
-      <c r="A22" s="24" t="s">
-        <v>25</v>
-      </c>
-      <c r="B22" s="25"/>
-      <c r="C22" s="20"/>
-      <c r="D22" s="20"/>
-      <c r="E22" s="20"/>
-      <c r="F22" s="25" t="s">
-        <v>26</v>
-      </c>
-      <c r="G22" s="25"/>
-      <c r="H22" s="20"/>
-      <c r="I22" s="20"/>
-      <c r="J22" s="38"/>
-    </row>
-    <row r="23" spans="1:10" customHeight="1" ht="15.6">
-      <c r="A23" s="24" t="s">
-        <v>27</v>
-      </c>
-      <c r="B23" s="25"/>
-      <c r="C23" s="20"/>
-      <c r="D23" s="20"/>
-      <c r="E23" s="20"/>
-      <c r="F23" s="25" t="s">
-        <v>28</v>
-      </c>
-      <c r="G23" s="25"/>
-      <c r="H23" s="20"/>
-      <c r="I23" s="20"/>
-      <c r="J23" s="38"/>
-    </row>
-    <row r="24" spans="1:10" customHeight="1" ht="16.2">
-      <c r="A24" s="40" t="s">
-        <v>29</v>
-      </c>
-      <c r="B24" s="37"/>
-      <c r="C24" s="21"/>
-      <c r="D24" s="21"/>
-      <c r="E24" s="21"/>
-      <c r="F24" s="37" t="s">
-        <v>30</v>
-      </c>
-      <c r="G24" s="37"/>
-      <c r="H24" s="42" t="s">
-        <v>68</v>
-      </c>
-      <c r="I24" s="21"/>
-      <c r="J24" s="39"/>
-    </row>
-    <row r="26" spans="1:10" customHeight="1" ht="18.6">
-      <c r="A26" s="36" t="s">
-        <v>31</v>
-      </c>
-      <c r="B26" s="36"/>
-      <c r="C26" s="36"/>
-      <c r="D26" s="36"/>
-      <c r="E26" s="36"/>
-      <c r="F26" s="36"/>
-      <c r="G26" s="36"/>
-      <c r="H26" s="36"/>
-      <c r="I26" s="36"/>
-      <c r="J26" s="36"/>
-    </row>
-    <row r="27" spans="1:10" customHeight="1" ht="15.6">
-      <c r="A27" s="22" t="s">
-        <v>32</v>
-      </c>
-      <c r="B27" s="23"/>
-      <c r="C27" s="23"/>
-      <c r="D27" s="23"/>
-      <c r="E27" s="26"/>
-      <c r="F27" s="26"/>
-      <c r="G27" s="23" t="s">
-        <v>33</v>
-      </c>
-      <c r="H27" s="23"/>
-      <c r="I27" s="26"/>
-      <c r="J27" s="41"/>
-    </row>
-    <row r="28" spans="1:10" customHeight="1" ht="15.6">
-      <c r="A28" s="24" t="s">
-        <v>34</v>
-      </c>
-      <c r="B28" s="25"/>
-      <c r="C28" s="20"/>
-      <c r="D28" s="20"/>
-      <c r="E28" s="20"/>
-      <c r="F28" s="20"/>
-      <c r="G28" s="20"/>
-      <c r="H28" s="20"/>
-      <c r="I28" s="20"/>
-      <c r="J28" s="38"/>
-    </row>
-    <row r="29" spans="1:10" customHeight="1" ht="16.2">
-      <c r="A29" s="13" t="s">
-        <v>35</v>
-      </c>
-      <c r="B29" s="21"/>
-      <c r="C29" s="21"/>
-      <c r="D29" s="21"/>
-      <c r="E29" s="21"/>
-      <c r="F29" s="21"/>
-      <c r="G29" s="21"/>
-      <c r="H29" s="21"/>
-      <c r="I29" s="21"/>
-      <c r="J29" s="39"/>
-    </row>
-    <row r="31" spans="1:10" customHeight="1" ht="18.6">
-      <c r="A31" s="36" t="s">
-        <v>36</v>
-      </c>
-      <c r="B31" s="36"/>
-      <c r="C31" s="36"/>
-      <c r="D31" s="36"/>
-      <c r="E31" s="36"/>
-      <c r="F31" s="36"/>
-      <c r="G31" s="36"/>
-      <c r="H31" s="36"/>
-      <c r="I31" s="36"/>
-      <c r="J31" s="36"/>
-    </row>
-    <row r="32" spans="1:10" customHeight="1" ht="15.6">
-      <c r="A32" s="27" t="s">
-        <v>37</v>
-      </c>
-      <c r="B32" s="28"/>
-      <c r="C32" s="28"/>
-      <c r="D32" s="28"/>
-      <c r="E32" s="28"/>
-      <c r="F32" s="28"/>
-      <c r="G32" s="28"/>
-      <c r="H32" s="28"/>
-      <c r="I32" s="28"/>
-      <c r="J32" s="29"/>
-    </row>
-    <row r="33" spans="1:10">
-      <c r="A33" s="30"/>
-      <c r="B33" s="31"/>
-      <c r="C33" s="31"/>
-      <c r="D33" s="31"/>
-      <c r="E33" s="31"/>
-      <c r="F33" s="31"/>
-      <c r="G33" s="31"/>
-      <c r="H33" s="31"/>
-      <c r="I33" s="31"/>
-      <c r="J33" s="32"/>
-    </row>
-    <row r="34" spans="1:10">
-      <c r="A34" s="33" t="s">
-        <v>39</v>
-      </c>
-      <c r="B34" s="34"/>
-      <c r="C34" s="34"/>
-      <c r="D34" s="34"/>
-      <c r="E34" s="34"/>
-      <c r="F34" s="34"/>
-      <c r="G34" s="34"/>
-      <c r="H34" s="34"/>
-      <c r="I34" s="34"/>
-      <c r="J34" s="35"/>
-    </row>
-    <row r="35" spans="1:10">
-      <c r="A35" s="2"/>
-      <c r="B35" s="3"/>
-      <c r="C35" s="3"/>
-      <c r="D35" s="3"/>
-      <c r="E35" s="3"/>
-      <c r="F35" s="3"/>
-      <c r="G35" s="3"/>
-      <c r="H35" s="3"/>
-      <c r="I35" s="3"/>
-      <c r="J35" s="4"/>
-    </row>
-    <row r="36" spans="1:10">
-      <c r="A36" s="30" t="s">
-        <v>40</v>
-      </c>
-      <c r="B36" s="31"/>
-      <c r="C36" s="31"/>
-      <c r="D36" s="31"/>
-      <c r="E36" s="31"/>
-      <c r="F36" s="31"/>
-      <c r="G36" s="31"/>
-      <c r="H36" s="31"/>
-      <c r="I36" s="31"/>
-      <c r="J36" s="32"/>
-    </row>
-    <row r="37" spans="1:10" customHeight="1" ht="15">
-      <c r="A37" s="5"/>
-      <c r="B37" s="6"/>
-      <c r="C37" s="6"/>
-      <c r="D37" s="6"/>
-      <c r="E37" s="6"/>
-      <c r="F37" s="6"/>
-      <c r="G37" s="6"/>
-      <c r="H37" s="6"/>
-      <c r="I37" s="6"/>
-      <c r="J37" s="7"/>
-    </row>
-  </sheetData>
-  <sheetProtection password="8053" sheet="true" objects="true" scenarios="false" formatCells="true" formatColumns="false" formatRows="false" insertColumns="false" insertRows="true" insertHyperlinks="false" deleteColumns="false" deleteRows="false" selectLockedCells="false" sort="true" autoFilter="false" pivotTables="false" selectUnlockedCells="false"/>
-  <mergeCells>
-    <mergeCell ref="A36:J36"/>
-    <mergeCell ref="A27:D27"/>
-    <mergeCell ref="A21:B21"/>
-    <mergeCell ref="A22:B22"/>
-    <mergeCell ref="A23:B23"/>
-    <mergeCell ref="A24:B24"/>
-    <mergeCell ref="F21:G21"/>
-    <mergeCell ref="F22:G22"/>
-    <mergeCell ref="F23:G23"/>
-    <mergeCell ref="F24:G24"/>
-    <mergeCell ref="C21:E21"/>
-    <mergeCell ref="C22:E22"/>
-    <mergeCell ref="C23:E23"/>
-    <mergeCell ref="C24:E24"/>
-    <mergeCell ref="H21:J21"/>
-    <mergeCell ref="H22:J22"/>
-    <mergeCell ref="A26:J26"/>
-    <mergeCell ref="A31:J31"/>
-    <mergeCell ref="E27:F27"/>
-    <mergeCell ref="A28:B28"/>
-    <mergeCell ref="C28:J28"/>
-    <mergeCell ref="B29:J29"/>
-    <mergeCell ref="G27:H27"/>
-    <mergeCell ref="I27:J27"/>
-    <mergeCell ref="H23:J23"/>
-    <mergeCell ref="H24:J24"/>
-    <mergeCell ref="A32:J32"/>
-    <mergeCell ref="A33:J33"/>
-    <mergeCell ref="A34:J34"/>
-    <mergeCell ref="A20:J20"/>
-    <mergeCell ref="F15:G15"/>
-    <mergeCell ref="F16:G16"/>
-    <mergeCell ref="F17:G17"/>
-    <mergeCell ref="F18:G18"/>
-    <mergeCell ref="H15:J15"/>
-    <mergeCell ref="H16:J16"/>
-    <mergeCell ref="H17:J17"/>
-    <mergeCell ref="H18:J18"/>
-    <mergeCell ref="A15:B15"/>
-    <mergeCell ref="A16:B16"/>
-    <mergeCell ref="A17:C17"/>
-    <mergeCell ref="A18:B18"/>
-    <mergeCell ref="C15:E15"/>
-    <mergeCell ref="C16:E16"/>
-    <mergeCell ref="D17:E17"/>
-    <mergeCell ref="C18:E18"/>
-    <mergeCell ref="A10:B10"/>
-    <mergeCell ref="A11:B11"/>
-    <mergeCell ref="A12:B12"/>
-    <mergeCell ref="A13:B13"/>
-    <mergeCell ref="A14:B14"/>
-    <mergeCell ref="C10:E10"/>
-    <mergeCell ref="C11:G11"/>
-    <mergeCell ref="C12:E12"/>
-    <mergeCell ref="C13:G13"/>
-    <mergeCell ref="C14:G14"/>
-    <mergeCell ref="A9:J9"/>
-    <mergeCell ref="A1:J1"/>
-    <mergeCell ref="A2:J2"/>
-    <mergeCell ref="A3:J3"/>
-    <mergeCell ref="A4:J4"/>
-    <mergeCell ref="D7:E7"/>
-    <mergeCell ref="F7:G7"/>
-    <mergeCell ref="B7:C7"/>
-  </mergeCells>
-  <printOptions gridLines="false" gridLinesSet="true"/>
-  <pageMargins left="0.475" right="0.5583333333333333" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" scale="100" fitToHeight="1" fitToWidth="1"/>
-  <headerFooter differentOddEven="false" differentFirst="false" scaleWithDoc="true" alignWithMargins="true">
-    <oddHeader/>
-    <oddFooter/>
-    <evenHeader/>
-    <evenFooter/>
-    <firstHeader/>
-    <firstFooter/>
-  </headerFooter>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet40.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xml:space="preserve">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-  </sheetPr>
-  <dimension ref="A1:J37"/>
-  <sheetViews>
-    <sheetView tabSelected="0" workbookViewId="0" zoomScale="96" view="pageBreakPreview" showGridLines="false" showRowColHeaders="1">
-      <selection activeCell="H24" sqref="H24"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" outlineLevelRow="0" outlineLevelCol="0"/>
-  <cols>
-    <col min="1" max="1" width="11.6640625" customWidth="true" style="0"/>
-    <col min="2" max="2" width="7.77734375" customWidth="true" style="0"/>
-    <col min="3" max="3" width="8.33203125" customWidth="true" style="0"/>
-    <col min="4" max="4" width="10.5546875" customWidth="true" style="0"/>
-    <col min="5" max="5" width="10.6640625" customWidth="true" style="0"/>
-    <col min="6" max="6" width="10.109375" customWidth="true" style="0"/>
-    <col min="8" max="8" width="6.77734375" customWidth="true" style="0"/>
-    <col min="9" max="9" width="8" customWidth="true" style="0"/>
-    <col min="10" max="10" width="8.77734375" customWidth="true" style="0"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:10" customHeight="1" ht="23.4">
-      <c r="A1" s="15" t="s">
-        <v>41</v>
-      </c>
-      <c r="B1" s="15"/>
-      <c r="C1" s="15"/>
-      <c r="D1" s="15"/>
-      <c r="E1" s="15"/>
-      <c r="F1" s="15"/>
-      <c r="G1" s="15"/>
-      <c r="H1" s="15"/>
-      <c r="I1" s="15"/>
-      <c r="J1" s="15"/>
-    </row>
-    <row r="2" spans="1:10" customHeight="1" ht="23.4">
-      <c r="A2" s="15" t="s">
-        <v>1</v>
-      </c>
-      <c r="B2" s="15"/>
-      <c r="C2" s="15"/>
-      <c r="D2" s="15"/>
-      <c r="E2" s="15"/>
-      <c r="F2" s="15"/>
-      <c r="G2" s="15"/>
-      <c r="H2" s="15"/>
-      <c r="I2" s="15"/>
-      <c r="J2" s="15"/>
-    </row>
-    <row r="3" spans="1:10" customHeight="1" ht="18">
-      <c r="A3" s="16"/>
-      <c r="B3" s="16"/>
-      <c r="C3" s="16"/>
-      <c r="D3" s="16"/>
-      <c r="E3" s="16"/>
-      <c r="F3" s="16"/>
-      <c r="G3" s="16"/>
-      <c r="H3" s="16"/>
-      <c r="I3" s="16"/>
-      <c r="J3" s="16"/>
-    </row>
-    <row r="4" spans="1:10" customHeight="1" ht="15.6">
-      <c r="A4" s="17" t="s">
-        <v>43</v>
-      </c>
-      <c r="B4" s="17"/>
-      <c r="C4" s="17"/>
-      <c r="D4" s="17"/>
-      <c r="E4" s="17"/>
-      <c r="F4" s="17"/>
-      <c r="G4" s="17"/>
-      <c r="H4" s="17"/>
-      <c r="I4" s="17"/>
-      <c r="J4" s="17"/>
-    </row>
-    <row r="5" spans="1:10" customHeight="1" ht="15.6">
-      <c r="A5" s="1"/>
-      <c r="B5" s="1"/>
-      <c r="C5" s="1"/>
-      <c r="D5" s="1"/>
-      <c r="E5" s="1"/>
-      <c r="F5" s="1"/>
-      <c r="G5" s="1"/>
-      <c r="H5" s="1"/>
-      <c r="I5" s="1"/>
-      <c r="J5" s="1"/>
-    </row>
-    <row r="7" spans="1:10" customHeight="1" ht="15.6">
-      <c r="A7" s="12" t="s">
-        <v>4</v>
-      </c>
-      <c r="B7" s="19">
-        <v>2015</v>
-      </c>
-      <c r="C7" s="19"/>
-      <c r="D7" s="18" t="s">
-        <v>5</v>
-      </c>
-      <c r="E7" s="18"/>
-      <c r="F7" s="19">
-        <v>20154799</v>
-      </c>
-      <c r="G7" s="19"/>
-    </row>
-    <row r="9" spans="1:10" customHeight="1" ht="18.6">
-      <c r="A9" s="14" t="s">
-        <v>6</v>
-      </c>
-      <c r="B9" s="14"/>
-      <c r="C9" s="14"/>
-      <c r="D9" s="14"/>
-      <c r="E9" s="14"/>
-      <c r="F9" s="14"/>
-      <c r="G9" s="14"/>
-      <c r="H9" s="14"/>
-      <c r="I9" s="14"/>
-      <c r="J9" s="14"/>
-    </row>
-    <row r="10" spans="1:10" customHeight="1" ht="15.6">
-      <c r="A10" s="22" t="s">
-        <v>7</v>
-      </c>
-      <c r="B10" s="23"/>
-      <c r="C10" s="26" t="s">
-        <v>318</v>
-      </c>
-      <c r="D10" s="26"/>
-      <c r="E10" s="26"/>
-      <c r="F10" s="8"/>
-      <c r="G10" s="8"/>
-      <c r="H10" s="8"/>
-      <c r="I10" s="8"/>
-      <c r="J10" s="9"/>
-    </row>
-    <row r="11" spans="1:10" customHeight="1" ht="15.6">
-      <c r="A11" s="24" t="s">
-        <v>9</v>
-      </c>
-      <c r="B11" s="25"/>
-      <c r="C11" s="20" t="s">
-        <v>319</v>
-      </c>
-      <c r="D11" s="20"/>
-      <c r="E11" s="20"/>
-      <c r="F11" s="20"/>
-      <c r="G11" s="20"/>
-      <c r="H11" s="10"/>
-      <c r="I11" s="10"/>
-      <c r="J11" s="11"/>
-    </row>
-    <row r="12" spans="1:10" customHeight="1" ht="15.6">
-      <c r="A12" s="24" t="s">
-        <v>11</v>
-      </c>
-      <c r="B12" s="25"/>
-      <c r="C12" s="20"/>
-      <c r="D12" s="20"/>
-      <c r="E12" s="20"/>
-      <c r="F12" s="10"/>
-      <c r="G12" s="10"/>
-      <c r="H12" s="10"/>
-      <c r="I12" s="10"/>
-      <c r="J12" s="11"/>
-    </row>
-    <row r="13" spans="1:10" customHeight="1" ht="15.6">
-      <c r="A13" s="24" t="s">
-        <v>12</v>
-      </c>
-      <c r="B13" s="25"/>
-      <c r="C13" s="20"/>
-      <c r="D13" s="20"/>
-      <c r="E13" s="20"/>
-      <c r="F13" s="20"/>
-      <c r="G13" s="20"/>
-      <c r="H13" s="10"/>
-      <c r="I13" s="10"/>
-      <c r="J13" s="11"/>
-    </row>
-    <row r="14" spans="1:10" customHeight="1" ht="15.6">
-      <c r="A14" s="24" t="s">
-        <v>13</v>
-      </c>
-      <c r="B14" s="25"/>
-      <c r="C14" s="20"/>
-      <c r="D14" s="20"/>
-      <c r="E14" s="20"/>
-      <c r="F14" s="20"/>
-      <c r="G14" s="20"/>
-      <c r="H14" s="10"/>
-      <c r="I14" s="10"/>
-      <c r="J14" s="11"/>
-    </row>
-    <row r="15" spans="1:10" customHeight="1" ht="15.6">
-      <c r="A15" s="24" t="s">
-        <v>14</v>
-      </c>
-      <c r="B15" s="25"/>
-      <c r="C15" s="20"/>
-      <c r="D15" s="20"/>
-      <c r="E15" s="20"/>
-      <c r="F15" s="25" t="s">
-        <v>15</v>
-      </c>
-      <c r="G15" s="25"/>
-      <c r="H15" s="20"/>
-      <c r="I15" s="20"/>
-      <c r="J15" s="38"/>
-    </row>
-    <row r="16" spans="1:10" customHeight="1" ht="15.6">
-      <c r="A16" s="24" t="s">
-        <v>16</v>
-      </c>
-      <c r="B16" s="25"/>
-      <c r="C16" s="20"/>
-      <c r="D16" s="20"/>
-      <c r="E16" s="20"/>
-      <c r="F16" s="25" t="s">
-        <v>17</v>
-      </c>
-      <c r="G16" s="25"/>
-      <c r="H16" s="20"/>
-      <c r="I16" s="20"/>
-      <c r="J16" s="38"/>
-    </row>
-    <row r="17" spans="1:10" customHeight="1" ht="15.6">
-      <c r="A17" s="24" t="s">
-        <v>18</v>
-      </c>
-      <c r="B17" s="25"/>
-      <c r="C17" s="25"/>
-      <c r="D17" s="20"/>
-      <c r="E17" s="20"/>
-      <c r="F17" s="25" t="s">
-        <v>19</v>
-      </c>
-      <c r="G17" s="25"/>
-      <c r="H17" s="20"/>
-      <c r="I17" s="20"/>
-      <c r="J17" s="38"/>
-    </row>
-    <row r="18" spans="1:10" customHeight="1" ht="16.2">
-      <c r="A18" s="40" t="s">
-        <v>20</v>
-      </c>
-      <c r="B18" s="37"/>
-      <c r="C18" s="21"/>
-      <c r="D18" s="21"/>
-      <c r="E18" s="21"/>
-      <c r="F18" s="37" t="s">
-        <v>21</v>
-      </c>
-      <c r="G18" s="37"/>
-      <c r="H18" s="21"/>
-      <c r="I18" s="21"/>
-      <c r="J18" s="39"/>
-    </row>
-    <row r="20" spans="1:10" customHeight="1" ht="18.6">
-      <c r="A20" s="36" t="s">
-        <v>22</v>
-      </c>
-      <c r="B20" s="36"/>
-      <c r="C20" s="36"/>
-      <c r="D20" s="36"/>
-      <c r="E20" s="36"/>
-      <c r="F20" s="36"/>
-      <c r="G20" s="36"/>
-      <c r="H20" s="36"/>
-      <c r="I20" s="36"/>
-      <c r="J20" s="36"/>
-    </row>
-    <row r="21" spans="1:10" customHeight="1" ht="15.6">
-      <c r="A21" s="22" t="s">
-        <v>23</v>
-      </c>
-      <c r="B21" s="23"/>
-      <c r="C21" s="26"/>
-      <c r="D21" s="26"/>
-      <c r="E21" s="26"/>
-      <c r="F21" s="23" t="s">
-        <v>24</v>
-      </c>
-      <c r="G21" s="23"/>
-      <c r="H21" s="26"/>
-      <c r="I21" s="26"/>
-      <c r="J21" s="41"/>
-    </row>
-    <row r="22" spans="1:10" customHeight="1" ht="15.6">
-      <c r="A22" s="24" t="s">
-        <v>25</v>
-      </c>
-      <c r="B22" s="25"/>
-      <c r="C22" s="20"/>
-      <c r="D22" s="20"/>
-      <c r="E22" s="20"/>
-      <c r="F22" s="25" t="s">
-        <v>26</v>
-      </c>
-      <c r="G22" s="25"/>
-      <c r="H22" s="20"/>
-      <c r="I22" s="20"/>
-      <c r="J22" s="38"/>
-    </row>
-    <row r="23" spans="1:10" customHeight="1" ht="15.6">
-      <c r="A23" s="24" t="s">
-        <v>27</v>
-      </c>
-      <c r="B23" s="25"/>
-      <c r="C23" s="20"/>
-      <c r="D23" s="20"/>
-      <c r="E23" s="20"/>
-      <c r="F23" s="25" t="s">
-        <v>28</v>
-      </c>
-      <c r="G23" s="25"/>
-      <c r="H23" s="20"/>
-      <c r="I23" s="20"/>
-      <c r="J23" s="38"/>
-    </row>
-    <row r="24" spans="1:10" customHeight="1" ht="16.2">
-      <c r="A24" s="40" t="s">
-        <v>29</v>
-      </c>
-      <c r="B24" s="37"/>
-      <c r="C24" s="21"/>
-      <c r="D24" s="21"/>
-      <c r="E24" s="21"/>
-      <c r="F24" s="37" t="s">
-        <v>30</v>
-      </c>
-      <c r="G24" s="37"/>
-      <c r="H24" s="42" t="s">
-        <v>68</v>
-      </c>
-      <c r="I24" s="21"/>
-      <c r="J24" s="39"/>
-    </row>
-    <row r="26" spans="1:10" customHeight="1" ht="18.6">
-      <c r="A26" s="36" t="s">
-        <v>31</v>
-      </c>
-      <c r="B26" s="36"/>
-      <c r="C26" s="36"/>
-      <c r="D26" s="36"/>
-      <c r="E26" s="36"/>
-      <c r="F26" s="36"/>
-      <c r="G26" s="36"/>
-      <c r="H26" s="36"/>
-      <c r="I26" s="36"/>
-      <c r="J26" s="36"/>
-    </row>
-    <row r="27" spans="1:10" customHeight="1" ht="15.6">
-      <c r="A27" s="22" t="s">
-        <v>32</v>
-      </c>
-      <c r="B27" s="23"/>
-      <c r="C27" s="23"/>
-      <c r="D27" s="23"/>
-      <c r="E27" s="26"/>
-      <c r="F27" s="26"/>
-      <c r="G27" s="23" t="s">
-        <v>33</v>
-      </c>
-      <c r="H27" s="23"/>
-      <c r="I27" s="26"/>
-      <c r="J27" s="41"/>
-    </row>
-    <row r="28" spans="1:10" customHeight="1" ht="15.6">
-      <c r="A28" s="24" t="s">
-        <v>34</v>
-      </c>
-      <c r="B28" s="25"/>
-      <c r="C28" s="20"/>
-      <c r="D28" s="20"/>
-      <c r="E28" s="20"/>
-      <c r="F28" s="20"/>
-      <c r="G28" s="20"/>
-      <c r="H28" s="20"/>
-      <c r="I28" s="20"/>
-      <c r="J28" s="38"/>
-    </row>
-    <row r="29" spans="1:10" customHeight="1" ht="16.2">
-      <c r="A29" s="13" t="s">
-        <v>35</v>
-      </c>
-      <c r="B29" s="21"/>
-      <c r="C29" s="21"/>
-      <c r="D29" s="21"/>
-      <c r="E29" s="21"/>
-      <c r="F29" s="21"/>
-      <c r="G29" s="21"/>
-      <c r="H29" s="21"/>
-      <c r="I29" s="21"/>
-      <c r="J29" s="39"/>
-    </row>
-    <row r="31" spans="1:10" customHeight="1" ht="18.6">
-      <c r="A31" s="36" t="s">
-        <v>36</v>
-      </c>
-      <c r="B31" s="36"/>
-      <c r="C31" s="36"/>
-      <c r="D31" s="36"/>
-      <c r="E31" s="36"/>
-      <c r="F31" s="36"/>
-      <c r="G31" s="36"/>
-      <c r="H31" s="36"/>
-      <c r="I31" s="36"/>
-      <c r="J31" s="36"/>
-    </row>
-    <row r="32" spans="1:10" customHeight="1" ht="15.6">
-      <c r="A32" s="27" t="s">
-        <v>37</v>
-      </c>
-      <c r="B32" s="28"/>
-      <c r="C32" s="28"/>
-      <c r="D32" s="28"/>
-      <c r="E32" s="28"/>
-      <c r="F32" s="28"/>
-      <c r="G32" s="28"/>
-      <c r="H32" s="28"/>
-      <c r="I32" s="28"/>
-      <c r="J32" s="29"/>
-    </row>
-    <row r="33" spans="1:10">
-      <c r="A33" s="30"/>
-      <c r="B33" s="31"/>
-      <c r="C33" s="31"/>
-      <c r="D33" s="31"/>
-      <c r="E33" s="31"/>
-      <c r="F33" s="31"/>
-      <c r="G33" s="31"/>
-      <c r="H33" s="31"/>
-      <c r="I33" s="31"/>
-      <c r="J33" s="32"/>
-    </row>
-    <row r="34" spans="1:10">
-      <c r="A34" s="33" t="s">
-        <v>39</v>
-      </c>
-      <c r="B34" s="34"/>
-      <c r="C34" s="34"/>
-      <c r="D34" s="34"/>
-      <c r="E34" s="34"/>
-      <c r="F34" s="34"/>
-      <c r="G34" s="34"/>
-      <c r="H34" s="34"/>
-      <c r="I34" s="34"/>
-      <c r="J34" s="35"/>
-    </row>
-    <row r="35" spans="1:10">
-      <c r="A35" s="2"/>
-      <c r="B35" s="3"/>
-      <c r="C35" s="3"/>
-      <c r="D35" s="3"/>
-      <c r="E35" s="3"/>
-      <c r="F35" s="3"/>
-      <c r="G35" s="3"/>
-      <c r="H35" s="3"/>
-      <c r="I35" s="3"/>
-      <c r="J35" s="4"/>
-    </row>
-    <row r="36" spans="1:10">
-      <c r="A36" s="30" t="s">
-        <v>40</v>
-      </c>
-      <c r="B36" s="31"/>
-      <c r="C36" s="31"/>
-      <c r="D36" s="31"/>
-      <c r="E36" s="31"/>
-      <c r="F36" s="31"/>
-      <c r="G36" s="31"/>
-      <c r="H36" s="31"/>
-      <c r="I36" s="31"/>
-      <c r="J36" s="32"/>
-    </row>
-    <row r="37" spans="1:10" customHeight="1" ht="15">
-      <c r="A37" s="5"/>
-      <c r="B37" s="6"/>
-      <c r="C37" s="6"/>
-      <c r="D37" s="6"/>
-      <c r="E37" s="6"/>
-      <c r="F37" s="6"/>
-      <c r="G37" s="6"/>
-      <c r="H37" s="6"/>
-      <c r="I37" s="6"/>
-      <c r="J37" s="7"/>
-    </row>
-  </sheetData>
-  <sheetProtection password="8053" sheet="true" objects="true" scenarios="false" formatCells="true" formatColumns="false" formatRows="false" insertColumns="false" insertRows="true" insertHyperlinks="false" deleteColumns="false" deleteRows="false" selectLockedCells="false" sort="true" autoFilter="false" pivotTables="false" selectUnlockedCells="false"/>
-  <mergeCells>
-    <mergeCell ref="A36:J36"/>
-    <mergeCell ref="A27:D27"/>
-    <mergeCell ref="A21:B21"/>
-    <mergeCell ref="A22:B22"/>
-    <mergeCell ref="A23:B23"/>
-    <mergeCell ref="A24:B24"/>
-    <mergeCell ref="F21:G21"/>
-    <mergeCell ref="F22:G22"/>
-    <mergeCell ref="F23:G23"/>
-    <mergeCell ref="F24:G24"/>
-    <mergeCell ref="C21:E21"/>
-    <mergeCell ref="C22:E22"/>
-    <mergeCell ref="C23:E23"/>
-    <mergeCell ref="C24:E24"/>
-    <mergeCell ref="H21:J21"/>
-    <mergeCell ref="H22:J22"/>
-    <mergeCell ref="A26:J26"/>
-    <mergeCell ref="A31:J31"/>
-    <mergeCell ref="E27:F27"/>
-    <mergeCell ref="A28:B28"/>
-    <mergeCell ref="C28:J28"/>
-    <mergeCell ref="B29:J29"/>
-    <mergeCell ref="G27:H27"/>
-    <mergeCell ref="I27:J27"/>
-    <mergeCell ref="H23:J23"/>
-    <mergeCell ref="H24:J24"/>
-    <mergeCell ref="A32:J32"/>
-    <mergeCell ref="A33:J33"/>
-    <mergeCell ref="A34:J34"/>
-    <mergeCell ref="A20:J20"/>
-    <mergeCell ref="F15:G15"/>
-    <mergeCell ref="F16:G16"/>
-    <mergeCell ref="F17:G17"/>
-    <mergeCell ref="F18:G18"/>
-    <mergeCell ref="H15:J15"/>
-    <mergeCell ref="H16:J16"/>
-    <mergeCell ref="H17:J17"/>
-    <mergeCell ref="H18:J18"/>
-    <mergeCell ref="A15:B15"/>
-    <mergeCell ref="A16:B16"/>
-    <mergeCell ref="A17:C17"/>
-    <mergeCell ref="A18:B18"/>
-    <mergeCell ref="C15:E15"/>
-    <mergeCell ref="C16:E16"/>
-    <mergeCell ref="D17:E17"/>
-    <mergeCell ref="C18:E18"/>
-    <mergeCell ref="A10:B10"/>
-    <mergeCell ref="A11:B11"/>
-    <mergeCell ref="A12:B12"/>
-    <mergeCell ref="A13:B13"/>
-    <mergeCell ref="A14:B14"/>
-    <mergeCell ref="C10:E10"/>
-    <mergeCell ref="C11:G11"/>
-    <mergeCell ref="C12:E12"/>
-    <mergeCell ref="C13:G13"/>
-    <mergeCell ref="C14:G14"/>
-    <mergeCell ref="A9:J9"/>
-    <mergeCell ref="A1:J1"/>
-    <mergeCell ref="A2:J2"/>
-    <mergeCell ref="A3:J3"/>
-    <mergeCell ref="A4:J4"/>
-    <mergeCell ref="D7:E7"/>
-    <mergeCell ref="F7:G7"/>
-    <mergeCell ref="B7:C7"/>
-  </mergeCells>
-  <printOptions gridLines="false" gridLinesSet="true"/>
-  <pageMargins left="0.475" right="0.5583333333333333" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" scale="100" fitToHeight="1" fitToWidth="1"/>
-  <headerFooter differentOddEven="false" differentFirst="false" scaleWithDoc="true" alignWithMargins="true">
-    <oddHeader/>
-    <oddFooter/>
-    <evenHeader/>
-    <evenFooter/>
-    <firstHeader/>
-    <firstFooter/>
-  </headerFooter>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet41.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xml:space="preserve">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-  </sheetPr>
-  <dimension ref="A1:A1"/>
-  <sheetViews>
-    <sheetView tabSelected="0" workbookViewId="0" showGridLines="true" showRowColHeaders="1">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" outlineLevelRow="0" outlineLevelCol="0"/>
-  <sheetData/>
-  <sheetProtection sheet="false" objects="false" scenarios="false" formatCells="false" formatColumns="false" formatRows="false" insertColumns="false" insertRows="false" insertHyperlinks="false" deleteColumns="false" deleteRows="false" selectLockedCells="false" sort="false" autoFilter="false" pivotTables="false" selectUnlockedCells="false"/>
-  <printOptions gridLines="false" gridLinesSet="true"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="1" orientation="default" scale="100" fitToHeight="1" fitToWidth="1"/>
-  <headerFooter differentOddEven="false" differentFirst="false" scaleWithDoc="true" alignWithMargins="true">
-    <oddHeader/>
-    <oddFooter/>
-    <evenHeader/>
-    <evenFooter/>
-    <firstHeader/>
-    <firstFooter/>
-  </headerFooter>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet42.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xml:space="preserve">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-  </sheetPr>
-  <dimension ref="A1:A1"/>
-  <sheetViews>
-    <sheetView tabSelected="0" workbookViewId="0" showGridLines="true" showRowColHeaders="1">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" outlineLevelRow="0" outlineLevelCol="0"/>
-  <sheetData/>
-  <sheetProtection sheet="false" objects="false" scenarios="false" formatCells="false" formatColumns="false" formatRows="false" insertColumns="false" insertRows="false" insertHyperlinks="false" deleteColumns="false" deleteRows="false" selectLockedCells="false" sort="false" autoFilter="false" pivotTables="false" selectUnlockedCells="false"/>
-  <printOptions gridLines="false" gridLinesSet="true"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="1" orientation="default" scale="100" fitToHeight="1" fitToWidth="1"/>
-  <headerFooter differentOddEven="false" differentFirst="false" scaleWithDoc="true" alignWithMargins="true">
-    <oddHeader/>
-    <oddFooter/>
-    <evenHeader/>
-    <evenFooter/>
-    <firstHeader/>
-    <firstFooter/>
-  </headerFooter>
-</worksheet>
-</file>
-
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xml:space="preserve">
   <sheetPr>
@@ -22420,7 +20020,7 @@
       </c>
       <c r="E7" s="18"/>
       <c r="F7" s="19">
-        <v>20154159</v>
+        <v>20154181</v>
       </c>
       <c r="G7" s="19"/>
     </row>
@@ -22444,7 +20044,7 @@
       </c>
       <c r="B10" s="23"/>
       <c r="C10" s="26" t="s">
-        <v>69</v>
+        <v>73</v>
       </c>
       <c r="D10" s="26"/>
       <c r="E10" s="26"/>
@@ -22460,7 +20060,7 @@
       </c>
       <c r="B11" s="25"/>
       <c r="C11" s="20" t="s">
-        <v>70</v>
+        <v>74</v>
       </c>
       <c r="D11" s="20"/>
       <c r="E11" s="20"/>
@@ -22476,7 +20076,7 @@
       </c>
       <c r="B12" s="25"/>
       <c r="C12" s="20" t="s">
-        <v>71</v>
+        <v>75</v>
       </c>
       <c r="D12" s="20"/>
       <c r="E12" s="20"/>
@@ -22492,7 +20092,7 @@
       </c>
       <c r="B13" s="25"/>
       <c r="C13" s="20" t="s">
-        <v>72</v>
+        <v>76</v>
       </c>
       <c r="D13" s="20"/>
       <c r="E13" s="20"/>
@@ -22508,7 +20108,7 @@
       </c>
       <c r="B14" s="25"/>
       <c r="C14" s="20" t="s">
-        <v>73</v>
+        <v>77</v>
       </c>
       <c r="D14" s="20"/>
       <c r="E14" s="20"/>
@@ -22523,9 +20123,7 @@
         <v>14</v>
       </c>
       <c r="B15" s="25"/>
-      <c r="C15" s="20" t="s">
-        <v>74</v>
-      </c>
+      <c r="C15" s="20"/>
       <c r="D15" s="20"/>
       <c r="E15" s="20"/>
       <c r="F15" s="25" t="s">
@@ -22533,7 +20131,7 @@
       </c>
       <c r="G15" s="25"/>
       <c r="H15" s="20" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="I15" s="20"/>
       <c r="J15" s="38"/>
@@ -22544,7 +20142,7 @@
       </c>
       <c r="B16" s="25"/>
       <c r="C16" s="20" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D16" s="20"/>
       <c r="E16" s="20"/>
@@ -22553,7 +20151,7 @@
       </c>
       <c r="G16" s="25"/>
       <c r="H16" s="20" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="I16" s="20"/>
       <c r="J16" s="38"/>
@@ -22565,7 +20163,7 @@
       <c r="B17" s="25"/>
       <c r="C17" s="25"/>
       <c r="D17" s="20" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="E17" s="20"/>
       <c r="F17" s="25" t="s">
@@ -22573,7 +20171,7 @@
       </c>
       <c r="G17" s="25"/>
       <c r="H17" s="20" t="s">
-        <v>75</v>
+        <v>78</v>
       </c>
       <c r="I17" s="20"/>
       <c r="J17" s="38"/>
@@ -22669,7 +20267,7 @@
       </c>
       <c r="G24" s="37"/>
       <c r="H24" s="42" t="s">
-        <v>76</v>
+        <v>79</v>
       </c>
       <c r="I24" s="21"/>
       <c r="J24" s="39"/>
@@ -22696,7 +20294,7 @@
       <c r="C27" s="23"/>
       <c r="D27" s="23"/>
       <c r="E27" s="26">
-        <v>2013</v>
+        <v>2011</v>
       </c>
       <c r="F27" s="26"/>
       <c r="G27" s="23" t="s">
@@ -22712,7 +20310,7 @@
       </c>
       <c r="B28" s="25"/>
       <c r="C28" s="20" t="s">
-        <v>77</v>
+        <v>80</v>
       </c>
       <c r="D28" s="20"/>
       <c r="E28" s="20"/>
@@ -23015,7 +20613,7 @@
       </c>
       <c r="E7" s="18"/>
       <c r="F7" s="19">
-        <v>20154181</v>
+        <v>20154178</v>
       </c>
       <c r="G7" s="19"/>
     </row>
@@ -23039,7 +20637,7 @@
       </c>
       <c r="B10" s="23"/>
       <c r="C10" s="26" t="s">
-        <v>78</v>
+        <v>81</v>
       </c>
       <c r="D10" s="26"/>
       <c r="E10" s="26"/>
@@ -23055,7 +20653,7 @@
       </c>
       <c r="B11" s="25"/>
       <c r="C11" s="20" t="s">
-        <v>79</v>
+        <v>82</v>
       </c>
       <c r="D11" s="20"/>
       <c r="E11" s="20"/>
@@ -23071,7 +20669,7 @@
       </c>
       <c r="B12" s="25"/>
       <c r="C12" s="20" t="s">
-        <v>80</v>
+        <v>83</v>
       </c>
       <c r="D12" s="20"/>
       <c r="E12" s="20"/>
@@ -23087,7 +20685,7 @@
       </c>
       <c r="B13" s="25"/>
       <c r="C13" s="20" t="s">
-        <v>81</v>
+        <v>84</v>
       </c>
       <c r="D13" s="20"/>
       <c r="E13" s="20"/>
@@ -23103,7 +20701,7 @@
       </c>
       <c r="B14" s="25"/>
       <c r="C14" s="20" t="s">
-        <v>82</v>
+        <v>85</v>
       </c>
       <c r="D14" s="20"/>
       <c r="E14" s="20"/>
@@ -23118,9 +20716,7 @@
         <v>14</v>
       </c>
       <c r="B15" s="25"/>
-      <c r="C15" s="20" t="s">
-        <v>83</v>
-      </c>
+      <c r="C15" s="20"/>
       <c r="D15" s="20"/>
       <c r="E15" s="20"/>
       <c r="F15" s="25" t="s">
@@ -23128,7 +20724,7 @@
       </c>
       <c r="G15" s="25"/>
       <c r="H15" s="20" t="s">
-        <v>62</v>
+        <v>49</v>
       </c>
       <c r="I15" s="20"/>
       <c r="J15" s="38"/>
@@ -23139,7 +20735,7 @@
       </c>
       <c r="B16" s="25"/>
       <c r="C16" s="20" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D16" s="20"/>
       <c r="E16" s="20"/>
@@ -23148,7 +20744,7 @@
       </c>
       <c r="G16" s="25"/>
       <c r="H16" s="20" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="I16" s="20"/>
       <c r="J16" s="38"/>
@@ -23160,7 +20756,7 @@
       <c r="B17" s="25"/>
       <c r="C17" s="25"/>
       <c r="D17" s="20" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="E17" s="20"/>
       <c r="F17" s="25" t="s">
@@ -23168,7 +20764,7 @@
       </c>
       <c r="G17" s="25"/>
       <c r="H17" s="20" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="I17" s="20"/>
       <c r="J17" s="38"/>
@@ -23264,7 +20860,7 @@
       </c>
       <c r="G24" s="37"/>
       <c r="H24" s="42" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="I24" s="21"/>
       <c r="J24" s="39"/>
@@ -23291,7 +20887,7 @@
       <c r="C27" s="23"/>
       <c r="D27" s="23"/>
       <c r="E27" s="26">
-        <v>2011</v>
+        <v>2013</v>
       </c>
       <c r="F27" s="26"/>
       <c r="G27" s="23" t="s">
@@ -23307,7 +20903,7 @@
       </c>
       <c r="B28" s="25"/>
       <c r="C28" s="20" t="s">
-        <v>86</v>
+        <v>72</v>
       </c>
       <c r="D28" s="20"/>
       <c r="E28" s="20"/>
@@ -23610,7 +21206,7 @@
       </c>
       <c r="E7" s="18"/>
       <c r="F7" s="19">
-        <v>20154178</v>
+        <v>20154174</v>
       </c>
       <c r="G7" s="19"/>
     </row>
@@ -23634,7 +21230,7 @@
       </c>
       <c r="B10" s="23"/>
       <c r="C10" s="26" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="D10" s="26"/>
       <c r="E10" s="26"/>
@@ -23650,7 +21246,7 @@
       </c>
       <c r="B11" s="25"/>
       <c r="C11" s="20" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="D11" s="20"/>
       <c r="E11" s="20"/>
@@ -23666,7 +21262,7 @@
       </c>
       <c r="B12" s="25"/>
       <c r="C12" s="20" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="D12" s="20"/>
       <c r="E12" s="20"/>
@@ -23682,7 +21278,7 @@
       </c>
       <c r="B13" s="25"/>
       <c r="C13" s="20" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="D13" s="20"/>
       <c r="E13" s="20"/>
@@ -23698,7 +21294,7 @@
       </c>
       <c r="B14" s="25"/>
       <c r="C14" s="20" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="D14" s="20"/>
       <c r="E14" s="20"/>
@@ -23713,9 +21309,7 @@
         <v>14</v>
       </c>
       <c r="B15" s="25"/>
-      <c r="C15" s="20" t="s">
-        <v>92</v>
-      </c>
+      <c r="C15" s="20"/>
       <c r="D15" s="20"/>
       <c r="E15" s="20"/>
       <c r="F15" s="25" t="s">
@@ -23723,7 +21317,7 @@
       </c>
       <c r="G15" s="25"/>
       <c r="H15" s="20" t="s">
-        <v>50</v>
+        <v>61</v>
       </c>
       <c r="I15" s="20"/>
       <c r="J15" s="38"/>
@@ -23734,7 +21328,7 @@
       </c>
       <c r="B16" s="25"/>
       <c r="C16" s="20" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D16" s="20"/>
       <c r="E16" s="20"/>
@@ -23743,7 +21337,7 @@
       </c>
       <c r="G16" s="25"/>
       <c r="H16" s="20" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="I16" s="20"/>
       <c r="J16" s="38"/>
@@ -23755,7 +21349,7 @@
       <c r="B17" s="25"/>
       <c r="C17" s="25"/>
       <c r="D17" s="20" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="E17" s="20"/>
       <c r="F17" s="25" t="s">
@@ -23902,7 +21496,7 @@
       </c>
       <c r="B28" s="25"/>
       <c r="C28" s="20" t="s">
-        <v>77</v>
+        <v>55</v>
       </c>
       <c r="D28" s="20"/>
       <c r="E28" s="20"/>
@@ -24205,7 +21799,7 @@
       </c>
       <c r="E7" s="18"/>
       <c r="F7" s="19">
-        <v>20154174</v>
+        <v>20154167</v>
       </c>
       <c r="G7" s="19"/>
     </row>
@@ -24308,9 +21902,7 @@
         <v>14</v>
       </c>
       <c r="B15" s="25"/>
-      <c r="C15" s="20" t="s">
-        <v>49</v>
-      </c>
+      <c r="C15" s="20"/>
       <c r="D15" s="20"/>
       <c r="E15" s="20"/>
       <c r="F15" s="25" t="s">
@@ -24318,7 +21910,7 @@
       </c>
       <c r="G15" s="25"/>
       <c r="H15" s="20" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="I15" s="20"/>
       <c r="J15" s="38"/>
@@ -24329,7 +21921,7 @@
       </c>
       <c r="B16" s="25"/>
       <c r="C16" s="20" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D16" s="20"/>
       <c r="E16" s="20"/>
@@ -24338,7 +21930,7 @@
       </c>
       <c r="G16" s="25"/>
       <c r="H16" s="20" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="I16" s="20"/>
       <c r="J16" s="38"/>
@@ -24350,7 +21942,7 @@
       <c r="B17" s="25"/>
       <c r="C17" s="25"/>
       <c r="D17" s="20" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="E17" s="20"/>
       <c r="F17" s="25" t="s">
@@ -24497,7 +22089,7 @@
       </c>
       <c r="B28" s="25"/>
       <c r="C28" s="20" t="s">
-        <v>56</v>
+        <v>72</v>
       </c>
       <c r="D28" s="20"/>
       <c r="E28" s="20"/>
@@ -24800,7 +22392,7 @@
       </c>
       <c r="E7" s="18"/>
       <c r="F7" s="19">
-        <v>20154167</v>
+        <v>20154191</v>
       </c>
       <c r="G7" s="19"/>
     </row>
@@ -24903,9 +22495,7 @@
         <v>14</v>
       </c>
       <c r="B15" s="25"/>
-      <c r="C15" s="20" t="s">
-        <v>107</v>
-      </c>
+      <c r="C15" s="20"/>
       <c r="D15" s="20"/>
       <c r="E15" s="20"/>
       <c r="F15" s="25" t="s">
@@ -24913,7 +22503,7 @@
       </c>
       <c r="G15" s="25"/>
       <c r="H15" s="20" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="I15" s="20"/>
       <c r="J15" s="38"/>
@@ -24924,7 +22514,7 @@
       </c>
       <c r="B16" s="25"/>
       <c r="C16" s="20" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D16" s="20"/>
       <c r="E16" s="20"/>
@@ -24933,7 +22523,7 @@
       </c>
       <c r="G16" s="25"/>
       <c r="H16" s="20" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="I16" s="20"/>
       <c r="J16" s="38"/>
@@ -24945,7 +22535,7 @@
       <c r="B17" s="25"/>
       <c r="C17" s="25"/>
       <c r="D17" s="20" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="E17" s="20"/>
       <c r="F17" s="25" t="s">
@@ -24953,7 +22543,7 @@
       </c>
       <c r="G17" s="25"/>
       <c r="H17" s="20" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="I17" s="20"/>
       <c r="J17" s="38"/>
@@ -25049,7 +22639,7 @@
       </c>
       <c r="G24" s="37"/>
       <c r="H24" s="42" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="I24" s="21"/>
       <c r="J24" s="39"/>
@@ -25076,7 +22666,7 @@
       <c r="C27" s="23"/>
       <c r="D27" s="23"/>
       <c r="E27" s="26">
-        <v>2013</v>
+        <v>2012</v>
       </c>
       <c r="F27" s="26"/>
       <c r="G27" s="23" t="s">
@@ -25092,7 +22682,7 @@
       </c>
       <c r="B28" s="25"/>
       <c r="C28" s="20" t="s">
-        <v>77</v>
+        <v>55</v>
       </c>
       <c r="D28" s="20"/>
       <c r="E28" s="20"/>
